--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_9_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_9_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3560550.219354118</v>
+        <v>3559096.620790108</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2107776.869223094</v>
+        <v>2206753.760730269</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>74622.75249697533</v>
+        <v>21320.78642770728</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8120932.776964161</v>
+        <v>8126087.291504814</v>
       </c>
     </row>
     <row r="11">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>44.13217237922859</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>26.92232807701203</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -703,19 +703,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>38.88501798484931</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>38.12502610536668</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="C3" t="n">
+      <c r="I3" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="D3" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>38.12502610536669</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -819,16 +819,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -867,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7904504476822409</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>28.88091821707973</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>38.88501798484931</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,25 +977,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>38.12502610536669</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>38.12502610536669</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>19.9316902659215</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>81.4017720226791</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>34.45595471328337</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>93.4164463478195</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1180,13 +1180,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>81.4017720226791</v>
+        <v>93.4164463478195</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>93.4164463478195</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>81.4017720226791</v>
+        <v>38.16243411715564</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,31 +1211,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>81.4017720226791</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>71.69868079757572</v>
+        <v>81.53461461690151</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>93.4164463478195</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>93.4164463478195</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>81.4017720226791</v>
+        <v>93.4164463478195</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>81.4017720226791</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1305,10 +1305,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>93.4164463478195</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>14.77958867655917</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>29.51570373680607</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>81.4017720226791</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>295.2793665869988</v>
+        <v>295.2793665869989</v>
       </c>
       <c r="C11" t="n">
         <v>277.8184166945258</v>
       </c>
       <c r="D11" t="n">
-        <v>267.2285665442012</v>
+        <v>267.2285665442013</v>
       </c>
       <c r="E11" t="n">
-        <v>294.47589499578</v>
+        <v>294.4758949957801</v>
       </c>
       <c r="F11" t="n">
-        <v>319.4215706652297</v>
+        <v>319.4215706652298</v>
       </c>
       <c r="G11" t="n">
         <v>325.462428869455</v>
@@ -1390,7 +1390,7 @@
         <v>227.5864089987338</v>
       </c>
       <c r="I11" t="n">
-        <v>31.04156581740857</v>
+        <v>31.04156581740858</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>67.19841205165845</v>
+        <v>67.19841205165847</v>
       </c>
       <c r="T11" t="n">
         <v>125.1973880384843</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>92.37750510545557</v>
+        <v>92.37750510545558</v>
       </c>
       <c r="C13" t="n">
-        <v>79.79234602214611</v>
+        <v>79.79234602214612</v>
       </c>
       <c r="D13" t="n">
-        <v>61.16099794173063</v>
+        <v>61.16099794173064</v>
       </c>
       <c r="E13" t="n">
-        <v>58.97948757008744</v>
+        <v>58.97948757008746</v>
       </c>
       <c r="F13" t="n">
-        <v>57.96657294644952</v>
+        <v>57.96657294644953</v>
       </c>
       <c r="G13" t="n">
-        <v>79.46630147808872</v>
+        <v>79.46630147808874</v>
       </c>
       <c r="H13" t="n">
-        <v>65.25762159275084</v>
+        <v>65.25762159275085</v>
       </c>
       <c r="I13" t="n">
-        <v>35.81208280293525</v>
+        <v>35.81208280293593</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.71870659130958</v>
+        <v>41.7187065913096</v>
       </c>
       <c r="S13" t="n">
         <v>117.9114068236369</v>
@@ -1584,10 +1584,10 @@
         <v>135.918429644277</v>
       </c>
       <c r="U13" t="n">
-        <v>198.8061795816152</v>
+        <v>198.8061795816153</v>
       </c>
       <c r="V13" t="n">
-        <v>164.6831682473472</v>
+        <v>164.6831682473463</v>
       </c>
       <c r="W13" t="n">
         <v>199.0685232601093</v>
@@ -1596,7 +1596,7 @@
         <v>138.2551803125554</v>
       </c>
       <c r="Y13" t="n">
-        <v>131.130178275613</v>
+        <v>131.1301782756131</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>319.4215706652298</v>
       </c>
       <c r="G14" t="n">
-        <v>325.462428869455</v>
+        <v>325.4624288694551</v>
       </c>
       <c r="H14" t="n">
         <v>227.5864089987338</v>
@@ -1669,7 +1669,7 @@
         <v>240.2977833936532</v>
       </c>
       <c r="W14" t="n">
-        <v>261.7864936409313</v>
+        <v>261.7864936409314</v>
       </c>
       <c r="X14" t="n">
         <v>282.2766256019873</v>
@@ -1782,10 +1782,10 @@
         <v>79.46630147808874</v>
       </c>
       <c r="H16" t="n">
-        <v>65.25762159275085</v>
+        <v>65.25762159275152</v>
       </c>
       <c r="I16" t="n">
-        <v>35.81208280293593</v>
+        <v>35.81208280293527</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>295.2793665869989</v>
       </c>
       <c r="C17" t="n">
-        <v>277.8184166945259</v>
+        <v>277.8184166945258</v>
       </c>
       <c r="D17" t="n">
         <v>267.2285665442013</v>
@@ -1858,13 +1858,13 @@
         <v>319.4215706652298</v>
       </c>
       <c r="G17" t="n">
-        <v>325.4624288694551</v>
+        <v>325.462428869455</v>
       </c>
       <c r="H17" t="n">
-        <v>227.5864089987339</v>
+        <v>227.5864089987338</v>
       </c>
       <c r="I17" t="n">
-        <v>31.04156581740861</v>
+        <v>31.04156581740858</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>67.19841205165849</v>
+        <v>67.19841205165847</v>
       </c>
       <c r="T17" t="n">
         <v>125.1973880384843</v>
@@ -1912,7 +1912,7 @@
         <v>282.2766256019873</v>
       </c>
       <c r="Y17" t="n">
-        <v>298.7834635795719</v>
+        <v>298.7834635795718</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>92.37750510545561</v>
+        <v>92.37750510545558</v>
       </c>
       <c r="C19" t="n">
-        <v>79.79234602214615</v>
+        <v>79.79234602214612</v>
       </c>
       <c r="D19" t="n">
-        <v>61.16099794173067</v>
+        <v>61.16099794173064</v>
       </c>
       <c r="E19" t="n">
-        <v>58.97948757008749</v>
+        <v>58.97948757008746</v>
       </c>
       <c r="F19" t="n">
-        <v>57.96657294644935</v>
+        <v>57.96657294644953</v>
       </c>
       <c r="G19" t="n">
-        <v>79.46630147808877</v>
+        <v>79.46630147808874</v>
       </c>
       <c r="H19" t="n">
-        <v>65.25762159275088</v>
+        <v>65.25762159275152</v>
       </c>
       <c r="I19" t="n">
-        <v>35.81208280293529</v>
+        <v>35.81208280293527</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.71870659130963</v>
+        <v>41.7187065913096</v>
       </c>
       <c r="S19" t="n">
-        <v>117.911406823637</v>
+        <v>117.9114068236369</v>
       </c>
       <c r="T19" t="n">
         <v>135.918429644277</v>
@@ -2067,7 +2067,7 @@
         <v>199.0685232601093</v>
       </c>
       <c r="X19" t="n">
-        <v>138.2551803125555</v>
+        <v>138.2551803125554</v>
       </c>
       <c r="Y19" t="n">
         <v>131.1301782756131</v>
@@ -2083,7 +2083,7 @@
         <v>295.2793665869989</v>
       </c>
       <c r="C20" t="n">
-        <v>277.8184166945259</v>
+        <v>277.8184166945258</v>
       </c>
       <c r="D20" t="n">
         <v>267.2285665442013</v>
@@ -2098,10 +2098,10 @@
         <v>325.4624288694551</v>
       </c>
       <c r="H20" t="n">
-        <v>227.5864089987339</v>
+        <v>227.5864089987338</v>
       </c>
       <c r="I20" t="n">
-        <v>31.0415658174086</v>
+        <v>31.04156581740872</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>67.19841205165848</v>
+        <v>67.19841205165847</v>
       </c>
       <c r="T20" t="n">
         <v>125.1973880384843</v>
@@ -2149,7 +2149,7 @@
         <v>282.2766256019873</v>
       </c>
       <c r="Y20" t="n">
-        <v>298.7834635795719</v>
+        <v>298.7834635795718</v>
       </c>
     </row>
     <row r="21">
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>92.3775051054556</v>
+        <v>92.37750510545558</v>
       </c>
       <c r="C22" t="n">
-        <v>79.79234602214613</v>
+        <v>79.79234602214612</v>
       </c>
       <c r="D22" t="n">
-        <v>61.16099794173066</v>
+        <v>61.16099794173064</v>
       </c>
       <c r="E22" t="n">
-        <v>58.97948757008747</v>
+        <v>58.97948757008746</v>
       </c>
       <c r="F22" t="n">
-        <v>57.96657294644955</v>
+        <v>57.96657294644953</v>
       </c>
       <c r="G22" t="n">
         <v>79.46630147808874</v>
@@ -2259,7 +2259,7 @@
         <v>65.25762159275085</v>
       </c>
       <c r="I22" t="n">
-        <v>35.81208280293528</v>
+        <v>35.81208280293527</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.71870659130961</v>
+        <v>41.71870659131002</v>
       </c>
       <c r="S22" t="n">
         <v>117.9114068236369</v>
@@ -2304,7 +2304,7 @@
         <v>199.0685232601093</v>
       </c>
       <c r="X22" t="n">
-        <v>138.2551803125555</v>
+        <v>138.2551803125554</v>
       </c>
       <c r="Y22" t="n">
         <v>131.1301782756131</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>295.2793665869989</v>
+        <v>295.2793665869988</v>
       </c>
       <c r="C23" t="n">
-        <v>277.8184166945259</v>
+        <v>277.8184166945261</v>
       </c>
       <c r="D23" t="n">
-        <v>267.2285665442013</v>
+        <v>267.2285665442012</v>
       </c>
       <c r="E23" t="n">
-        <v>294.4758949957801</v>
+        <v>294.47589499578</v>
       </c>
       <c r="F23" t="n">
-        <v>319.4215706652298</v>
+        <v>319.4215706652297</v>
       </c>
       <c r="G23" t="n">
-        <v>325.4624288694551</v>
+        <v>325.462428869455</v>
       </c>
       <c r="H23" t="n">
-        <v>227.5864089987339</v>
+        <v>227.5864089987338</v>
       </c>
       <c r="I23" t="n">
-        <v>31.0415658174086</v>
+        <v>31.04156581740857</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>282.2766256019873</v>
       </c>
       <c r="Y23" t="n">
-        <v>298.7834635795719</v>
+        <v>298.7834635795718</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>92.3775051054556</v>
+        <v>92.37750510545557</v>
       </c>
       <c r="C25" t="n">
-        <v>79.79234602214613</v>
+        <v>79.79234602214611</v>
       </c>
       <c r="D25" t="n">
-        <v>61.16099794173066</v>
+        <v>61.16099794173063</v>
       </c>
       <c r="E25" t="n">
-        <v>58.97948757008747</v>
+        <v>58.97948757008744</v>
       </c>
       <c r="F25" t="n">
-        <v>57.96657294644955</v>
+        <v>57.96657294644952</v>
       </c>
       <c r="G25" t="n">
-        <v>79.46630147808875</v>
+        <v>79.46630147808871</v>
       </c>
       <c r="H25" t="n">
-        <v>65.25762159275087</v>
+        <v>65.25762159275082</v>
       </c>
       <c r="I25" t="n">
-        <v>35.81208280293516</v>
+        <v>35.81208280293525</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.71870659130961</v>
+        <v>41.71870659130958</v>
       </c>
       <c r="S25" t="n">
-        <v>117.911406823637</v>
+        <v>117.9114068236369</v>
       </c>
       <c r="T25" t="n">
         <v>135.918429644277</v>
@@ -2541,10 +2541,10 @@
         <v>199.0685232601093</v>
       </c>
       <c r="X25" t="n">
-        <v>138.2551803125555</v>
+        <v>138.2551803125554</v>
       </c>
       <c r="Y25" t="n">
-        <v>131.1301782756131</v>
+        <v>131.130178275613</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>302.7318522515275</v>
       </c>
       <c r="C26" t="n">
-        <v>285.2709023590544</v>
+        <v>285.2709023590545</v>
       </c>
       <c r="D26" t="n">
         <v>274.6810522087299</v>
@@ -2575,7 +2575,7 @@
         <v>235.0388946632625</v>
       </c>
       <c r="I26" t="n">
-        <v>38.49405148193719</v>
+        <v>38.49405148193722</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>74.65089771618707</v>
+        <v>74.6508977161871</v>
       </c>
       <c r="T26" t="n">
         <v>132.6498737030129</v>
       </c>
       <c r="U26" t="n">
-        <v>171.1527968103475</v>
+        <v>171.1527968103476</v>
       </c>
       <c r="V26" t="n">
         <v>247.7502690581818</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>99.82999076998419</v>
+        <v>99.82999076998422</v>
       </c>
       <c r="C28" t="n">
-        <v>87.24483168667473</v>
+        <v>87.24483168667476</v>
       </c>
       <c r="D28" t="n">
-        <v>68.61348360625925</v>
+        <v>68.61348360625928</v>
       </c>
       <c r="E28" t="n">
-        <v>66.43197323461607</v>
+        <v>66.43197323461609</v>
       </c>
       <c r="F28" t="n">
-        <v>3.720514104827702</v>
+        <v>65.41905861097817</v>
       </c>
       <c r="G28" t="n">
-        <v>86.91878714261735</v>
+        <v>86.91878714261738</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>72.71010725727949</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>43.2645684674639</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>49.17119225583821</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>125.3638924881655</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>143.3709153088056</v>
@@ -2778,10 +2778,10 @@
         <v>206.5210089246379</v>
       </c>
       <c r="X28" t="n">
-        <v>145.707665977084</v>
+        <v>145.7076659770841</v>
       </c>
       <c r="Y28" t="n">
-        <v>138.5826639401417</v>
+        <v>135.4445284532513</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>235.0388946632625</v>
       </c>
       <c r="I29" t="n">
-        <v>38.49405148193721</v>
+        <v>38.49405148193719</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>74.65089771618709</v>
+        <v>74.65089771618707</v>
       </c>
       <c r="T29" t="n">
         <v>132.6498737030129</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.82999076998421</v>
+        <v>99.82999076998419</v>
       </c>
       <c r="C31" t="n">
-        <v>87.24483168667474</v>
+        <v>25.1747769462352</v>
       </c>
       <c r="D31" t="n">
-        <v>68.61348360625927</v>
+        <v>68.61348360625925</v>
       </c>
       <c r="E31" t="n">
-        <v>66.43197323461608</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>65.41905861097814</v>
       </c>
       <c r="G31" t="n">
-        <v>86.91878714261736</v>
+        <v>86.91878714261735</v>
       </c>
       <c r="H31" t="n">
-        <v>72.71010725727947</v>
+        <v>72.71010725727946</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>43.26456846746387</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>49.17119225583822</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>125.3638924881655</v>
@@ -3015,7 +3015,7 @@
         <v>206.5210089246379</v>
       </c>
       <c r="X31" t="n">
-        <v>76.71807282463219</v>
+        <v>145.707665977084</v>
       </c>
       <c r="Y31" t="n">
         <v>138.5826639401417</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>302.7318522515275</v>
+        <v>295.2793665869989</v>
       </c>
       <c r="C32" t="n">
-        <v>285.2709023590544</v>
+        <v>277.8184166945259</v>
       </c>
       <c r="D32" t="n">
-        <v>274.6810522087299</v>
+        <v>267.2285665442013</v>
       </c>
       <c r="E32" t="n">
-        <v>301.9283806603087</v>
+        <v>294.4758949957801</v>
       </c>
       <c r="F32" t="n">
-        <v>326.8740563297583</v>
+        <v>319.4215706652298</v>
       </c>
       <c r="G32" t="n">
-        <v>332.9149145339836</v>
+        <v>325.4624288694551</v>
       </c>
       <c r="H32" t="n">
-        <v>235.0388946632624</v>
+        <v>227.5864089987339</v>
       </c>
       <c r="I32" t="n">
-        <v>38.49405148193716</v>
+        <v>31.0415658174086</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>74.65089771618705</v>
+        <v>67.19841205165848</v>
       </c>
       <c r="T32" t="n">
-        <v>132.6498737030129</v>
+        <v>125.1973880384843</v>
       </c>
       <c r="U32" t="n">
-        <v>171.1527968103475</v>
+        <v>163.7003111458189</v>
       </c>
       <c r="V32" t="n">
-        <v>247.7502690581818</v>
+        <v>240.2977833936532</v>
       </c>
       <c r="W32" t="n">
-        <v>269.2389793054599</v>
+        <v>261.7864936409313</v>
       </c>
       <c r="X32" t="n">
-        <v>289.7291112665159</v>
+        <v>282.2766256019873</v>
       </c>
       <c r="Y32" t="n">
-        <v>306.2359492441004</v>
+        <v>298.7834635795719</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>99.82999076998416</v>
+        <v>92.3775051054556</v>
       </c>
       <c r="C34" t="n">
-        <v>87.2448316866747</v>
+        <v>79.79234602214613</v>
       </c>
       <c r="D34" t="n">
-        <v>68.61348360625922</v>
+        <v>61.16099794173066</v>
       </c>
       <c r="E34" t="n">
-        <v>66.43197323461604</v>
+        <v>58.97948757008747</v>
       </c>
       <c r="F34" t="n">
-        <v>65.41905861097811</v>
+        <v>57.96657294644955</v>
       </c>
       <c r="G34" t="n">
-        <v>86.91878714261732</v>
+        <v>79.46630147808874</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>65.25762159275085</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>35.81208280293528</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>49.17119225583818</v>
+        <v>41.71870659130961</v>
       </c>
       <c r="S34" t="n">
-        <v>63.6653479820164</v>
+        <v>117.9114068236369</v>
       </c>
       <c r="T34" t="n">
-        <v>143.3709153088056</v>
+        <v>135.918429644277</v>
       </c>
       <c r="U34" t="n">
-        <v>206.2586652461438</v>
+        <v>198.8061795816153</v>
       </c>
       <c r="V34" t="n">
-        <v>172.1356539118749</v>
+        <v>164.6831682473463</v>
       </c>
       <c r="W34" t="n">
-        <v>206.5210089246379</v>
+        <v>199.0685232601093</v>
       </c>
       <c r="X34" t="n">
-        <v>145.707665977084</v>
+        <v>138.2551803125555</v>
       </c>
       <c r="Y34" t="n">
-        <v>138.5826639401417</v>
+        <v>131.1301782756131</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>302.7318522515275</v>
+        <v>295.2793665869989</v>
       </c>
       <c r="C35" t="n">
-        <v>285.2709023590544</v>
+        <v>277.8184166945258</v>
       </c>
       <c r="D35" t="n">
-        <v>274.6810522087299</v>
+        <v>267.2285665442013</v>
       </c>
       <c r="E35" t="n">
-        <v>301.9283806603087</v>
+        <v>294.4758949957801</v>
       </c>
       <c r="F35" t="n">
-        <v>326.8740563297583</v>
+        <v>319.4215706652298</v>
       </c>
       <c r="G35" t="n">
-        <v>332.9149145339837</v>
+        <v>325.462428869455</v>
       </c>
       <c r="H35" t="n">
-        <v>235.0388946632625</v>
+        <v>227.5864089987338</v>
       </c>
       <c r="I35" t="n">
-        <v>38.49405148193721</v>
+        <v>31.04156581740858</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>74.65089771618709</v>
+        <v>67.19841205165847</v>
       </c>
       <c r="T35" t="n">
-        <v>132.6498737030129</v>
+        <v>125.1973880384843</v>
       </c>
       <c r="U35" t="n">
-        <v>171.1527968103475</v>
+        <v>163.7003111458189</v>
       </c>
       <c r="V35" t="n">
-        <v>247.7502690581818</v>
+        <v>240.2977833936532</v>
       </c>
       <c r="W35" t="n">
-        <v>269.2389793054599</v>
+        <v>261.7864936409313</v>
       </c>
       <c r="X35" t="n">
-        <v>289.7291112665159</v>
+        <v>282.2766256019873</v>
       </c>
       <c r="Y35" t="n">
-        <v>306.2359492441005</v>
+        <v>298.7834635795718</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>99.82999076998421</v>
+        <v>92.37750510545558</v>
       </c>
       <c r="C37" t="n">
-        <v>87.24483168667474</v>
+        <v>79.79234602214612</v>
       </c>
       <c r="D37" t="n">
-        <v>68.61348360625927</v>
+        <v>61.16099794173064</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>58.97948757008746</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>57.96657294644953</v>
       </c>
       <c r="G37" t="n">
-        <v>86.91878714261736</v>
+        <v>79.46630147808872</v>
       </c>
       <c r="H37" t="n">
-        <v>70.1524873394437</v>
+        <v>65.25762159275084</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>35.81208280293527</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>49.17119225583822</v>
+        <v>41.7187065913096</v>
       </c>
       <c r="S37" t="n">
-        <v>125.3638924881655</v>
+        <v>117.9114068236369</v>
       </c>
       <c r="T37" t="n">
-        <v>143.3709153088056</v>
+        <v>135.918429644277</v>
       </c>
       <c r="U37" t="n">
-        <v>206.2586652461439</v>
+        <v>198.8061795816153</v>
       </c>
       <c r="V37" t="n">
-        <v>172.1356539118749</v>
+        <v>164.6831682473463</v>
       </c>
       <c r="W37" t="n">
-        <v>206.5210089246379</v>
+        <v>199.0685232601093</v>
       </c>
       <c r="X37" t="n">
-        <v>145.707665977084</v>
+        <v>138.2551803125554</v>
       </c>
       <c r="Y37" t="n">
-        <v>138.5826639401417</v>
+        <v>131.1301782756131</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>302.7318522515275</v>
+        <v>295.2793665869989</v>
       </c>
       <c r="C38" t="n">
-        <v>285.2709023590544</v>
+        <v>277.8184166945258</v>
       </c>
       <c r="D38" t="n">
-        <v>274.6810522087299</v>
+        <v>267.2285665442013</v>
       </c>
       <c r="E38" t="n">
-        <v>301.9283806603087</v>
+        <v>294.4758949957801</v>
       </c>
       <c r="F38" t="n">
-        <v>326.8740563297583</v>
+        <v>319.4215706652298</v>
       </c>
       <c r="G38" t="n">
-        <v>332.9149145339837</v>
+        <v>325.4624288694551</v>
       </c>
       <c r="H38" t="n">
-        <v>235.0388946632625</v>
+        <v>227.5864089987338</v>
       </c>
       <c r="I38" t="n">
-        <v>38.49405148193723</v>
+        <v>31.04156581740872</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>74.6508977161871</v>
+        <v>67.19841205165847</v>
       </c>
       <c r="T38" t="n">
-        <v>132.6498737030129</v>
+        <v>125.1973880384843</v>
       </c>
       <c r="U38" t="n">
-        <v>171.1527968103475</v>
+        <v>163.7003111458189</v>
       </c>
       <c r="V38" t="n">
-        <v>247.7502690581818</v>
+        <v>240.2977833936532</v>
       </c>
       <c r="W38" t="n">
-        <v>269.2389793054599</v>
+        <v>261.7864936409313</v>
       </c>
       <c r="X38" t="n">
-        <v>289.7291112665159</v>
+        <v>282.2766256019873</v>
       </c>
       <c r="Y38" t="n">
-        <v>306.2359492441005</v>
+        <v>298.7834635795718</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>99.82999076998421</v>
+        <v>92.37750510545631</v>
       </c>
       <c r="C40" t="n">
-        <v>87.24483168667474</v>
+        <v>79.79234602214612</v>
       </c>
       <c r="D40" t="n">
-        <v>22.79129522095963</v>
+        <v>61.16099794173064</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>58.97948757008746</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>57.96657294644953</v>
       </c>
       <c r="G40" t="n">
-        <v>86.91878714261736</v>
+        <v>79.46630147808874</v>
       </c>
       <c r="H40" t="n">
-        <v>72.71010725727947</v>
+        <v>65.25762159275085</v>
       </c>
       <c r="I40" t="n">
-        <v>43.26456846746389</v>
+        <v>35.81208280293527</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>49.17119225583822</v>
+        <v>41.7187065913096</v>
       </c>
       <c r="S40" t="n">
-        <v>125.3638924881655</v>
+        <v>117.9114068236369</v>
       </c>
       <c r="T40" t="n">
-        <v>143.3709153088056</v>
+        <v>135.918429644277</v>
       </c>
       <c r="U40" t="n">
-        <v>206.2586652461439</v>
+        <v>198.8061795816153</v>
       </c>
       <c r="V40" t="n">
-        <v>172.1356539118749</v>
+        <v>164.6831682473463</v>
       </c>
       <c r="W40" t="n">
-        <v>206.5210089246379</v>
+        <v>199.0685232601093</v>
       </c>
       <c r="X40" t="n">
-        <v>145.707665977084</v>
+        <v>138.2551803125554</v>
       </c>
       <c r="Y40" t="n">
-        <v>138.5826639401417</v>
+        <v>131.1301782756131</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>302.7318522515275</v>
+        <v>295.2793665869988</v>
       </c>
       <c r="C41" t="n">
-        <v>285.2709023590544</v>
+        <v>277.8184166945258</v>
       </c>
       <c r="D41" t="n">
-        <v>274.6810522087299</v>
+        <v>267.2285665442012</v>
       </c>
       <c r="E41" t="n">
-        <v>301.9283806603087</v>
+        <v>294.47589499578</v>
       </c>
       <c r="F41" t="n">
-        <v>326.8740563297583</v>
+        <v>319.4215706652297</v>
       </c>
       <c r="G41" t="n">
-        <v>332.9149145339837</v>
+        <v>325.462428869455</v>
       </c>
       <c r="H41" t="n">
-        <v>235.0388946632625</v>
+        <v>227.5864089987338</v>
       </c>
       <c r="I41" t="n">
-        <v>38.49405148193718</v>
+        <v>31.04156581740857</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>74.65089771618706</v>
+        <v>67.19841205165845</v>
       </c>
       <c r="T41" t="n">
-        <v>132.6498737030129</v>
+        <v>125.1973880384843</v>
       </c>
       <c r="U41" t="n">
-        <v>171.1527968103475</v>
+        <v>163.7003111458189</v>
       </c>
       <c r="V41" t="n">
-        <v>247.7502690581818</v>
+        <v>240.2977833936532</v>
       </c>
       <c r="W41" t="n">
-        <v>269.2389793054599</v>
+        <v>261.7864936409313</v>
       </c>
       <c r="X41" t="n">
-        <v>289.7291112665159</v>
+        <v>282.2766256019873</v>
       </c>
       <c r="Y41" t="n">
-        <v>306.2359492441005</v>
+        <v>298.7834635795718</v>
       </c>
     </row>
     <row r="42">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>99.82999076998418</v>
+        <v>92.37750510545557</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>79.79234602214611</v>
       </c>
       <c r="D43" t="n">
-        <v>68.61348360625924</v>
+        <v>61.16099794173063</v>
       </c>
       <c r="E43" t="n">
-        <v>41.42264330137527</v>
+        <v>58.97948757008744</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>57.96657294644952</v>
       </c>
       <c r="G43" t="n">
-        <v>86.91878714261733</v>
+        <v>79.46630147808872</v>
       </c>
       <c r="H43" t="n">
-        <v>72.71010725727945</v>
+        <v>65.25762159275179</v>
       </c>
       <c r="I43" t="n">
-        <v>43.26456846746386</v>
+        <v>35.81208280293525</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>49.17119225583819</v>
+        <v>41.71870659130958</v>
       </c>
       <c r="S43" t="n">
-        <v>125.3638924881655</v>
+        <v>117.9114068236369</v>
       </c>
       <c r="T43" t="n">
-        <v>143.3709153088056</v>
+        <v>135.918429644277</v>
       </c>
       <c r="U43" t="n">
-        <v>206.2586652461439</v>
+        <v>198.8061795816152</v>
       </c>
       <c r="V43" t="n">
-        <v>172.1356539118749</v>
+        <v>164.6831682473463</v>
       </c>
       <c r="W43" t="n">
-        <v>206.5210089246379</v>
+        <v>199.0685232601093</v>
       </c>
       <c r="X43" t="n">
-        <v>145.707665977084</v>
+        <v>138.2551803125554</v>
       </c>
       <c r="Y43" t="n">
-        <v>138.5826639401417</v>
+        <v>131.130178275613</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>302.7318522515275</v>
+        <v>295.2793665869989</v>
       </c>
       <c r="C44" t="n">
-        <v>285.2709023590544</v>
+        <v>277.8184166945259</v>
       </c>
       <c r="D44" t="n">
-        <v>274.6810522087299</v>
+        <v>267.2285665442013</v>
       </c>
       <c r="E44" t="n">
-        <v>301.9283806603087</v>
+        <v>294.4758949957801</v>
       </c>
       <c r="F44" t="n">
-        <v>326.8740563297583</v>
+        <v>319.4215706652298</v>
       </c>
       <c r="G44" t="n">
-        <v>332.9149145339837</v>
+        <v>325.4624288694551</v>
       </c>
       <c r="H44" t="n">
-        <v>235.0388946632625</v>
+        <v>227.5864089987339</v>
       </c>
       <c r="I44" t="n">
-        <v>38.49405148193719</v>
+        <v>31.0415658174086</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>74.65089771618705</v>
+        <v>67.19841205165847</v>
       </c>
       <c r="T44" t="n">
-        <v>132.6498737030134</v>
+        <v>125.197388038484</v>
       </c>
       <c r="U44" t="n">
-        <v>171.1527968103475</v>
+        <v>163.7003111458189</v>
       </c>
       <c r="V44" t="n">
-        <v>247.7502690581818</v>
+        <v>240.2977833936532</v>
       </c>
       <c r="W44" t="n">
-        <v>269.2389793054599</v>
+        <v>261.7864936409313</v>
       </c>
       <c r="X44" t="n">
-        <v>289.7291112665159</v>
+        <v>282.2766256019873</v>
       </c>
       <c r="Y44" t="n">
-        <v>306.2359492441005</v>
+        <v>298.7834635795719</v>
       </c>
     </row>
     <row r="45">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>99.82999076998418</v>
+        <v>92.3775051054556</v>
       </c>
       <c r="C46" t="n">
-        <v>87.24483168667471</v>
+        <v>79.79234602214613</v>
       </c>
       <c r="D46" t="n">
-        <v>68.61348360625924</v>
+        <v>61.16099794173066</v>
       </c>
       <c r="E46" t="n">
-        <v>66.43197323461605</v>
+        <v>58.97948757008747</v>
       </c>
       <c r="F46" t="n">
-        <v>3.720514104827786</v>
+        <v>57.96657294644944</v>
       </c>
       <c r="G46" t="n">
-        <v>86.91878714261733</v>
+        <v>79.46630147808875</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>65.25762159275087</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>35.81208280293528</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>49.17119225583819</v>
+        <v>41.71870659130961</v>
       </c>
       <c r="S46" t="n">
-        <v>125.3638924881655</v>
+        <v>117.911406823637</v>
       </c>
       <c r="T46" t="n">
-        <v>143.3709153088056</v>
+        <v>135.918429644277</v>
       </c>
       <c r="U46" t="n">
-        <v>206.2586652461439</v>
+        <v>198.8061795816153</v>
       </c>
       <c r="V46" t="n">
-        <v>172.1356539118749</v>
+        <v>164.6831682473463</v>
       </c>
       <c r="W46" t="n">
-        <v>206.5210089246379</v>
+        <v>199.0685232601093</v>
       </c>
       <c r="X46" t="n">
-        <v>145.707665977084</v>
+        <v>138.2551803125555</v>
       </c>
       <c r="Y46" t="n">
-        <v>138.5826639401417</v>
+        <v>131.1301782756131</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>176.5286895169144</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="C2" t="n">
-        <v>176.5286895169144</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="D2" t="n">
-        <v>176.5286895169144</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="E2" t="n">
-        <v>176.5286895169144</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="F2" t="n">
-        <v>131.9507376187037</v>
+        <v>31.05787365877018</v>
       </c>
       <c r="G2" t="n">
-        <v>104.756466833843</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="H2" t="n">
-        <v>60.17851493563234</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="I2" t="n">
         <v>15.60056303742164</v>
@@ -4333,16 +4333,16 @@
         <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>47.22142444577459</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L2" t="n">
-        <v>90.91227510121089</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M2" t="n">
-        <v>132.8378388614781</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N2" t="n">
-        <v>132.8378388614781</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O2" t="n">
         <v>132.8378388614781</v>
@@ -4351,31 +4351,31 @@
         <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>176.5286895169144</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R2" t="n">
-        <v>176.5286895169144</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S2" t="n">
-        <v>176.5286895169144</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="T2" t="n">
-        <v>176.5286895169144</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="U2" t="n">
-        <v>176.5286895169144</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="V2" t="n">
-        <v>176.5286895169144</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="W2" t="n">
-        <v>176.5286895169144</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="X2" t="n">
-        <v>176.5286895169144</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="Y2" t="n">
-        <v>176.5286895169144</v>
+        <v>38.00337440797365</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>131.9507376187037</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="C3" t="n">
-        <v>87.37278572049297</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="D3" t="n">
-        <v>42.79483382228227</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="E3" t="n">
-        <v>42.79483382228227</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="F3" t="n">
-        <v>42.79483382228227</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="G3" t="n">
-        <v>42.79483382228227</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="H3" t="n">
-        <v>4.284706443124001</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="I3" t="n">
         <v>4.284706443124001</v>
@@ -4412,7 +4412,7 @@
         <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>47.22142444577459</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L3" t="n">
         <v>47.22142444577459</v>
@@ -4424,10 +4424,10 @@
         <v>89.14698820604177</v>
       </c>
       <c r="O3" t="n">
-        <v>89.14698820604177</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P3" t="n">
-        <v>132.8378388614781</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q3" t="n">
         <v>176.5286895169144</v>
@@ -4436,25 +4436,25 @@
         <v>176.5286895169144</v>
       </c>
       <c r="S3" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T3" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U3" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V3" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W3" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X3" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y3" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.99639902664363</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C4" t="n">
-        <v>41.99639902664363</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="D4" t="n">
-        <v>41.99639902664363</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="E4" t="n">
-        <v>41.99639902664363</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F4" t="n">
-        <v>41.99639902664363</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G4" t="n">
-        <v>41.99639902664363</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H4" t="n">
-        <v>41.99639902664363</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I4" t="n">
-        <v>41.99639902664363</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J4" t="n">
-        <v>41.99639902664363</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K4" t="n">
-        <v>41.99639902664363</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>69.3105240343566</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>108.4985622265788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>152.1894128820151</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>176.5286895169144</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>176.5286895169144</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q4" t="n">
-        <v>176.5286895169144</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R4" t="n">
-        <v>176.5286895169144</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S4" t="n">
-        <v>175.7302547212757</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T4" t="n">
-        <v>131.152302823065</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U4" t="n">
-        <v>86.57435092485433</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V4" t="n">
-        <v>41.99639902664363</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W4" t="n">
-        <v>41.99639902664363</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X4" t="n">
-        <v>41.99639902664363</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.99639902664363</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38.00337440797365</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="C5" t="n">
-        <v>38.00337440797365</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="D5" t="n">
-        <v>38.00337440797365</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="E5" t="n">
-        <v>38.00337440797365</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="F5" t="n">
-        <v>31.05787365877018</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="G5" t="n">
-        <v>15.60056303742164</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H5" t="n">
-        <v>15.60056303742164</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I5" t="n">
-        <v>15.60056303742164</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J5" t="n">
         <v>3.530573790338288</v>
@@ -4576,13 +4576,13 @@
         <v>90.91227510121089</v>
       </c>
       <c r="M5" t="n">
-        <v>134.6031257566472</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N5" t="n">
         <v>134.6031257566472</v>
       </c>
       <c r="O5" t="n">
-        <v>134.6031257566472</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P5" t="n">
         <v>176.5286895169144</v>
@@ -4597,22 +4597,22 @@
         <v>121.8591222504766</v>
       </c>
       <c r="T5" t="n">
-        <v>82.58132630618435</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="U5" t="n">
-        <v>38.00337440797365</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="V5" t="n">
-        <v>38.00337440797365</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="W5" t="n">
-        <v>38.00337440797365</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="X5" t="n">
-        <v>38.00337440797365</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="Y5" t="n">
-        <v>38.00337440797365</v>
+        <v>77.28117035226589</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>176.5286895169144</v>
+      </c>
+      <c r="C6" t="n">
+        <v>176.5286895169144</v>
+      </c>
+      <c r="D6" t="n">
+        <v>131.9507376187037</v>
+      </c>
+      <c r="E6" t="n">
+        <v>131.9507376187037</v>
+      </c>
+      <c r="F6" t="n">
+        <v>87.37278572049297</v>
+      </c>
+      <c r="G6" t="n">
         <v>48.8626583413347</v>
       </c>
-      <c r="C6" t="n">
-        <v>4.284706443124001</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.284706443124001</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4.284706443124001</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4.284706443124001</v>
-      </c>
-      <c r="G6" t="n">
-        <v>4.284706443124001</v>
-      </c>
       <c r="H6" t="n">
-        <v>4.284706443124001</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="I6" t="n">
         <v>4.284706443124001</v>
@@ -4652,16 +4652,16 @@
         <v>47.22142444577459</v>
       </c>
       <c r="L6" t="n">
-        <v>90.91227510121089</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M6" t="n">
-        <v>132.8378388614781</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N6" t="n">
-        <v>132.8378388614781</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O6" t="n">
-        <v>132.8378388614781</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P6" t="n">
         <v>132.8378388614781</v>
@@ -4670,28 +4670,28 @@
         <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>131.9507376187037</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S6" t="n">
-        <v>87.37278572049297</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T6" t="n">
-        <v>48.8626583413347</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U6" t="n">
-        <v>48.8626583413347</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V6" t="n">
-        <v>48.8626583413347</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W6" t="n">
-        <v>48.8626583413347</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X6" t="n">
-        <v>48.8626583413347</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y6" t="n">
-        <v>48.8626583413347</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="7">
@@ -4710,13 +4710,13 @@
         <v>135.3139342451479</v>
       </c>
       <c r="E7" t="n">
+        <v>135.3139342451479</v>
+      </c>
+      <c r="F7" t="n">
+        <v>135.3139342451479</v>
+      </c>
+      <c r="G7" t="n">
         <v>90.73598234693722</v>
-      </c>
-      <c r="F7" t="n">
-        <v>46.15803044872652</v>
-      </c>
-      <c r="G7" t="n">
-        <v>46.15803044872652</v>
       </c>
       <c r="H7" t="n">
         <v>46.15803044872652</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>151.0674484342487</v>
+        <v>136.3061631414402</v>
       </c>
       <c r="C8" t="n">
-        <v>68.84343629012841</v>
+        <v>136.3061631414402</v>
       </c>
       <c r="D8" t="n">
-        <v>68.84343629012841</v>
+        <v>136.3061631414402</v>
       </c>
       <c r="E8" t="n">
-        <v>68.84343629012841</v>
+        <v>136.3061631414402</v>
       </c>
       <c r="F8" t="n">
-        <v>34.03944163024622</v>
+        <v>129.3606623922367</v>
       </c>
       <c r="G8" t="n">
-        <v>18.58213100889768</v>
+        <v>113.9033517708882</v>
       </c>
       <c r="H8" t="n">
-        <v>18.58213100889768</v>
+        <v>113.9033517708882</v>
       </c>
       <c r="I8" t="n">
-        <v>18.58213100889768</v>
+        <v>19.54330495490891</v>
       </c>
       <c r="J8" t="n">
-        <v>6.512141761814328</v>
+        <v>7.47331570782556</v>
       </c>
       <c r="K8" t="n">
-        <v>6.512141761814328</v>
+        <v>7.47331570782556</v>
       </c>
       <c r="L8" t="n">
-        <v>87.09989606426664</v>
+        <v>99.95559759216687</v>
       </c>
       <c r="M8" t="n">
-        <v>167.687650366719</v>
+        <v>192.4378794765082</v>
       </c>
       <c r="N8" t="n">
-        <v>248.2754046691713</v>
+        <v>284.9201613608495</v>
       </c>
       <c r="O8" t="n">
-        <v>325.6070880907164</v>
+        <v>373.665785391278</v>
       </c>
       <c r="P8" t="n">
-        <v>325.6070880907164</v>
+        <v>373.665785391278</v>
       </c>
       <c r="Q8" t="n">
-        <v>315.5154727224893</v>
+        <v>363.574170023051</v>
       </c>
       <c r="R8" t="n">
-        <v>233.291460578369</v>
+        <v>269.2141232070717</v>
       </c>
       <c r="S8" t="n">
-        <v>233.291460578369</v>
+        <v>269.2141232070717</v>
       </c>
       <c r="T8" t="n">
-        <v>233.291460578369</v>
+        <v>174.8540763910924</v>
       </c>
       <c r="U8" t="n">
-        <v>233.291460578369</v>
+        <v>174.8540763910924</v>
       </c>
       <c r="V8" t="n">
-        <v>233.291460578369</v>
+        <v>174.8540763910924</v>
       </c>
       <c r="W8" t="n">
-        <v>233.291460578369</v>
+        <v>174.8540763910924</v>
       </c>
       <c r="X8" t="n">
-        <v>151.0674484342487</v>
+        <v>136.3061631414402</v>
       </c>
       <c r="Y8" t="n">
-        <v>151.0674484342487</v>
+        <v>136.3061631414402</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>161.1590638024758</v>
+        <v>373.665785391278</v>
       </c>
       <c r="C9" t="n">
-        <v>161.1590638024758</v>
+        <v>373.665785391278</v>
       </c>
       <c r="D9" t="n">
-        <v>88.73615390593464</v>
+        <v>291.3075888085492</v>
       </c>
       <c r="E9" t="n">
-        <v>88.73615390593464</v>
+        <v>196.9475419925699</v>
       </c>
       <c r="F9" t="n">
-        <v>88.73615390593464</v>
+        <v>102.5874951765906</v>
       </c>
       <c r="G9" t="n">
-        <v>88.73615390593464</v>
+        <v>102.5874951765906</v>
       </c>
       <c r="H9" t="n">
-        <v>6.512141761814328</v>
+        <v>8.227448360611275</v>
       </c>
       <c r="I9" t="n">
-        <v>6.512141761814328</v>
+        <v>8.227448360611275</v>
       </c>
       <c r="J9" t="n">
-        <v>6.512141761814328</v>
+        <v>7.47331570782556</v>
       </c>
       <c r="K9" t="n">
-        <v>87.09989606426664</v>
+        <v>99.95559759216687</v>
       </c>
       <c r="L9" t="n">
-        <v>167.687650366719</v>
+        <v>192.4378794765082</v>
       </c>
       <c r="M9" t="n">
-        <v>175.6247752749348</v>
+        <v>281.1835035069367</v>
       </c>
       <c r="N9" t="n">
-        <v>175.6247752749348</v>
+        <v>281.1835035069367</v>
       </c>
       <c r="O9" t="n">
-        <v>175.6247752749348</v>
+        <v>281.1835035069367</v>
       </c>
       <c r="P9" t="n">
-        <v>256.2125295773871</v>
+        <v>373.665785391278</v>
       </c>
       <c r="Q9" t="n">
-        <v>325.6070880907164</v>
+        <v>373.665785391278</v>
       </c>
       <c r="R9" t="n">
-        <v>243.3830759465961</v>
+        <v>373.665785391278</v>
       </c>
       <c r="S9" t="n">
-        <v>243.3830759465961</v>
+        <v>373.665785391278</v>
       </c>
       <c r="T9" t="n">
-        <v>243.3830759465961</v>
+        <v>373.665785391278</v>
       </c>
       <c r="U9" t="n">
-        <v>243.3830759465961</v>
+        <v>373.665785391278</v>
       </c>
       <c r="V9" t="n">
-        <v>243.3830759465961</v>
+        <v>373.665785391278</v>
       </c>
       <c r="W9" t="n">
-        <v>243.3830759465961</v>
+        <v>373.665785391278</v>
       </c>
       <c r="X9" t="n">
-        <v>243.3830759465961</v>
+        <v>373.665785391278</v>
       </c>
       <c r="Y9" t="n">
-        <v>243.3830759465961</v>
+        <v>373.665785391278</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>29.00657794957479</v>
+        <v>139.2566761626352</v>
       </c>
       <c r="C10" t="n">
-        <v>29.00657794957479</v>
+        <v>139.2566761626352</v>
       </c>
       <c r="D10" t="n">
-        <v>29.00657794957479</v>
+        <v>139.2566761626352</v>
       </c>
       <c r="E10" t="n">
-        <v>29.00657794957479</v>
+        <v>139.2566761626352</v>
       </c>
       <c r="F10" t="n">
-        <v>29.00657794957479</v>
+        <v>139.2566761626352</v>
       </c>
       <c r="G10" t="n">
-        <v>29.00657794957479</v>
+        <v>44.89662934665589</v>
       </c>
       <c r="H10" t="n">
-        <v>29.00657794957479</v>
+        <v>29.96775189558602</v>
       </c>
       <c r="I10" t="n">
-        <v>29.00657794957479</v>
+        <v>29.96775189558602</v>
       </c>
       <c r="J10" t="n">
-        <v>29.00657794957479</v>
+        <v>29.96775189558602</v>
       </c>
       <c r="K10" t="n">
-        <v>6.512141761814328</v>
+        <v>7.47331570782556</v>
       </c>
       <c r="L10" t="n">
-        <v>33.82626676952731</v>
+        <v>34.78744071553854</v>
       </c>
       <c r="M10" t="n">
-        <v>73.01430496174949</v>
+        <v>73.97547890776072</v>
       </c>
       <c r="N10" t="n">
-        <v>116.7051556171858</v>
+        <v>117.666329563197</v>
       </c>
       <c r="O10" t="n">
-        <v>141.0444322520851</v>
+        <v>142.0056061980963</v>
       </c>
       <c r="P10" t="n">
-        <v>141.0444322520851</v>
+        <v>139.2566761626352</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0444322520851</v>
+        <v>139.2566761626352</v>
       </c>
       <c r="R10" t="n">
-        <v>141.0444322520851</v>
+        <v>139.2566761626352</v>
       </c>
       <c r="S10" t="n">
-        <v>141.0444322520851</v>
+        <v>139.2566761626352</v>
       </c>
       <c r="T10" t="n">
-        <v>141.0444322520851</v>
+        <v>139.2566761626352</v>
       </c>
       <c r="U10" t="n">
-        <v>111.2305900936951</v>
+        <v>139.2566761626352</v>
       </c>
       <c r="V10" t="n">
-        <v>29.00657794957479</v>
+        <v>139.2566761626352</v>
       </c>
       <c r="W10" t="n">
-        <v>29.00657794957479</v>
+        <v>139.2566761626352</v>
       </c>
       <c r="X10" t="n">
-        <v>29.00657794957479</v>
+        <v>139.2566761626352</v>
       </c>
       <c r="Y10" t="n">
-        <v>29.00657794957479</v>
+        <v>139.2566761626352</v>
       </c>
     </row>
     <row r="11">
@@ -5023,13 +5023,13 @@
         <v>1551.703979700558</v>
       </c>
       <c r="D11" t="n">
-        <v>1281.776134706416</v>
+        <v>1281.776134706415</v>
       </c>
       <c r="E11" t="n">
-        <v>984.3257357207794</v>
+        <v>984.325735720779</v>
       </c>
       <c r="F11" t="n">
-        <v>661.6776845437798</v>
+        <v>661.6776845437792</v>
       </c>
       <c r="G11" t="n">
         <v>332.9277563928142</v>
@@ -5038,46 +5038,46 @@
         <v>103.0424947779316</v>
       </c>
       <c r="I11" t="n">
-        <v>71.68737779065017</v>
+        <v>71.68737779065016</v>
       </c>
       <c r="J11" t="n">
-        <v>260.3272768043865</v>
+        <v>147.4108273418321</v>
       </c>
       <c r="K11" t="n">
-        <v>663.7943898244321</v>
+        <v>550.8779403618776</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.607648070631</v>
+        <v>1103.691198608077</v>
       </c>
       <c r="M11" t="n">
-        <v>1848.325459053943</v>
+        <v>1735.409009591388</v>
       </c>
       <c r="N11" t="n">
-        <v>2475.63312711379</v>
+        <v>2362.716677651235</v>
       </c>
       <c r="O11" t="n">
-        <v>3022.794331880867</v>
+        <v>2909.877882418312</v>
       </c>
       <c r="P11" t="n">
-        <v>3452.109378220161</v>
+        <v>3339.192928757607</v>
       </c>
       <c r="Q11" t="n">
-        <v>3584.368889532509</v>
+        <v>3584.368889532508</v>
       </c>
       <c r="R11" t="n">
-        <v>3584.368889532509</v>
+        <v>3584.368889532508</v>
       </c>
       <c r="S11" t="n">
         <v>3516.491705641944</v>
       </c>
       <c r="T11" t="n">
-        <v>3390.029697522263</v>
+        <v>3390.029697522262</v>
       </c>
       <c r="U11" t="n">
-        <v>3224.675847880022</v>
+        <v>3224.675847880021</v>
       </c>
       <c r="V11" t="n">
-        <v>2981.950814149059</v>
+        <v>2981.950814149058</v>
       </c>
       <c r="W11" t="n">
         <v>2717.520012491552</v>
@@ -5117,10 +5117,10 @@
         <v>117.5922348003337</v>
       </c>
       <c r="I12" t="n">
-        <v>71.68737779065017</v>
+        <v>71.68737779065016</v>
       </c>
       <c r="J12" t="n">
-        <v>190.3466296475459</v>
+        <v>190.3466296475458</v>
       </c>
       <c r="K12" t="n">
         <v>519.7750339533557</v>
@@ -5129,16 +5129,16 @@
         <v>1024.136573819474</v>
       </c>
       <c r="M12" t="n">
-        <v>1251.258460284988</v>
+        <v>1664.681923286579</v>
       </c>
       <c r="N12" t="n">
-        <v>1449.915201937652</v>
+        <v>1863.338664939244</v>
       </c>
       <c r="O12" t="n">
-        <v>1999.351210690375</v>
+        <v>2412.774673691967</v>
       </c>
       <c r="P12" t="n">
-        <v>2423.318979171212</v>
+        <v>2521.464301219266</v>
       </c>
       <c r="Q12" t="n">
         <v>2654.03243523168</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>514.5514286534668</v>
+        <v>514.5514286534676</v>
       </c>
       <c r="C13" t="n">
-        <v>433.9530993381678</v>
+        <v>433.9530993381685</v>
       </c>
       <c r="D13" t="n">
-        <v>372.1743135384398</v>
+        <v>372.1743135384406</v>
       </c>
       <c r="E13" t="n">
-        <v>312.5990735686545</v>
+        <v>312.5990735686553</v>
       </c>
       <c r="F13" t="n">
-        <v>254.046979683352</v>
+        <v>254.0469796833527</v>
       </c>
       <c r="G13" t="n">
-        <v>173.7779882913432</v>
+        <v>173.7779882913439</v>
       </c>
       <c r="H13" t="n">
-        <v>107.8611988037161</v>
+        <v>107.8611988037168</v>
       </c>
       <c r="I13" t="n">
-        <v>71.68737779065017</v>
+        <v>71.68737779065016</v>
       </c>
       <c r="J13" t="n">
         <v>140.7484246534158</v>
@@ -5235,16 +5235,16 @@
         <v>1247.394413705063</v>
       </c>
       <c r="V13" t="n">
-        <v>1081.047779111783</v>
+        <v>1081.047779111784</v>
       </c>
       <c r="W13" t="n">
-        <v>879.9684626874305</v>
+        <v>879.9684626874314</v>
       </c>
       <c r="X13" t="n">
-        <v>740.3167654020209</v>
+        <v>740.3167654020218</v>
       </c>
       <c r="Y13" t="n">
-        <v>607.8620398710987</v>
+        <v>607.8620398710996</v>
       </c>
     </row>
     <row r="14">
@@ -5263,13 +5263,13 @@
         <v>1281.776134706415</v>
       </c>
       <c r="E14" t="n">
-        <v>984.325735720779</v>
+        <v>984.3257357207788</v>
       </c>
       <c r="F14" t="n">
-        <v>661.6776845437792</v>
+        <v>661.6776845437789</v>
       </c>
       <c r="G14" t="n">
-        <v>332.9277563928144</v>
+        <v>332.9277563928142</v>
       </c>
       <c r="H14" t="n">
         <v>103.0424947779316</v>
@@ -5278,22 +5278,22 @@
         <v>71.68737779065016</v>
       </c>
       <c r="J14" t="n">
-        <v>260.3272768043865</v>
+        <v>147.4108273418321</v>
       </c>
       <c r="K14" t="n">
-        <v>663.794389824432</v>
+        <v>550.8779403618776</v>
       </c>
       <c r="L14" t="n">
         <v>1103.691198608077</v>
       </c>
       <c r="M14" t="n">
-        <v>1735.409009591389</v>
+        <v>1735.409009591388</v>
       </c>
       <c r="N14" t="n">
         <v>2362.716677651235</v>
       </c>
       <c r="O14" t="n">
-        <v>2909.877882418313</v>
+        <v>2909.877882418312</v>
       </c>
       <c r="P14" t="n">
         <v>3339.192928757607</v>
@@ -5308,10 +5308,10 @@
         <v>3516.491705641944</v>
       </c>
       <c r="T14" t="n">
-        <v>3390.029697522263</v>
+        <v>3390.029697522262</v>
       </c>
       <c r="U14" t="n">
-        <v>3224.675847880022</v>
+        <v>3224.675847880021</v>
       </c>
       <c r="V14" t="n">
         <v>2981.950814149058</v>
@@ -5357,25 +5357,25 @@
         <v>71.68737779065016</v>
       </c>
       <c r="J15" t="n">
-        <v>71.68737779065016</v>
+        <v>190.3466296475458</v>
       </c>
       <c r="K15" t="n">
-        <v>300.827148322637</v>
+        <v>519.7750339533557</v>
       </c>
       <c r="L15" t="n">
-        <v>805.1886881887556</v>
+        <v>1024.136573819474</v>
       </c>
       <c r="M15" t="n">
-        <v>984.6860245433604</v>
+        <v>1203.633910174079</v>
       </c>
       <c r="N15" t="n">
-        <v>1657.891716796143</v>
+        <v>1449.915201937652</v>
       </c>
       <c r="O15" t="n">
-        <v>2207.327725548866</v>
+        <v>1999.351210690375</v>
       </c>
       <c r="P15" t="n">
-        <v>2631.295494029703</v>
+        <v>2423.318979171212</v>
       </c>
       <c r="Q15" t="n">
         <v>2654.03243523168</v>
@@ -5430,7 +5430,7 @@
         <v>173.7779882913439</v>
       </c>
       <c r="H16" t="n">
-        <v>107.8611988037168</v>
+        <v>107.8611988037161</v>
       </c>
       <c r="I16" t="n">
         <v>71.68737779065016</v>
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1832.328643028363</v>
+        <v>1832.328643028362</v>
       </c>
       <c r="C17" t="n">
-        <v>1551.703979700559</v>
+        <v>1551.703979700558</v>
       </c>
       <c r="D17" t="n">
-        <v>1281.776134706416</v>
+        <v>1281.776134706415</v>
       </c>
       <c r="E17" t="n">
-        <v>984.3257357207794</v>
+        <v>984.325735720779</v>
       </c>
       <c r="F17" t="n">
-        <v>661.6776845437796</v>
+        <v>661.6776845437792</v>
       </c>
       <c r="G17" t="n">
-        <v>332.9277563928149</v>
+        <v>332.9277563928144</v>
       </c>
       <c r="H17" t="n">
         <v>103.0424947779316</v>
@@ -5530,7 +5530,7 @@
         <v>2475.633127113789</v>
       </c>
       <c r="O17" t="n">
-        <v>3022.794331880867</v>
+        <v>2909.877882418312</v>
       </c>
       <c r="P17" t="n">
         <v>3339.192928757607</v>
@@ -5542,25 +5542,25 @@
         <v>3584.368889532508</v>
       </c>
       <c r="S17" t="n">
-        <v>3516.491705641945</v>
+        <v>3516.491705641944</v>
       </c>
       <c r="T17" t="n">
-        <v>3390.029697522264</v>
+        <v>3390.029697522262</v>
       </c>
       <c r="U17" t="n">
-        <v>3224.675847880023</v>
+        <v>3224.675847880021</v>
       </c>
       <c r="V17" t="n">
-        <v>2981.95081414906</v>
+        <v>2981.950814149058</v>
       </c>
       <c r="W17" t="n">
-        <v>2717.520012491554</v>
+        <v>2717.520012491552</v>
       </c>
       <c r="X17" t="n">
-        <v>2432.392107843082</v>
+        <v>2432.39210784308</v>
       </c>
       <c r="Y17" t="n">
-        <v>2130.590629479877</v>
+        <v>2130.590629479876</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>71.68737779065016</v>
       </c>
       <c r="J18" t="n">
-        <v>71.68737779065016</v>
+        <v>190.3466296475458</v>
       </c>
       <c r="K18" t="n">
-        <v>139.2951974540072</v>
+        <v>519.7750339533557</v>
       </c>
       <c r="L18" t="n">
-        <v>643.6567373201258</v>
+        <v>1024.136573819474</v>
       </c>
       <c r="M18" t="n">
-        <v>1284.20208678723</v>
+        <v>1203.633910174079</v>
       </c>
       <c r="N18" t="n">
-        <v>1957.407779040013</v>
+        <v>1449.915201937652</v>
       </c>
       <c r="O18" t="n">
-        <v>2506.843787792736</v>
+        <v>1999.351210690375</v>
       </c>
       <c r="P18" t="n">
-        <v>2631.295494029703</v>
+        <v>2423.318979171212</v>
       </c>
       <c r="Q18" t="n">
         <v>2654.03243523168</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>514.5514286534669</v>
+        <v>514.5514286534676</v>
       </c>
       <c r="C19" t="n">
-        <v>433.9530993381678</v>
+        <v>433.9530993381685</v>
       </c>
       <c r="D19" t="n">
-        <v>372.1743135384398</v>
+        <v>372.1743135384406</v>
       </c>
       <c r="E19" t="n">
-        <v>312.5990735686545</v>
+        <v>312.5990735686553</v>
       </c>
       <c r="F19" t="n">
-        <v>254.0469796833521</v>
+        <v>254.0469796833527</v>
       </c>
       <c r="G19" t="n">
-        <v>173.7779882913433</v>
+        <v>173.7779882913439</v>
       </c>
       <c r="H19" t="n">
         <v>107.8611988037161</v>
@@ -5673,22 +5673,22 @@
         <v>71.68737779065016</v>
       </c>
       <c r="J19" t="n">
-        <v>140.7484246534157</v>
+        <v>140.7484246534158</v>
       </c>
       <c r="K19" t="n">
-        <v>328.3762845747424</v>
+        <v>328.3762845747425</v>
       </c>
       <c r="L19" t="n">
-        <v>599.7892098012776</v>
+        <v>599.7892098012778</v>
       </c>
       <c r="M19" t="n">
-        <v>891.6387408462324</v>
+        <v>891.6387408462326</v>
       </c>
       <c r="N19" t="n">
         <v>1184.042036008054</v>
       </c>
       <c r="O19" t="n">
-        <v>1444.716861722369</v>
+        <v>1444.71686172237</v>
       </c>
       <c r="P19" t="n">
         <v>1656.744368646702</v>
@@ -5697,13 +5697,13 @@
         <v>1746.742618392779</v>
       </c>
       <c r="R19" t="n">
-        <v>1704.602510724789</v>
+        <v>1704.60251072479</v>
       </c>
       <c r="S19" t="n">
-        <v>1585.500079589802</v>
+        <v>1585.500079589803</v>
       </c>
       <c r="T19" t="n">
-        <v>1448.208736514775</v>
+        <v>1448.208736514776</v>
       </c>
       <c r="U19" t="n">
         <v>1247.394413705063</v>
@@ -5712,13 +5712,13 @@
         <v>1081.047779111784</v>
       </c>
       <c r="W19" t="n">
-        <v>879.9684626874308</v>
+        <v>879.9684626874314</v>
       </c>
       <c r="X19" t="n">
-        <v>740.3167654020212</v>
+        <v>740.3167654020218</v>
       </c>
       <c r="Y19" t="n">
-        <v>607.8620398710989</v>
+        <v>607.8620398710996</v>
       </c>
     </row>
     <row r="20">
@@ -5746,28 +5746,28 @@
         <v>332.9277563928144</v>
       </c>
       <c r="H20" t="n">
-        <v>103.0424947779316</v>
+        <v>103.0424947779317</v>
       </c>
       <c r="I20" t="n">
         <v>71.68737779065016</v>
       </c>
       <c r="J20" t="n">
-        <v>147.4108273418325</v>
+        <v>260.3272768043865</v>
       </c>
       <c r="K20" t="n">
-        <v>550.877940361878</v>
+        <v>663.794389824432</v>
       </c>
       <c r="L20" t="n">
-        <v>1103.691198608077</v>
+        <v>1216.607648070631</v>
       </c>
       <c r="M20" t="n">
-        <v>1735.409009591389</v>
+        <v>1848.325459053943</v>
       </c>
       <c r="N20" t="n">
         <v>2362.716677651235</v>
       </c>
       <c r="O20" t="n">
-        <v>2909.877882418313</v>
+        <v>2909.877882418312</v>
       </c>
       <c r="P20" t="n">
         <v>3339.192928757607</v>
@@ -5782,7 +5782,7 @@
         <v>3516.491705641944</v>
       </c>
       <c r="T20" t="n">
-        <v>3390.029697522263</v>
+        <v>3390.029697522262</v>
       </c>
       <c r="U20" t="n">
         <v>3224.675847880021</v>
@@ -5831,25 +5831,25 @@
         <v>71.68737779065016</v>
       </c>
       <c r="J21" t="n">
-        <v>71.68737779065016</v>
+        <v>190.3466296475458</v>
       </c>
       <c r="K21" t="n">
-        <v>139.2951974540072</v>
+        <v>519.7750339533557</v>
       </c>
       <c r="L21" t="n">
-        <v>643.6567373201258</v>
+        <v>1024.136573819474</v>
       </c>
       <c r="M21" t="n">
-        <v>1284.20208678723</v>
+        <v>1251.258460284988</v>
       </c>
       <c r="N21" t="n">
-        <v>1957.407779040013</v>
+        <v>1449.915201937652</v>
       </c>
       <c r="O21" t="n">
-        <v>2116.920091708774</v>
+        <v>1999.351210690375</v>
       </c>
       <c r="P21" t="n">
-        <v>2540.88786018961</v>
+        <v>2423.318979171212</v>
       </c>
       <c r="Q21" t="n">
         <v>2654.03243523168</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>514.551428653467</v>
+        <v>514.5514286534669</v>
       </c>
       <c r="C22" t="n">
         <v>433.9530993381679</v>
@@ -5910,7 +5910,7 @@
         <v>71.68737779065016</v>
       </c>
       <c r="J22" t="n">
-        <v>140.7484246534157</v>
+        <v>140.7484246534158</v>
       </c>
       <c r="K22" t="n">
         <v>328.3762845747425</v>
@@ -5925,7 +5925,7 @@
         <v>1184.042036008054</v>
       </c>
       <c r="O22" t="n">
-        <v>1444.716861722369</v>
+        <v>1444.71686172237</v>
       </c>
       <c r="P22" t="n">
         <v>1656.744368646702</v>
@@ -5946,16 +5946,16 @@
         <v>1247.394413705063</v>
       </c>
       <c r="V22" t="n">
-        <v>1081.047779111783</v>
+        <v>1081.047779111784</v>
       </c>
       <c r="W22" t="n">
-        <v>879.9684626874306</v>
+        <v>879.9684626874308</v>
       </c>
       <c r="X22" t="n">
-        <v>740.3167654020214</v>
+        <v>740.3167654020212</v>
       </c>
       <c r="Y22" t="n">
-        <v>607.862039871099</v>
+        <v>607.8620398710989</v>
       </c>
     </row>
     <row r="23">
@@ -5974,13 +5974,13 @@
         <v>1281.776134706415</v>
       </c>
       <c r="E23" t="n">
-        <v>984.325735720779</v>
+        <v>984.3257357207787</v>
       </c>
       <c r="F23" t="n">
-        <v>661.6776845437792</v>
+        <v>661.6776845437789</v>
       </c>
       <c r="G23" t="n">
-        <v>332.9277563928143</v>
+        <v>332.9277563928142</v>
       </c>
       <c r="H23" t="n">
         <v>103.0424947779316</v>
@@ -5992,19 +5992,19 @@
         <v>260.3272768043865</v>
       </c>
       <c r="K23" t="n">
-        <v>550.877940361878</v>
+        <v>663.794389824432</v>
       </c>
       <c r="L23" t="n">
-        <v>1103.691198608077</v>
+        <v>1216.607648070631</v>
       </c>
       <c r="M23" t="n">
-        <v>1735.409009591389</v>
+        <v>1735.409009591388</v>
       </c>
       <c r="N23" t="n">
         <v>2362.716677651235</v>
       </c>
       <c r="O23" t="n">
-        <v>2909.877882418313</v>
+        <v>2909.877882418312</v>
       </c>
       <c r="P23" t="n">
         <v>3339.192928757607</v>
@@ -6019,7 +6019,7 @@
         <v>3516.491705641944</v>
       </c>
       <c r="T23" t="n">
-        <v>3390.029697522263</v>
+        <v>3390.029697522262</v>
       </c>
       <c r="U23" t="n">
         <v>3224.675847880021</v>
@@ -6068,25 +6068,25 @@
         <v>71.68737779065016</v>
       </c>
       <c r="J24" t="n">
-        <v>71.68737779065016</v>
+        <v>190.3466296475458</v>
       </c>
       <c r="K24" t="n">
-        <v>139.2951974540072</v>
+        <v>519.7750339533557</v>
       </c>
       <c r="L24" t="n">
-        <v>344.1406750762558</v>
+        <v>1024.136573819474</v>
       </c>
       <c r="M24" t="n">
-        <v>984.6860245433604</v>
+        <v>1251.258460284988</v>
       </c>
       <c r="N24" t="n">
-        <v>1657.891716796143</v>
+        <v>1449.915201937652</v>
       </c>
       <c r="O24" t="n">
-        <v>2207.327725548866</v>
+        <v>1999.351210690375</v>
       </c>
       <c r="P24" t="n">
-        <v>2631.295494029703</v>
+        <v>2423.318979171212</v>
       </c>
       <c r="Q24" t="n">
         <v>2654.03243523168</v>
@@ -6132,37 +6132,37 @@
         <v>372.1743135384399</v>
       </c>
       <c r="E25" t="n">
-        <v>312.5990735686545</v>
+        <v>312.5990735686546</v>
       </c>
       <c r="F25" t="n">
         <v>254.046979683352</v>
       </c>
       <c r="G25" t="n">
-        <v>173.7779882913431</v>
+        <v>173.7779882913433</v>
       </c>
       <c r="H25" t="n">
-        <v>107.861198803716</v>
+        <v>107.8611988037161</v>
       </c>
       <c r="I25" t="n">
         <v>71.68737779065016</v>
       </c>
       <c r="J25" t="n">
-        <v>140.7484246534158</v>
+        <v>140.7484246534159</v>
       </c>
       <c r="K25" t="n">
-        <v>328.3762845747424</v>
+        <v>328.3762845747426</v>
       </c>
       <c r="L25" t="n">
-        <v>599.7892098012777</v>
+        <v>599.7892098012778</v>
       </c>
       <c r="M25" t="n">
-        <v>891.6387408462325</v>
+        <v>891.6387408462326</v>
       </c>
       <c r="N25" t="n">
         <v>1184.042036008054</v>
       </c>
       <c r="O25" t="n">
-        <v>1444.716861722369</v>
+        <v>1444.71686172237</v>
       </c>
       <c r="P25" t="n">
         <v>1656.744368646702</v>
@@ -6171,10 +6171,10 @@
         <v>1746.742618392779</v>
       </c>
       <c r="R25" t="n">
-        <v>1704.602510724789</v>
+        <v>1704.60251072479</v>
       </c>
       <c r="S25" t="n">
-        <v>1585.500079589802</v>
+        <v>1585.500079589803</v>
       </c>
       <c r="T25" t="n">
         <v>1448.208736514775</v>
@@ -6192,7 +6192,7 @@
         <v>740.3167654020212</v>
       </c>
       <c r="Y25" t="n">
-        <v>607.8620398710989</v>
+        <v>607.8620398710988</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1887.327403446859</v>
+        <v>1887.327403446858</v>
       </c>
       <c r="C26" t="n">
-        <v>1599.174976821551</v>
+        <v>1599.17497682155</v>
       </c>
       <c r="D26" t="n">
         <v>1321.719368529904</v>
@@ -6220,10 +6220,10 @@
         <v>350.287700323792</v>
       </c>
       <c r="H26" t="n">
-        <v>112.8746754114056</v>
+        <v>112.8746754114057</v>
       </c>
       <c r="I26" t="n">
-        <v>73.99179512662066</v>
+        <v>73.99179512662067</v>
       </c>
       <c r="J26" t="n">
         <v>262.631694140357</v>
@@ -6262,16 +6262,16 @@
         <v>3317.313424786036</v>
       </c>
       <c r="V26" t="n">
-        <v>3067.06062775757</v>
+        <v>3067.060627757569</v>
       </c>
       <c r="W26" t="n">
-        <v>2795.10206280256</v>
+        <v>2795.102062802559</v>
       </c>
       <c r="X26" t="n">
         <v>2502.446394856584</v>
       </c>
       <c r="Y26" t="n">
-        <v>2193.117153195877</v>
+        <v>2193.117153195876</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>73.99179512662066</v>
       </c>
       <c r="J27" t="n">
-        <v>89.75387383628832</v>
+        <v>192.6510469835163</v>
       </c>
       <c r="K27" t="n">
-        <v>157.3616934996454</v>
+        <v>522.0794512893262</v>
       </c>
       <c r="L27" t="n">
-        <v>661.7232333657639</v>
+        <v>1026.440991155445</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.268582832869</v>
+        <v>1253.562877620958</v>
       </c>
       <c r="N27" t="n">
-        <v>1975.474275085651</v>
+        <v>1452.219619273623</v>
       </c>
       <c r="O27" t="n">
-        <v>2524.910283838374</v>
+        <v>2001.655628026346</v>
       </c>
       <c r="P27" t="n">
-        <v>2633.599911365673</v>
+        <v>2425.623396507182</v>
       </c>
       <c r="Q27" t="n">
         <v>2656.33685256765</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>390.0822898488379</v>
+        <v>569.5501890719632</v>
       </c>
       <c r="C28" t="n">
-        <v>301.9561972360352</v>
+        <v>481.4240964591604</v>
       </c>
       <c r="D28" t="n">
-        <v>232.6496481388036</v>
+        <v>412.1175473619288</v>
       </c>
       <c r="E28" t="n">
-        <v>165.5466448715146</v>
+        <v>345.0145440946398</v>
       </c>
       <c r="F28" t="n">
-        <v>161.7885498161331</v>
+        <v>278.9346869118336</v>
       </c>
       <c r="G28" t="n">
-        <v>73.99179512662066</v>
+        <v>191.1379322223211</v>
       </c>
       <c r="H28" t="n">
-        <v>73.99179512662066</v>
+        <v>117.6933794371903</v>
       </c>
       <c r="I28" t="n">
         <v>73.99179512662066</v>
@@ -6390,13 +6390,13 @@
         <v>315.9247802949463</v>
       </c>
       <c r="L28" t="n">
-        <v>579.9597447135983</v>
+        <v>579.9597447135982</v>
       </c>
       <c r="M28" t="n">
-        <v>864.4313149506697</v>
+        <v>864.4313149506696</v>
       </c>
       <c r="N28" t="n">
-        <v>1149.456649304608</v>
+        <v>1149.456649304607</v>
       </c>
       <c r="O28" t="n">
         <v>1402.75351421104</v>
@@ -6408,28 +6408,28 @@
         <v>1690.023349265683</v>
       </c>
       <c r="R28" t="n">
-        <v>1640.35547830019</v>
+        <v>1690.023349265683</v>
       </c>
       <c r="S28" t="n">
-        <v>1513.725283867699</v>
+        <v>1690.023349265683</v>
       </c>
       <c r="T28" t="n">
-        <v>1368.906177495168</v>
+        <v>1545.204242893152</v>
       </c>
       <c r="U28" t="n">
-        <v>1160.564091387952</v>
+        <v>1336.862156785935</v>
       </c>
       <c r="V28" t="n">
-        <v>986.6896934971692</v>
+        <v>1162.987758895153</v>
       </c>
       <c r="W28" t="n">
-        <v>778.0826137753127</v>
+        <v>954.3806791732961</v>
       </c>
       <c r="X28" t="n">
-        <v>630.9031531923995</v>
+        <v>807.201218590383</v>
       </c>
       <c r="Y28" t="n">
-        <v>490.9206643639735</v>
+        <v>670.3885635870988</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1887.327403446858</v>
+        <v>1887.327403446857</v>
       </c>
       <c r="C29" t="n">
         <v>1599.17497682155</v>
@@ -6542,25 +6542,25 @@
         <v>73.99179512662066</v>
       </c>
       <c r="J30" t="n">
-        <v>141.6076747331751</v>
+        <v>192.6510469835163</v>
       </c>
       <c r="K30" t="n">
-        <v>209.2154943965322</v>
+        <v>522.0794512893262</v>
       </c>
       <c r="L30" t="n">
-        <v>346.4450924122261</v>
+        <v>843.6704145912354</v>
       </c>
       <c r="M30" t="n">
-        <v>986.9904418793308</v>
+        <v>1484.21576405834</v>
       </c>
       <c r="N30" t="n">
-        <v>1660.196134132113</v>
+        <v>2157.421456311123</v>
       </c>
       <c r="O30" t="n">
-        <v>2209.632142884836</v>
+        <v>2316.933768979884</v>
       </c>
       <c r="P30" t="n">
-        <v>2633.599911365673</v>
+        <v>2425.623396507182</v>
       </c>
       <c r="Q30" t="n">
         <v>2656.33685256765</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>459.7687475785873</v>
+        <v>439.7501608143311</v>
       </c>
       <c r="C31" t="n">
-        <v>371.6426549657845</v>
+        <v>414.3210931918713</v>
       </c>
       <c r="D31" t="n">
-        <v>302.3361058685529</v>
+        <v>345.0145440946397</v>
       </c>
       <c r="E31" t="n">
-        <v>235.233102601264</v>
+        <v>345.0145440946397</v>
       </c>
       <c r="F31" t="n">
-        <v>235.233102601264</v>
+        <v>278.9346869118335</v>
       </c>
       <c r="G31" t="n">
-        <v>147.4363479117515</v>
+        <v>191.137932222321</v>
       </c>
       <c r="H31" t="n">
-        <v>73.99179512662066</v>
+        <v>117.6933794371902</v>
       </c>
       <c r="I31" t="n">
         <v>73.99179512662066</v>
@@ -6645,28 +6645,28 @@
         <v>1690.023349265683</v>
       </c>
       <c r="R31" t="n">
-        <v>1640.35547830019</v>
+        <v>1690.023349265683</v>
       </c>
       <c r="S31" t="n">
-        <v>1513.725283867699</v>
+        <v>1563.393154833192</v>
       </c>
       <c r="T31" t="n">
-        <v>1368.906177495168</v>
+        <v>1418.574048460661</v>
       </c>
       <c r="U31" t="n">
-        <v>1160.564091387952</v>
+        <v>1210.231962353445</v>
       </c>
       <c r="V31" t="n">
-        <v>986.6896934971692</v>
+        <v>1036.357564462662</v>
       </c>
       <c r="W31" t="n">
-        <v>778.0826137753127</v>
+        <v>827.7504847408059</v>
       </c>
       <c r="X31" t="n">
-        <v>700.5896109221488</v>
+        <v>680.5710241578927</v>
       </c>
       <c r="Y31" t="n">
-        <v>560.6071220937229</v>
+        <v>540.5885353294667</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1887.327403446858</v>
+        <v>1832.328643028362</v>
       </c>
       <c r="C32" t="n">
-        <v>1599.17497682155</v>
+        <v>1551.703979700558</v>
       </c>
       <c r="D32" t="n">
-        <v>1321.719368529904</v>
+        <v>1281.776134706415</v>
       </c>
       <c r="E32" t="n">
-        <v>1016.741206246764</v>
+        <v>984.3257357207785</v>
       </c>
       <c r="F32" t="n">
-        <v>686.5653917722606</v>
+        <v>661.6776845437787</v>
       </c>
       <c r="G32" t="n">
-        <v>350.2877003237923</v>
+        <v>332.927756392814</v>
       </c>
       <c r="H32" t="n">
-        <v>112.8746754114057</v>
+        <v>103.0424947779316</v>
       </c>
       <c r="I32" t="n">
-        <v>73.99179512662064</v>
+        <v>71.68737779065016</v>
       </c>
       <c r="J32" t="n">
-        <v>262.631694140357</v>
+        <v>260.3272768043865</v>
       </c>
       <c r="K32" t="n">
-        <v>666.0988071604024</v>
+        <v>663.794389824432</v>
       </c>
       <c r="L32" t="n">
-        <v>1218.912065406602</v>
+        <v>1216.607648070631</v>
       </c>
       <c r="M32" t="n">
-        <v>1850.629876389914</v>
+        <v>1848.325459053943</v>
       </c>
       <c r="N32" t="n">
-        <v>2477.93754444976</v>
+        <v>2475.633127113789</v>
       </c>
       <c r="O32" t="n">
-        <v>3025.098749216837</v>
+        <v>3022.794331880867</v>
       </c>
       <c r="P32" t="n">
-        <v>3454.413795556132</v>
+        <v>3452.109378220161</v>
       </c>
       <c r="Q32" t="n">
-        <v>3699.589756331033</v>
+        <v>3584.368889532508</v>
       </c>
       <c r="R32" t="n">
-        <v>3699.589756331032</v>
+        <v>3584.368889532508</v>
       </c>
       <c r="S32" t="n">
-        <v>3624.184809142965</v>
+        <v>3516.491705641944</v>
       </c>
       <c r="T32" t="n">
-        <v>3490.19503772578</v>
+        <v>3390.029697522263</v>
       </c>
       <c r="U32" t="n">
-        <v>3317.313424786035</v>
+        <v>3224.675847880022</v>
       </c>
       <c r="V32" t="n">
-        <v>3067.060627757569</v>
+        <v>2981.950814149059</v>
       </c>
       <c r="W32" t="n">
-        <v>2795.102062802559</v>
+        <v>2717.520012491552</v>
       </c>
       <c r="X32" t="n">
-        <v>2502.446394856583</v>
+        <v>2432.39210784308</v>
       </c>
       <c r="Y32" t="n">
-        <v>2193.117153195876</v>
+        <v>2130.590629479876</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4134795532265</v>
+        <v>985.1090622172559</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9604502720995</v>
+        <v>810.6560329361289</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0260406108482</v>
+        <v>661.7216232748776</v>
       </c>
       <c r="E33" t="n">
-        <v>504.7885856053927</v>
+        <v>502.4841682694222</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2540276322776</v>
+        <v>355.9496102963071</v>
       </c>
       <c r="G33" t="n">
-        <v>220.8126299914996</v>
+        <v>218.5082126555291</v>
       </c>
       <c r="H33" t="n">
-        <v>119.8966521363042</v>
+        <v>117.5922348003337</v>
       </c>
       <c r="I33" t="n">
-        <v>73.99179512662064</v>
+        <v>71.68737779065016</v>
       </c>
       <c r="J33" t="n">
-        <v>73.99179512662064</v>
+        <v>190.3466296475458</v>
       </c>
       <c r="K33" t="n">
-        <v>157.3616934996454</v>
+        <v>519.7750339533557</v>
       </c>
       <c r="L33" t="n">
-        <v>661.7232333657639</v>
+        <v>1024.136573819474</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.268582832869</v>
+        <v>1203.633910174079</v>
       </c>
       <c r="N33" t="n">
-        <v>1975.474275085651</v>
+        <v>1449.915201937652</v>
       </c>
       <c r="O33" t="n">
-        <v>2524.910283838374</v>
+        <v>1999.351210690375</v>
       </c>
       <c r="P33" t="n">
-        <v>2633.599911365673</v>
+        <v>2423.318979171212</v>
       </c>
       <c r="Q33" t="n">
-        <v>2656.33685256765</v>
+        <v>2654.03243523168</v>
       </c>
       <c r="R33" t="n">
-        <v>2635.224952969837</v>
+        <v>2632.920535633867</v>
       </c>
       <c r="S33" t="n">
-        <v>2485.758163832472</v>
+        <v>2483.453746496501</v>
       </c>
       <c r="T33" t="n">
-        <v>2288.76886799256</v>
+        <v>2286.464450656589</v>
       </c>
       <c r="U33" t="n">
-        <v>2060.630080503725</v>
+        <v>2058.325663167755</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.477972271983</v>
+        <v>1823.173554936012</v>
       </c>
       <c r="W33" t="n">
-        <v>1571.240615543781</v>
+        <v>1568.936198207811</v>
       </c>
       <c r="X33" t="n">
-        <v>1363.389115338248</v>
+        <v>1361.084698002278</v>
       </c>
       <c r="Y33" t="n">
-        <v>1155.628816573294</v>
+        <v>1153.324399237324</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>452.4040519762625</v>
+        <v>514.551428653467</v>
       </c>
       <c r="C34" t="n">
-        <v>364.2779593634597</v>
+        <v>433.9530993381679</v>
       </c>
       <c r="D34" t="n">
-        <v>294.9714102662282</v>
+        <v>372.1743135384399</v>
       </c>
       <c r="E34" t="n">
-        <v>227.8684069989393</v>
+        <v>312.5990735686544</v>
       </c>
       <c r="F34" t="n">
-        <v>161.7885498161331</v>
+        <v>254.046979683352</v>
       </c>
       <c r="G34" t="n">
-        <v>73.99179512662064</v>
+        <v>173.7779882913431</v>
       </c>
       <c r="H34" t="n">
-        <v>73.99179512662064</v>
+        <v>107.8611988037161</v>
       </c>
       <c r="I34" t="n">
-        <v>73.99179512662064</v>
+        <v>71.68737779065016</v>
       </c>
       <c r="J34" t="n">
-        <v>135.6748811815029</v>
+        <v>140.7484246534157</v>
       </c>
       <c r="K34" t="n">
-        <v>315.9247802949463</v>
+        <v>328.3762845747422</v>
       </c>
       <c r="L34" t="n">
-        <v>579.9597447135984</v>
+        <v>599.7892098012774</v>
       </c>
       <c r="M34" t="n">
-        <v>864.43131495067</v>
+        <v>891.6387408462324</v>
       </c>
       <c r="N34" t="n">
-        <v>1149.456649304608</v>
+        <v>1184.042036008054</v>
       </c>
       <c r="O34" t="n">
-        <v>1402.753514211041</v>
+        <v>1444.716861722369</v>
       </c>
       <c r="P34" t="n">
-        <v>1607.40306032749</v>
+        <v>1656.744368646702</v>
       </c>
       <c r="Q34" t="n">
-        <v>1690.023349265683</v>
+        <v>1746.742618392779</v>
       </c>
       <c r="R34" t="n">
-        <v>1640.35547830019</v>
+        <v>1704.602510724789</v>
       </c>
       <c r="S34" t="n">
-        <v>1576.047045995123</v>
+        <v>1585.500079589802</v>
       </c>
       <c r="T34" t="n">
-        <v>1431.227939622592</v>
+        <v>1448.208736514775</v>
       </c>
       <c r="U34" t="n">
-        <v>1222.885853515376</v>
+        <v>1247.394413705063</v>
       </c>
       <c r="V34" t="n">
-        <v>1049.011455624594</v>
+        <v>1081.047779111784</v>
       </c>
       <c r="W34" t="n">
-        <v>840.404375902737</v>
+        <v>879.9684626874309</v>
       </c>
       <c r="X34" t="n">
-        <v>693.2249153198238</v>
+        <v>740.3167654020214</v>
       </c>
       <c r="Y34" t="n">
-        <v>553.242426491398</v>
+        <v>607.862039871099</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1887.327403446859</v>
+        <v>1832.328643028362</v>
       </c>
       <c r="C35" t="n">
-        <v>1599.174976821551</v>
+        <v>1551.703979700559</v>
       </c>
       <c r="D35" t="n">
-        <v>1321.719368529904</v>
+        <v>1281.776134706416</v>
       </c>
       <c r="E35" t="n">
-        <v>1016.741206246764</v>
+        <v>984.3257357207794</v>
       </c>
       <c r="F35" t="n">
-        <v>686.5653917722607</v>
+        <v>661.6776845437796</v>
       </c>
       <c r="G35" t="n">
-        <v>350.2877003237927</v>
+        <v>332.9277563928149</v>
       </c>
       <c r="H35" t="n">
-        <v>112.8746754114057</v>
+        <v>103.0424947779316</v>
       </c>
       <c r="I35" t="n">
-        <v>73.99179512662066</v>
+        <v>71.68737779065016</v>
       </c>
       <c r="J35" t="n">
-        <v>262.631694140357</v>
+        <v>260.3272768043865</v>
       </c>
       <c r="K35" t="n">
-        <v>666.0988071604024</v>
+        <v>663.794389824432</v>
       </c>
       <c r="L35" t="n">
-        <v>1218.912065406602</v>
+        <v>1216.607648070631</v>
       </c>
       <c r="M35" t="n">
-        <v>1850.629876389914</v>
+        <v>1848.325459053943</v>
       </c>
       <c r="N35" t="n">
-        <v>2477.93754444976</v>
+        <v>2475.633127113789</v>
       </c>
       <c r="O35" t="n">
-        <v>3025.098749216837</v>
+        <v>3022.794331880867</v>
       </c>
       <c r="P35" t="n">
-        <v>3454.413795556132</v>
+        <v>3339.192928757607</v>
       </c>
       <c r="Q35" t="n">
-        <v>3699.589756331033</v>
+        <v>3584.368889532508</v>
       </c>
       <c r="R35" t="n">
-        <v>3699.589756331033</v>
+        <v>3584.368889532508</v>
       </c>
       <c r="S35" t="n">
-        <v>3624.184809142966</v>
+        <v>3516.491705641944</v>
       </c>
       <c r="T35" t="n">
-        <v>3490.195037725781</v>
+        <v>3390.029697522263</v>
       </c>
       <c r="U35" t="n">
-        <v>3317.313424786036</v>
+        <v>3224.675847880022</v>
       </c>
       <c r="V35" t="n">
-        <v>3067.06062775757</v>
+        <v>2981.950814149059</v>
       </c>
       <c r="W35" t="n">
-        <v>2795.10206280256</v>
+        <v>2717.520012491552</v>
       </c>
       <c r="X35" t="n">
-        <v>2502.446394856584</v>
+        <v>2432.39210784308</v>
       </c>
       <c r="Y35" t="n">
-        <v>2193.117153195877</v>
+        <v>2130.590629479876</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4134795532265</v>
+        <v>985.1090622172559</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9604502720995</v>
+        <v>810.6560329361289</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0260406108482</v>
+        <v>661.7216232748776</v>
       </c>
       <c r="E36" t="n">
-        <v>504.7885856053927</v>
+        <v>502.4841682694222</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2540276322777</v>
+        <v>355.9496102963071</v>
       </c>
       <c r="G36" t="n">
-        <v>220.8126299914996</v>
+        <v>218.5082126555291</v>
       </c>
       <c r="H36" t="n">
-        <v>119.8966521363042</v>
+        <v>117.5922348003337</v>
       </c>
       <c r="I36" t="n">
-        <v>73.99179512662066</v>
+        <v>71.68737779065016</v>
       </c>
       <c r="J36" t="n">
-        <v>73.99179512662066</v>
+        <v>190.3466296475458</v>
       </c>
       <c r="K36" t="n">
-        <v>391.1626756220039</v>
+        <v>519.7750339533557</v>
       </c>
       <c r="L36" t="n">
-        <v>528.3922736376978</v>
+        <v>1024.136573819474</v>
       </c>
       <c r="M36" t="n">
-        <v>1168.937623104802</v>
+        <v>1203.633910174079</v>
       </c>
       <c r="N36" t="n">
-        <v>1842.143315357585</v>
+        <v>1876.839602426862</v>
       </c>
       <c r="O36" t="n">
-        <v>2001.655628026346</v>
+        <v>2036.351915095622</v>
       </c>
       <c r="P36" t="n">
-        <v>2425.623396507182</v>
+        <v>2460.319683576459</v>
       </c>
       <c r="Q36" t="n">
-        <v>2656.33685256765</v>
+        <v>2654.03243523168</v>
       </c>
       <c r="R36" t="n">
-        <v>2635.224952969837</v>
+        <v>2632.920535633867</v>
       </c>
       <c r="S36" t="n">
-        <v>2485.758163832472</v>
+        <v>2483.453746496501</v>
       </c>
       <c r="T36" t="n">
-        <v>2288.76886799256</v>
+        <v>2286.464450656589</v>
       </c>
       <c r="U36" t="n">
-        <v>2060.630080503725</v>
+        <v>2058.325663167755</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.477972271983</v>
+        <v>1823.173554936012</v>
       </c>
       <c r="W36" t="n">
-        <v>1571.240615543781</v>
+        <v>1568.936198207811</v>
       </c>
       <c r="X36" t="n">
-        <v>1363.389115338248</v>
+        <v>1361.084698002278</v>
       </c>
       <c r="Y36" t="n">
-        <v>1155.628816573294</v>
+        <v>1153.324399237324</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>390.0822898488379</v>
+        <v>514.5514286534667</v>
       </c>
       <c r="C37" t="n">
-        <v>301.9561972360352</v>
+        <v>433.9530993381676</v>
       </c>
       <c r="D37" t="n">
-        <v>232.6496481388036</v>
+        <v>372.1743135384397</v>
       </c>
       <c r="E37" t="n">
-        <v>232.6496481388036</v>
+        <v>312.5990735686544</v>
       </c>
       <c r="F37" t="n">
-        <v>232.6496481388036</v>
+        <v>254.0469796833518</v>
       </c>
       <c r="G37" t="n">
-        <v>144.8528934492911</v>
+        <v>173.7779882913434</v>
       </c>
       <c r="H37" t="n">
-        <v>73.99179512662066</v>
+        <v>107.8611988037161</v>
       </c>
       <c r="I37" t="n">
-        <v>73.99179512662066</v>
+        <v>71.68737779065016</v>
       </c>
       <c r="J37" t="n">
-        <v>135.6748811815029</v>
+        <v>140.7484246534157</v>
       </c>
       <c r="K37" t="n">
-        <v>315.9247802949463</v>
+        <v>328.3762845747424</v>
       </c>
       <c r="L37" t="n">
-        <v>579.9597447135983</v>
+        <v>599.7892098012777</v>
       </c>
       <c r="M37" t="n">
-        <v>864.4313149506697</v>
+        <v>891.6387408462325</v>
       </c>
       <c r="N37" t="n">
-        <v>1149.456649304608</v>
+        <v>1184.042036008053</v>
       </c>
       <c r="O37" t="n">
-        <v>1402.75351421104</v>
+        <v>1444.716861722369</v>
       </c>
       <c r="P37" t="n">
-        <v>1607.403060327489</v>
+        <v>1656.744368646702</v>
       </c>
       <c r="Q37" t="n">
-        <v>1690.023349265683</v>
+        <v>1746.742618392778</v>
       </c>
       <c r="R37" t="n">
-        <v>1640.35547830019</v>
+        <v>1704.602510724789</v>
       </c>
       <c r="S37" t="n">
-        <v>1513.725283867699</v>
+        <v>1585.500079589802</v>
       </c>
       <c r="T37" t="n">
-        <v>1368.906177495168</v>
+        <v>1448.208736514775</v>
       </c>
       <c r="U37" t="n">
-        <v>1160.564091387952</v>
+        <v>1247.394413705063</v>
       </c>
       <c r="V37" t="n">
-        <v>986.6896934971692</v>
+        <v>1081.047779111783</v>
       </c>
       <c r="W37" t="n">
-        <v>778.0826137753127</v>
+        <v>879.9684626874306</v>
       </c>
       <c r="X37" t="n">
-        <v>630.9031531923995</v>
+        <v>740.316765402021</v>
       </c>
       <c r="Y37" t="n">
-        <v>490.9206643639735</v>
+        <v>607.8620398710987</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1887.327403446858</v>
+        <v>1832.328643028362</v>
       </c>
       <c r="C38" t="n">
-        <v>1599.17497682155</v>
+        <v>1551.703979700558</v>
       </c>
       <c r="D38" t="n">
-        <v>1321.719368529904</v>
+        <v>1281.776134706415</v>
       </c>
       <c r="E38" t="n">
-        <v>1016.741206246764</v>
+        <v>984.325735720779</v>
       </c>
       <c r="F38" t="n">
-        <v>686.5653917722605</v>
+        <v>661.6776845437792</v>
       </c>
       <c r="G38" t="n">
-        <v>350.2877003237921</v>
+        <v>332.9277563928144</v>
       </c>
       <c r="H38" t="n">
-        <v>112.8746754114057</v>
+        <v>103.0424947779317</v>
       </c>
       <c r="I38" t="n">
-        <v>73.99179512662066</v>
+        <v>71.68737779065016</v>
       </c>
       <c r="J38" t="n">
-        <v>262.631694140357</v>
+        <v>260.3272768043865</v>
       </c>
       <c r="K38" t="n">
-        <v>666.0988071604024</v>
+        <v>663.794389824432</v>
       </c>
       <c r="L38" t="n">
-        <v>1218.912065406602</v>
+        <v>1216.607648070631</v>
       </c>
       <c r="M38" t="n">
-        <v>1850.629876389914</v>
+        <v>1735.409009591388</v>
       </c>
       <c r="N38" t="n">
-        <v>2477.93754444976</v>
+        <v>2362.716677651235</v>
       </c>
       <c r="O38" t="n">
-        <v>3025.098749216838</v>
+        <v>2909.877882418312</v>
       </c>
       <c r="P38" t="n">
-        <v>3454.413795556132</v>
+        <v>3339.192928757607</v>
       </c>
       <c r="Q38" t="n">
-        <v>3699.589756331033</v>
+        <v>3584.368889532508</v>
       </c>
       <c r="R38" t="n">
-        <v>3699.589756331033</v>
+        <v>3584.368889532508</v>
       </c>
       <c r="S38" t="n">
-        <v>3624.184809142965</v>
+        <v>3516.491705641944</v>
       </c>
       <c r="T38" t="n">
-        <v>3490.19503772578</v>
+        <v>3390.029697522262</v>
       </c>
       <c r="U38" t="n">
-        <v>3317.313424786035</v>
+        <v>3224.675847880021</v>
       </c>
       <c r="V38" t="n">
-        <v>3067.060627757569</v>
+        <v>2981.950814149058</v>
       </c>
       <c r="W38" t="n">
-        <v>2795.102062802559</v>
+        <v>2717.520012491552</v>
       </c>
       <c r="X38" t="n">
-        <v>2502.446394856583</v>
+        <v>2432.39210784308</v>
       </c>
       <c r="Y38" t="n">
-        <v>2193.117153195875</v>
+        <v>2130.590629479876</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4134795532265</v>
+        <v>985.1090622172559</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9604502720995</v>
+        <v>810.6560329361289</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0260406108482</v>
+        <v>661.7216232748776</v>
       </c>
       <c r="E39" t="n">
-        <v>504.7885856053927</v>
+        <v>502.4841682694222</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2540276322777</v>
+        <v>355.9496102963071</v>
       </c>
       <c r="G39" t="n">
-        <v>220.8126299914996</v>
+        <v>218.5082126555291</v>
       </c>
       <c r="H39" t="n">
-        <v>119.8966521363042</v>
+        <v>117.5922348003337</v>
       </c>
       <c r="I39" t="n">
-        <v>73.99179512662066</v>
+        <v>71.68737779065016</v>
       </c>
       <c r="J39" t="n">
-        <v>73.99179512662066</v>
+        <v>190.3466296475458</v>
       </c>
       <c r="K39" t="n">
-        <v>141.5996147899777</v>
+        <v>257.9544493109029</v>
       </c>
       <c r="L39" t="n">
-        <v>346.4450924122261</v>
+        <v>451.4423011713029</v>
       </c>
       <c r="M39" t="n">
-        <v>986.9904418793308</v>
+        <v>1091.987650638408</v>
       </c>
       <c r="N39" t="n">
-        <v>1660.196134132113</v>
+        <v>1765.19334289119</v>
       </c>
       <c r="O39" t="n">
-        <v>2209.632142884836</v>
+        <v>2314.629351643913</v>
       </c>
       <c r="P39" t="n">
-        <v>2633.599911365673</v>
+        <v>2423.318979171212</v>
       </c>
       <c r="Q39" t="n">
-        <v>2656.33685256765</v>
+        <v>2654.03243523168</v>
       </c>
       <c r="R39" t="n">
-        <v>2635.224952969837</v>
+        <v>2632.920535633867</v>
       </c>
       <c r="S39" t="n">
-        <v>2485.758163832472</v>
+        <v>2483.453746496501</v>
       </c>
       <c r="T39" t="n">
-        <v>2288.76886799256</v>
+        <v>2286.464450656589</v>
       </c>
       <c r="U39" t="n">
-        <v>2060.630080503725</v>
+        <v>2058.325663167755</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.477972271983</v>
+        <v>1823.173554936012</v>
       </c>
       <c r="W39" t="n">
-        <v>1571.240615543781</v>
+        <v>1568.936198207811</v>
       </c>
       <c r="X39" t="n">
-        <v>1363.389115338248</v>
+        <v>1361.084698002278</v>
       </c>
       <c r="Y39" t="n">
-        <v>1155.628816573294</v>
+        <v>1153.324399237324</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>390.0822898488379</v>
+        <v>514.5514286534669</v>
       </c>
       <c r="C40" t="n">
-        <v>301.9561972360352</v>
+        <v>433.9530993381679</v>
       </c>
       <c r="D40" t="n">
-        <v>278.9346869118335</v>
+        <v>372.1743135384399</v>
       </c>
       <c r="E40" t="n">
-        <v>278.9346869118335</v>
+        <v>312.5990735686546</v>
       </c>
       <c r="F40" t="n">
-        <v>278.9346869118335</v>
+        <v>254.046979683352</v>
       </c>
       <c r="G40" t="n">
-        <v>191.137932222321</v>
+        <v>173.7779882913432</v>
       </c>
       <c r="H40" t="n">
-        <v>117.6933794371902</v>
+        <v>107.8611988037161</v>
       </c>
       <c r="I40" t="n">
-        <v>73.99179512662066</v>
+        <v>71.68737779065016</v>
       </c>
       <c r="J40" t="n">
-        <v>135.6748811815029</v>
+        <v>140.7484246534158</v>
       </c>
       <c r="K40" t="n">
-        <v>315.9247802949463</v>
+        <v>328.3762845747425</v>
       </c>
       <c r="L40" t="n">
-        <v>579.9597447135983</v>
+        <v>599.7892098012778</v>
       </c>
       <c r="M40" t="n">
-        <v>864.4313149506697</v>
+        <v>891.6387408462326</v>
       </c>
       <c r="N40" t="n">
-        <v>1149.456649304608</v>
+        <v>1184.042036008054</v>
       </c>
       <c r="O40" t="n">
-        <v>1402.75351421104</v>
+        <v>1444.71686172237</v>
       </c>
       <c r="P40" t="n">
-        <v>1607.403060327489</v>
+        <v>1656.744368646702</v>
       </c>
       <c r="Q40" t="n">
-        <v>1690.023349265683</v>
+        <v>1746.742618392779</v>
       </c>
       <c r="R40" t="n">
-        <v>1640.35547830019</v>
+        <v>1704.60251072479</v>
       </c>
       <c r="S40" t="n">
-        <v>1513.725283867699</v>
+        <v>1585.500079589803</v>
       </c>
       <c r="T40" t="n">
-        <v>1368.906177495168</v>
+        <v>1448.208736514776</v>
       </c>
       <c r="U40" t="n">
-        <v>1160.564091387952</v>
+        <v>1247.394413705063</v>
       </c>
       <c r="V40" t="n">
-        <v>986.6896934971692</v>
+        <v>1081.047779111784</v>
       </c>
       <c r="W40" t="n">
-        <v>778.0826137753127</v>
+        <v>879.9684626874314</v>
       </c>
       <c r="X40" t="n">
-        <v>630.9031531923995</v>
+        <v>740.3167654020218</v>
       </c>
       <c r="Y40" t="n">
-        <v>490.9206643639735</v>
+        <v>607.8620398710996</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1887.327403446858</v>
+        <v>1832.328643028362</v>
       </c>
       <c r="C41" t="n">
-        <v>1599.17497682155</v>
+        <v>1551.703979700558</v>
       </c>
       <c r="D41" t="n">
-        <v>1321.719368529904</v>
+        <v>1281.776134706415</v>
       </c>
       <c r="E41" t="n">
-        <v>1016.741206246764</v>
+        <v>984.3257357207784</v>
       </c>
       <c r="F41" t="n">
-        <v>686.5653917722605</v>
+        <v>661.6776845437787</v>
       </c>
       <c r="G41" t="n">
-        <v>350.287700323792</v>
+        <v>332.927756392814</v>
       </c>
       <c r="H41" t="n">
-        <v>112.8746754114057</v>
+        <v>103.0424947779316</v>
       </c>
       <c r="I41" t="n">
-        <v>73.99179512662066</v>
+        <v>71.68737779065016</v>
       </c>
       <c r="J41" t="n">
-        <v>262.631694140357</v>
+        <v>260.3272768043865</v>
       </c>
       <c r="K41" t="n">
-        <v>666.0988071604024</v>
+        <v>663.794389824432</v>
       </c>
       <c r="L41" t="n">
-        <v>1218.912065406602</v>
+        <v>1216.607648070631</v>
       </c>
       <c r="M41" t="n">
-        <v>1850.629876389914</v>
+        <v>1848.325459053943</v>
       </c>
       <c r="N41" t="n">
-        <v>2477.93754444976</v>
+        <v>2475.633127113789</v>
       </c>
       <c r="O41" t="n">
-        <v>3025.098749216837</v>
+        <v>3022.794331880867</v>
       </c>
       <c r="P41" t="n">
-        <v>3454.413795556132</v>
+        <v>3452.109378220161</v>
       </c>
       <c r="Q41" t="n">
-        <v>3699.589756331033</v>
+        <v>3584.368889532508</v>
       </c>
       <c r="R41" t="n">
-        <v>3699.589756331033</v>
+        <v>3584.368889532508</v>
       </c>
       <c r="S41" t="n">
-        <v>3624.184809142965</v>
+        <v>3516.491705641944</v>
       </c>
       <c r="T41" t="n">
-        <v>3490.19503772578</v>
+        <v>3390.029697522262</v>
       </c>
       <c r="U41" t="n">
-        <v>3317.313424786035</v>
+        <v>3224.675847880021</v>
       </c>
       <c r="V41" t="n">
-        <v>3067.060627757569</v>
+        <v>2981.950814149058</v>
       </c>
       <c r="W41" t="n">
-        <v>2795.102062802559</v>
+        <v>2717.520012491551</v>
       </c>
       <c r="X41" t="n">
-        <v>2502.446394856584</v>
+        <v>2432.392107843079</v>
       </c>
       <c r="Y41" t="n">
-        <v>2193.117153195876</v>
+        <v>2130.590629479876</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4134795532265</v>
+        <v>985.1090622172559</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9604502720995</v>
+        <v>810.6560329361289</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0260406108482</v>
+        <v>661.7216232748776</v>
       </c>
       <c r="E42" t="n">
-        <v>504.7885856053927</v>
+        <v>502.4841682694222</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2540276322777</v>
+        <v>355.9496102963071</v>
       </c>
       <c r="G42" t="n">
-        <v>220.8126299914996</v>
+        <v>218.5082126555291</v>
       </c>
       <c r="H42" t="n">
-        <v>119.8966521363042</v>
+        <v>117.5922348003337</v>
       </c>
       <c r="I42" t="n">
-        <v>73.99179512662066</v>
+        <v>71.68737779065016</v>
       </c>
       <c r="J42" t="n">
-        <v>73.99179512662066</v>
+        <v>71.68737779065016</v>
       </c>
       <c r="K42" t="n">
-        <v>403.4201994324305</v>
+        <v>139.2951974540072</v>
       </c>
       <c r="L42" t="n">
-        <v>540.6497974481244</v>
+        <v>643.6567373201258</v>
       </c>
       <c r="M42" t="n">
-        <v>986.9904418793308</v>
+        <v>1284.20208678723</v>
       </c>
       <c r="N42" t="n">
-        <v>1660.196134132113</v>
+        <v>1657.891716796143</v>
       </c>
       <c r="O42" t="n">
-        <v>2209.632142884836</v>
+        <v>2207.327725548866</v>
       </c>
       <c r="P42" t="n">
-        <v>2633.599911365673</v>
+        <v>2631.295494029703</v>
       </c>
       <c r="Q42" t="n">
-        <v>2656.33685256765</v>
+        <v>2654.03243523168</v>
       </c>
       <c r="R42" t="n">
-        <v>2635.224952969837</v>
+        <v>2632.920535633867</v>
       </c>
       <c r="S42" t="n">
-        <v>2485.758163832472</v>
+        <v>2483.453746496501</v>
       </c>
       <c r="T42" t="n">
-        <v>2288.76886799256</v>
+        <v>2286.464450656589</v>
       </c>
       <c r="U42" t="n">
-        <v>2060.630080503725</v>
+        <v>2058.325663167755</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.477972271983</v>
+        <v>1823.173554936012</v>
       </c>
       <c r="W42" t="n">
-        <v>1571.240615543781</v>
+        <v>1568.936198207811</v>
       </c>
       <c r="X42" t="n">
-        <v>1363.389115338248</v>
+        <v>1361.084698002278</v>
       </c>
       <c r="Y42" t="n">
-        <v>1155.628816573294</v>
+        <v>1153.324399237324</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>390.0822898488379</v>
+        <v>514.5514286534678</v>
       </c>
       <c r="C43" t="n">
-        <v>390.0822898488379</v>
+        <v>433.9530993381687</v>
       </c>
       <c r="D43" t="n">
-        <v>320.7757407516064</v>
+        <v>372.1743135384408</v>
       </c>
       <c r="E43" t="n">
-        <v>278.9346869118334</v>
+        <v>312.5990735686555</v>
       </c>
       <c r="F43" t="n">
-        <v>278.9346869118334</v>
+        <v>254.046979683353</v>
       </c>
       <c r="G43" t="n">
-        <v>191.137932222321</v>
+        <v>173.7779882913441</v>
       </c>
       <c r="H43" t="n">
-        <v>117.6933794371902</v>
+        <v>107.8611988037161</v>
       </c>
       <c r="I43" t="n">
-        <v>73.99179512662066</v>
+        <v>71.68737779065016</v>
       </c>
       <c r="J43" t="n">
-        <v>135.6748811815029</v>
+        <v>140.7484246534158</v>
       </c>
       <c r="K43" t="n">
-        <v>315.9247802949463</v>
+        <v>328.3762845747425</v>
       </c>
       <c r="L43" t="n">
-        <v>579.9597447135983</v>
+        <v>599.7892098012778</v>
       </c>
       <c r="M43" t="n">
-        <v>864.4313149506697</v>
+        <v>891.6387408462326</v>
       </c>
       <c r="N43" t="n">
-        <v>1149.456649304608</v>
+        <v>1184.042036008054</v>
       </c>
       <c r="O43" t="n">
-        <v>1402.75351421104</v>
+        <v>1444.71686172237</v>
       </c>
       <c r="P43" t="n">
-        <v>1607.403060327489</v>
+        <v>1656.744368646702</v>
       </c>
       <c r="Q43" t="n">
-        <v>1690.023349265683</v>
+        <v>1746.742618392779</v>
       </c>
       <c r="R43" t="n">
-        <v>1640.35547830019</v>
+        <v>1704.60251072479</v>
       </c>
       <c r="S43" t="n">
-        <v>1513.725283867699</v>
+        <v>1585.500079589803</v>
       </c>
       <c r="T43" t="n">
-        <v>1368.906177495168</v>
+        <v>1448.208736514776</v>
       </c>
       <c r="U43" t="n">
-        <v>1160.564091387952</v>
+        <v>1247.394413705063</v>
       </c>
       <c r="V43" t="n">
-        <v>986.6896934971692</v>
+        <v>1081.047779111784</v>
       </c>
       <c r="W43" t="n">
-        <v>778.0826137753127</v>
+        <v>879.9684626874314</v>
       </c>
       <c r="X43" t="n">
-        <v>630.9031531923995</v>
+        <v>740.3167654020219</v>
       </c>
       <c r="Y43" t="n">
-        <v>490.9206643639735</v>
+        <v>607.8620398710997</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1887.327403446858</v>
+        <v>1832.328643028362</v>
       </c>
       <c r="C44" t="n">
-        <v>1599.17497682155</v>
+        <v>1551.703979700558</v>
       </c>
       <c r="D44" t="n">
-        <v>1321.719368529904</v>
+        <v>1281.776134706415</v>
       </c>
       <c r="E44" t="n">
-        <v>1016.741206246764</v>
+        <v>984.325735720779</v>
       </c>
       <c r="F44" t="n">
-        <v>686.5653917722605</v>
+        <v>661.6776845437792</v>
       </c>
       <c r="G44" t="n">
-        <v>350.287700323792</v>
+        <v>332.9277563928143</v>
       </c>
       <c r="H44" t="n">
-        <v>112.8746754114057</v>
+        <v>103.0424947779316</v>
       </c>
       <c r="I44" t="n">
-        <v>73.99179512662066</v>
+        <v>71.68737779065016</v>
       </c>
       <c r="J44" t="n">
-        <v>262.631694140357</v>
+        <v>147.4108273418321</v>
       </c>
       <c r="K44" t="n">
-        <v>666.0988071604024</v>
+        <v>550.8779403618776</v>
       </c>
       <c r="L44" t="n">
-        <v>1218.912065406602</v>
+        <v>1103.691198608077</v>
       </c>
       <c r="M44" t="n">
-        <v>1850.629876389914</v>
+        <v>1735.409009591388</v>
       </c>
       <c r="N44" t="n">
-        <v>2477.93754444976</v>
+        <v>2362.716677651235</v>
       </c>
       <c r="O44" t="n">
-        <v>3025.098749216837</v>
+        <v>2909.877882418312</v>
       </c>
       <c r="P44" t="n">
-        <v>3454.413795556132</v>
+        <v>3339.192928757607</v>
       </c>
       <c r="Q44" t="n">
-        <v>3699.589756331033</v>
+        <v>3584.368889532508</v>
       </c>
       <c r="R44" t="n">
-        <v>3699.589756331033</v>
+        <v>3584.368889532508</v>
       </c>
       <c r="S44" t="n">
-        <v>3624.184809142965</v>
+        <v>3516.491705641944</v>
       </c>
       <c r="T44" t="n">
-        <v>3490.19503772578</v>
+        <v>3390.029697522263</v>
       </c>
       <c r="U44" t="n">
-        <v>3317.313424786035</v>
+        <v>3224.675847880021</v>
       </c>
       <c r="V44" t="n">
-        <v>3067.060627757568</v>
+        <v>2981.950814149058</v>
       </c>
       <c r="W44" t="n">
-        <v>2795.102062802559</v>
+        <v>2717.520012491552</v>
       </c>
       <c r="X44" t="n">
-        <v>2502.446394856583</v>
+        <v>2432.39210784308</v>
       </c>
       <c r="Y44" t="n">
-        <v>2193.117153195875</v>
+        <v>2130.590629479876</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4134795532265</v>
+        <v>985.1090622172559</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9604502720995</v>
+        <v>810.6560329361289</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0260406108482</v>
+        <v>661.7216232748776</v>
       </c>
       <c r="E45" t="n">
-        <v>504.7885856053927</v>
+        <v>502.4841682694222</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2540276322777</v>
+        <v>355.9496102963071</v>
       </c>
       <c r="G45" t="n">
-        <v>220.8126299914996</v>
+        <v>218.5082126555291</v>
       </c>
       <c r="H45" t="n">
-        <v>119.8966521363042</v>
+        <v>117.5922348003337</v>
       </c>
       <c r="I45" t="n">
-        <v>73.99179512662066</v>
+        <v>71.68737779065016</v>
       </c>
       <c r="J45" t="n">
-        <v>73.99179512662066</v>
+        <v>71.68737779065016</v>
       </c>
       <c r="K45" t="n">
-        <v>403.4201994324305</v>
+        <v>401.11578209646</v>
       </c>
       <c r="L45" t="n">
-        <v>907.7817392985492</v>
+        <v>905.4773219625786</v>
       </c>
       <c r="M45" t="n">
-        <v>1548.327088765654</v>
+        <v>1084.974658317183</v>
       </c>
       <c r="N45" t="n">
-        <v>1746.983830418319</v>
+        <v>1758.180350569966</v>
       </c>
       <c r="O45" t="n">
-        <v>2296.419839171042</v>
+        <v>2307.616359322689</v>
       </c>
       <c r="P45" t="n">
-        <v>2633.599911365673</v>
+        <v>2631.295494029703</v>
       </c>
       <c r="Q45" t="n">
-        <v>2656.33685256765</v>
+        <v>2654.03243523168</v>
       </c>
       <c r="R45" t="n">
-        <v>2635.224952969837</v>
+        <v>2632.920535633867</v>
       </c>
       <c r="S45" t="n">
-        <v>2485.758163832472</v>
+        <v>2483.453746496501</v>
       </c>
       <c r="T45" t="n">
-        <v>2288.76886799256</v>
+        <v>2286.464450656589</v>
       </c>
       <c r="U45" t="n">
-        <v>2060.630080503725</v>
+        <v>2058.325663167755</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.477972271983</v>
+        <v>1823.173554936012</v>
       </c>
       <c r="W45" t="n">
-        <v>1571.240615543781</v>
+        <v>1568.936198207811</v>
       </c>
       <c r="X45" t="n">
-        <v>1363.389115338248</v>
+        <v>1361.084698002278</v>
       </c>
       <c r="Y45" t="n">
-        <v>1155.628816573294</v>
+        <v>1153.324399237324</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>390.0822898488379</v>
+        <v>514.5514286534669</v>
       </c>
       <c r="C46" t="n">
-        <v>301.9561972360352</v>
+        <v>433.9530993381678</v>
       </c>
       <c r="D46" t="n">
-        <v>232.6496481388037</v>
+        <v>372.1743135384399</v>
       </c>
       <c r="E46" t="n">
-        <v>165.5466448715147</v>
+        <v>312.5990735686545</v>
       </c>
       <c r="F46" t="n">
-        <v>161.7885498161331</v>
+        <v>254.0469796833521</v>
       </c>
       <c r="G46" t="n">
-        <v>73.99179512662066</v>
+        <v>173.7779882913432</v>
       </c>
       <c r="H46" t="n">
-        <v>73.99179512662066</v>
+        <v>107.8611988037161</v>
       </c>
       <c r="I46" t="n">
-        <v>73.99179512662066</v>
+        <v>71.68737779065016</v>
       </c>
       <c r="J46" t="n">
-        <v>135.6748811815029</v>
+        <v>140.7484246534158</v>
       </c>
       <c r="K46" t="n">
-        <v>315.9247802949463</v>
+        <v>328.3762845747424</v>
       </c>
       <c r="L46" t="n">
-        <v>579.9597447135983</v>
+        <v>599.7892098012777</v>
       </c>
       <c r="M46" t="n">
-        <v>864.4313149506697</v>
+        <v>891.6387408462325</v>
       </c>
       <c r="N46" t="n">
-        <v>1149.456649304608</v>
+        <v>1184.042036008054</v>
       </c>
       <c r="O46" t="n">
-        <v>1402.75351421104</v>
+        <v>1444.716861722369</v>
       </c>
       <c r="P46" t="n">
-        <v>1607.403060327489</v>
+        <v>1656.744368646702</v>
       </c>
       <c r="Q46" t="n">
-        <v>1690.023349265683</v>
+        <v>1746.742618392779</v>
       </c>
       <c r="R46" t="n">
-        <v>1640.35547830019</v>
+        <v>1704.602510724789</v>
       </c>
       <c r="S46" t="n">
-        <v>1513.725283867699</v>
+        <v>1585.500079589802</v>
       </c>
       <c r="T46" t="n">
-        <v>1368.906177495168</v>
+        <v>1448.208736514775</v>
       </c>
       <c r="U46" t="n">
-        <v>1160.564091387952</v>
+        <v>1247.394413705063</v>
       </c>
       <c r="V46" t="n">
-        <v>986.6896934971692</v>
+        <v>1081.047779111784</v>
       </c>
       <c r="W46" t="n">
-        <v>778.0826137753127</v>
+        <v>879.9684626874308</v>
       </c>
       <c r="X46" t="n">
-        <v>630.9031531923995</v>
+        <v>740.3167654020212</v>
       </c>
       <c r="Y46" t="n">
-        <v>490.9206643639735</v>
+        <v>607.8620398710989</v>
       </c>
     </row>
   </sheetData>
@@ -7981,19 +7981,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>264.2220234242092</v>
+        <v>262.4389053482807</v>
       </c>
       <c r="L2" t="n">
-        <v>279.8985873492159</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>272.6952875305729</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P2" t="n">
         <v>275.3651681344982</v>
@@ -8060,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M3" t="n">
         <v>184.4830882253185</v>
@@ -8072,13 +8072,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P3" t="n">
         <v>178.1065797935588</v>
       </c>
       <c r="Q3" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8224,16 +8224,16 @@
         <v>279.8985873492159</v>
       </c>
       <c r="M5" t="n">
-        <v>274.4784056065013</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P5" t="n">
-        <v>273.5820500585697</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8300,19 +8300,19 @@
         <v>181.9736113535876</v>
       </c>
       <c r="L6" t="n">
-        <v>182.6865521591028</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>184.4830882253185</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O6" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q6" t="n">
         <v>184.1139464652501</v>
@@ -8458,16 +8458,16 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>317.1681869926663</v>
+        <v>329.1828613178067</v>
       </c>
       <c r="M8" t="n">
-        <v>311.7480052499518</v>
+        <v>323.7626795750922</v>
       </c>
       <c r="N8" t="n">
-        <v>310.81483561927</v>
+        <v>322.8295099444104</v>
       </c>
       <c r="O8" t="n">
-        <v>308.211022958601</v>
+        <v>319.740255896867</v>
       </c>
       <c r="P8" t="n">
         <v>231.2329957552695</v>
@@ -8534,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>219.2432109970381</v>
+        <v>231.2578853221785</v>
       </c>
       <c r="L9" t="n">
-        <v>219.9561518025533</v>
+        <v>231.9708261276937</v>
       </c>
       <c r="M9" t="n">
-        <v>150.151331809105</v>
+        <v>231.7760783971987</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
@@ -8549,10 +8549,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>215.3761794370093</v>
+        <v>227.3908537621497</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>55.0395955129279</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8710,7 +8710,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>98.25797100075954</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8777,7 +8777,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>48.10560617263494</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>110.9405987984215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>55.0395955129279</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>303.6041948913052</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>163.1635867359898</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9017,7 +9017,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>48.10560617263502</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9178,10 +9178,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>266.7431616035996</v>
       </c>
       <c r="P17" t="n">
-        <v>207.7416885123375</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>48.10560617263502</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>15.92129162592684</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>55.03959551292837</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9412,7 +9412,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>323.2899047528382</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263494</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>91.32084226271961</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9640,13 +9640,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>210.0883929120193</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>335.4565138336866</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9716,19 +9716,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>68.2988682894491</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263494</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>22.1544968078553</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263471</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>74.53207347137734</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>186.2236012992072</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10205,13 +10205,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10369,10 +10369,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>98.25797100075954</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>15.92129162592695</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>48.10560617263502</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928326</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10603,7 +10603,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>207.741688512337</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10664,16 +10664,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>252.0838998303295</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>172.7028388416601</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>335.4565138336866</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>68.29886828944896</v>
+        <v>56.82651903505663</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10919,10 +10919,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11080,10 +11080,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599048</v>
+        <v>98.25797100075908</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,16 +11141,16 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>269.5386950268702</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>176.8008973295434</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>55.0395955129279</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11317,10 +11317,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11384,16 +11384,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>230.7984289569017</v>
+        <v>217.1611183633481</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>61.69854450615044</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>72.71010725727946</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>43.26456846746387</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>49.17119225583824</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>125.3638924881656</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>3.138135486890434</v>
       </c>
     </row>
     <row r="29">
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>62.07005474043953</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>66.43197323461607</v>
       </c>
       <c r="F31" t="n">
-        <v>65.41905861097815</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>43.26456846746389</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>49.17119225583821</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>68.98959315245186</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>72.71010725727943</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>43.26456846746385</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>61.6985445061491</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>66.43197323461608</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>65.41905861097815</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>2.55761991783578</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>43.26456846746389</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>45.82218838529964</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>66.43197323461608</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>65.41905861097815</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>87.24483168667471</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>25.00932993324079</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>65.41905861097813</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>61.69854450615034</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>72.71010725727945</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>43.26456846746386</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>694267.14923031</v>
+        <v>695573.0351051406</v>
       </c>
     </row>
     <row r="5">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>706568.3888876536</v>
+        <v>706568.3888876535</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>706568.3888876536</v>
+        <v>706568.3888876535</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>705306.4282134541</v>
+        <v>705306.4282134542</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>705306.4282134541</v>
+        <v>706568.3888876536</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>705306.4282134541</v>
+        <v>706568.3888876536</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>705306.4282134541</v>
+        <v>706568.3888876536</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>705306.4282134541</v>
+        <v>706568.3888876536</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>705306.4282134541</v>
+        <v>706568.3888876536</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176765</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176759</v>
+        <v>800515.7256176765</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.725617676</v>
       </c>
       <c r="E2" t="n">
         <v>800515.7256176749</v>
       </c>
       <c r="F2" t="n">
-        <v>800515.7256176749</v>
+        <v>800515.725617675</v>
       </c>
       <c r="G2" t="n">
+        <v>800515.7256176752</v>
+      </c>
+      <c r="H2" t="n">
         <v>800515.725617675</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>800515.7256176764</v>
+      </c>
+      <c r="J2" t="n">
+        <v>796358.172264274</v>
+      </c>
+      <c r="K2" t="n">
+        <v>796358.1722642736</v>
+      </c>
+      <c r="L2" t="n">
         <v>800515.7256176758</v>
       </c>
-      <c r="I2" t="n">
-        <v>800515.7256176749</v>
-      </c>
-      <c r="J2" t="n">
-        <v>796358.1722642737</v>
-      </c>
-      <c r="K2" t="n">
-        <v>796358.1722642734</v>
-      </c>
-      <c r="L2" t="n">
-        <v>796358.1722642732</v>
-      </c>
       <c r="M2" t="n">
-        <v>796358.1722642732</v>
+        <v>800515.7256176759</v>
       </c>
       <c r="N2" t="n">
-        <v>796358.1722642734</v>
+        <v>800515.7256176751</v>
       </c>
       <c r="O2" t="n">
-        <v>796358.1722642735</v>
+        <v>800515.7256176746</v>
       </c>
       <c r="P2" t="n">
-        <v>796358.1722642735</v>
+        <v>800515.7256176751</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>11577.05573724502</v>
+        <v>15309.17402286339</v>
       </c>
       <c r="E3" t="n">
-        <v>790012.7047888098</v>
+        <v>786425.3873581579</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,28 +26383,28 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.13686837721616e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>83085.22175771168</v>
+        <v>83085.2217577117</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>9432.600243360524</v>
+        <v>11145.05361488117</v>
       </c>
       <c r="M3" t="n">
-        <v>203024.1189916251</v>
+        <v>200030.0140911027</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>64001.59152956254</v>
+        <v>64001.59152956249</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,10 +26423,10 @@
         <v>386095.5528670329</v>
       </c>
       <c r="D4" t="n">
-        <v>380101.9119578043</v>
+        <v>378169.7301196537</v>
       </c>
       <c r="E4" t="n">
-        <v>159263.0340515218</v>
+        <v>159263.0340515217</v>
       </c>
       <c r="F4" t="n">
         <v>159263.0340515217</v>
@@ -26441,25 +26441,25 @@
         <v>159263.0340515217</v>
       </c>
       <c r="J4" t="n">
-        <v>153788.3361621245</v>
+        <v>153788.3361621244</v>
       </c>
       <c r="K4" t="n">
-        <v>153788.3361621245</v>
+        <v>153788.3361621244</v>
       </c>
       <c r="L4" t="n">
-        <v>153788.3361621245</v>
+        <v>159263.0340515217</v>
       </c>
       <c r="M4" t="n">
-        <v>153788.3361621245</v>
+        <v>159263.0340515217</v>
       </c>
       <c r="N4" t="n">
-        <v>153788.3361621244</v>
+        <v>159263.0340515217</v>
       </c>
       <c r="O4" t="n">
-        <v>153788.3361621245</v>
+        <v>159263.0340515218</v>
       </c>
       <c r="P4" t="n">
-        <v>153788.3361621245</v>
+        <v>159263.0340515217</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>38576.82773897889</v>
+        <v>39307.31993794742</v>
       </c>
       <c r="E5" t="n">
         <v>74772.39637346868</v>
@@ -26484,7 +26484,7 @@
         <v>74772.39637346868</v>
       </c>
       <c r="G5" t="n">
-        <v>74772.39637346867</v>
+        <v>74772.39637346868</v>
       </c>
       <c r="H5" t="n">
         <v>74772.39637346868</v>
@@ -26493,25 +26493,25 @@
         <v>74772.39637346868</v>
       </c>
       <c r="J5" t="n">
-        <v>75897.230531475</v>
+        <v>75897.23053147501</v>
       </c>
       <c r="K5" t="n">
         <v>75897.230531475</v>
       </c>
       <c r="L5" t="n">
-        <v>75897.230531475</v>
+        <v>74772.39637346868</v>
       </c>
       <c r="M5" t="n">
-        <v>75897.230531475</v>
+        <v>74772.39637346868</v>
       </c>
       <c r="N5" t="n">
-        <v>75897.230531475</v>
+        <v>74772.39637346868</v>
       </c>
       <c r="O5" t="n">
-        <v>75897.230531475</v>
+        <v>74772.39637346868</v>
       </c>
       <c r="P5" t="n">
-        <v>75897.230531475</v>
+        <v>74772.39637346868</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>363319.6306657421</v>
+        <v>363319.6306657423</v>
       </c>
       <c r="C6" t="n">
-        <v>378109.3366699859</v>
+        <v>378109.3366699865</v>
       </c>
       <c r="D6" t="n">
-        <v>370259.9301836479</v>
+        <v>367729.5015372115</v>
       </c>
       <c r="E6" t="n">
-        <v>-223532.4095961254</v>
+        <v>-219945.0921654734</v>
       </c>
       <c r="F6" t="n">
         <v>566480.2951926845</v>
       </c>
       <c r="G6" t="n">
+        <v>566480.2951926847</v>
+      </c>
+      <c r="H6" t="n">
         <v>566480.2951926845</v>
       </c>
-      <c r="H6" t="n">
-        <v>566480.2951926854</v>
-      </c>
       <c r="I6" t="n">
-        <v>566480.2951926845</v>
+        <v>566480.2951926859</v>
       </c>
       <c r="J6" t="n">
-        <v>483587.3838129626</v>
+        <v>483480.7798808243</v>
       </c>
       <c r="K6" t="n">
-        <v>566672.6055706739</v>
+        <v>566566.0016385356</v>
       </c>
       <c r="L6" t="n">
-        <v>557240.0053273132</v>
+        <v>555335.2415778043</v>
       </c>
       <c r="M6" t="n">
-        <v>363648.4865790487</v>
+        <v>366450.2811015827</v>
       </c>
       <c r="N6" t="n">
-        <v>566672.6055706739</v>
+        <v>566480.2951926847</v>
       </c>
       <c r="O6" t="n">
-        <v>502671.0140411116</v>
+        <v>502478.7036631217</v>
       </c>
       <c r="P6" t="n">
-        <v>566672.6055706739</v>
+        <v>566480.2951926847</v>
       </c>
     </row>
   </sheetData>
@@ -26694,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="F2" t="n">
         <v>87.45447507648171</v>
       </c>
       <c r="G2" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="H2" t="n">
+        <v>87.45447507648171</v>
+      </c>
+      <c r="I2" t="n">
+        <v>87.45447507648173</v>
+      </c>
+      <c r="J2" t="n">
+        <v>80.00198941195308</v>
+      </c>
+      <c r="K2" t="n">
+        <v>80.0019894119531</v>
+      </c>
+      <c r="L2" t="n">
         <v>87.4544750764817</v>
       </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
+        <v>87.45447507648171</v>
+      </c>
+      <c r="N2" t="n">
+        <v>87.45447507648171</v>
+      </c>
+      <c r="O2" t="n">
+        <v>87.45447507648173</v>
+      </c>
+      <c r="P2" t="n">
         <v>87.4544750764817</v>
-      </c>
-      <c r="J2" t="n">
-        <v>80.0019894119531</v>
-      </c>
-      <c r="K2" t="n">
-        <v>80.00198941195309</v>
-      </c>
-      <c r="L2" t="n">
-        <v>80.00198941195313</v>
-      </c>
-      <c r="M2" t="n">
-        <v>80.00198941195309</v>
-      </c>
-      <c r="N2" t="n">
-        <v>80.00198941195309</v>
-      </c>
-      <c r="O2" t="n">
-        <v>80.00198941195312</v>
-      </c>
-      <c r="P2" t="n">
-        <v>80.00198941195312</v>
       </c>
     </row>
     <row r="3">
@@ -26795,43 +26795,43 @@
         <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>81.4017720226791</v>
+        <v>93.4164463478195</v>
       </c>
       <c r="E4" t="n">
-        <v>896.0922223831271</v>
+        <v>896.0922223831269</v>
       </c>
       <c r="F4" t="n">
-        <v>896.092222383127</v>
+        <v>896.0922223831269</v>
       </c>
       <c r="G4" t="n">
-        <v>896.092222383127</v>
+        <v>896.0922223831269</v>
       </c>
       <c r="H4" t="n">
-        <v>896.092222383127</v>
+        <v>896.0922223831269</v>
       </c>
       <c r="I4" t="n">
-        <v>896.092222383127</v>
+        <v>896.0922223831269</v>
       </c>
       <c r="J4" t="n">
-        <v>924.8974390827582</v>
+        <v>924.8974390827583</v>
       </c>
       <c r="K4" t="n">
         <v>924.8974390827582</v>
       </c>
       <c r="L4" t="n">
-        <v>924.8974390827581</v>
+        <v>896.092222383127</v>
       </c>
       <c r="M4" t="n">
-        <v>924.8974390827582</v>
+        <v>896.0922223831269</v>
       </c>
       <c r="N4" t="n">
-        <v>924.8974390827582</v>
+        <v>896.0922223831269</v>
       </c>
       <c r="O4" t="n">
-        <v>924.8974390827582</v>
+        <v>896.0922223831269</v>
       </c>
       <c r="P4" t="n">
-        <v>924.8974390827582</v>
+        <v>896.0922223831269</v>
       </c>
     </row>
   </sheetData>
@@ -26925,19 +26925,19 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>80.00198941195313</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>7.452485664528595</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>80.00198941195318</v>
+        <v>80.0019894119531</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>37.26959964345048</v>
+        <v>49.28427396859091</v>
       </c>
       <c r="E4" t="n">
-        <v>814.690450360448</v>
+        <v>802.6757760353074</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>72.93738907885972</v>
+        <v>72.93738907885995</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>37.26959964345048</v>
+        <v>20.47905726895975</v>
       </c>
       <c r="M4" t="n">
-        <v>814.690450360448</v>
+        <v>802.6757760353073</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27162,16 +27162,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>80.00198941195313</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>37.26959964345048</v>
+        <v>49.28427396859091</v>
       </c>
       <c r="M4" t="n">
-        <v>814.690450360448</v>
+        <v>802.6757760353074</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>362.7438733624829</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>388.380409438123</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27423,19 +27423,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>212.4606349229872</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>122.4010112706387</v>
+        <v>128.4081575445007</v>
       </c>
       <c r="C3" t="n">
-        <v>128.5763266090871</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>103.3128931854102</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27475,10 +27475,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>74.11041813112978</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27539,16 +27539,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>166.4563706509456</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>104.4833006389838</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>102.3017902673406</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>101.2888756437027</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27587,16 +27587,16 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>223.22614758929</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>183.8134170490529</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>242.1868569772623</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>208.0054709445994</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27627,10 +27627,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>386.4218192980553</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27639,7 +27639,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>184.2108315792821</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>207.2134805286079</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="6">
@@ -27697,25 +27697,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>128.5763266090871</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>103.3128931854102</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>99.21849105784395</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>56.02566177341454</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>162.0397025894549</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -27782,16 +27782,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>102.3017902673406</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>101.2888756437027</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>123.8588069792302</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>118.095000128211</v>
       </c>
       <c r="I7" t="n">
         <v>135.5187846613368</v>
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>283.8711197483285</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,7 +27864,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>372.4200910284281</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>117.0594432225864</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>68.46734591847058</v>
+        <v>56.45267159333018</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>129.6794032163119</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>288.3293286557899</v>
+        <v>331.5686665613134</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27931,31 +27931,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>85.13141162718824</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>75.74638476706303</v>
+        <v>65.91045094773725</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>64.22863410758144</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>51.65276604556438</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>30.83367221381737</v>
+        <v>18.81899788867696</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>18.75606212996404</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -28025,10 +28025,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>74.57453301063926</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>147.4475838308804</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28067,10 +28067,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>256.8033256196848</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>170.7358713011489</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="C11" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="D11" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="E11" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="F11" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="G11" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="H11" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="I11" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="T11" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="U11" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="V11" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="W11" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="X11" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="Y11" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="C13" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="D13" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="E13" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="F13" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="G13" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="H13" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="I13" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="K13" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="L13" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="M13" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="N13" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="O13" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="P13" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="Q13" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="R13" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="S13" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="T13" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="U13" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="V13" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="W13" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="X13" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="Y13" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
     </row>
     <row r="14">
@@ -28389,7 +28389,7 @@
         <v>87.45447507648171</v>
       </c>
       <c r="W14" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648163</v>
       </c>
       <c r="X14" t="n">
         <v>87.45447507648171</v>
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="C17" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="D17" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="E17" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="F17" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="G17" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="H17" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="I17" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="T17" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="U17" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="V17" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="W17" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="X17" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="Y17" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648171</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="C19" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="D19" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="E19" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="F19" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="G19" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="H19" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="I19" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="K19" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="L19" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="M19" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="N19" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="O19" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="P19" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="Q19" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="R19" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="S19" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="T19" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="U19" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="V19" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="W19" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="X19" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="Y19" t="n">
-        <v>87.45447507648169</v>
+        <v>87.45447507648171</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="C20" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="D20" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="E20" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="F20" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="G20" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="H20" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="I20" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648157</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="T20" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="U20" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="V20" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="W20" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="X20" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="Y20" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="C22" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="D22" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="E22" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="F22" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="G22" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="H22" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="I22" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="J22" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="K22" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="L22" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="M22" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="N22" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="O22" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="P22" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="Q22" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="R22" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="S22" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="T22" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="U22" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="V22" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="W22" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="X22" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="Y22" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="C23" t="n">
-        <v>87.4544750764817</v>
+        <v>87.4544750764814</v>
       </c>
       <c r="D23" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="E23" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="F23" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="G23" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="H23" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="I23" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>87.45447507648174</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="T23" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="U23" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="V23" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="W23" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="X23" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="Y23" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="C25" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="D25" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="E25" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="F25" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="G25" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="H25" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="I25" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="J25" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="K25" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="L25" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="M25" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="N25" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="O25" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="P25" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="Q25" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="R25" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="S25" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="T25" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="U25" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="V25" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="W25" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="X25" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="Y25" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648173</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="C26" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="D26" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="E26" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="F26" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="G26" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="H26" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="I26" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="T26" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="U26" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="V26" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="W26" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="X26" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="Y26" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="C28" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="D28" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="E28" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="F28" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="G28" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="H28" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="I28" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="J28" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="K28" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="L28" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="M28" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="N28" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="O28" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="P28" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="Q28" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="R28" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="S28" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="T28" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="U28" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="V28" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="W28" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="X28" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
       <c r="Y28" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195308</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>80.00198941195309</v>
+        <v>80.0019894119531</v>
       </c>
       <c r="C29" t="n">
-        <v>80.00198941195309</v>
+        <v>80.0019894119531</v>
       </c>
       <c r="D29" t="n">
-        <v>80.00198941195309</v>
+        <v>80.0019894119531</v>
       </c>
       <c r="E29" t="n">
-        <v>80.00198941195309</v>
+        <v>80.0019894119531</v>
       </c>
       <c r="F29" t="n">
-        <v>80.00198941195309</v>
+        <v>80.0019894119531</v>
       </c>
       <c r="G29" t="n">
-        <v>80.00198941195309</v>
+        <v>80.0019894119531</v>
       </c>
       <c r="H29" t="n">
-        <v>80.00198941195309</v>
+        <v>80.0019894119531</v>
       </c>
       <c r="I29" t="n">
-        <v>80.00198941195309</v>
+        <v>80.0019894119531</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>80.00198941195309</v>
+        <v>80.0019894119531</v>
       </c>
       <c r="T29" t="n">
-        <v>80.00198941195309</v>
+        <v>80.0019894119531</v>
       </c>
       <c r="U29" t="n">
-        <v>80.00198941195309</v>
+        <v>80.0019894119531</v>
       </c>
       <c r="V29" t="n">
-        <v>80.00198941195309</v>
+        <v>80.0019894119531</v>
       </c>
       <c r="W29" t="n">
-        <v>80.00198941195309</v>
+        <v>80.0019894119531</v>
       </c>
       <c r="X29" t="n">
-        <v>80.00198941195309</v>
+        <v>80.0019894119531</v>
       </c>
       <c r="Y29" t="n">
-        <v>80.00198941195309</v>
+        <v>80.0019894119531</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.00198941195309</v>
+        <v>80.0019894119531</v>
       </c>
       <c r="C31" t="n">
-        <v>80.00198941195309</v>
+        <v>80.0019894119531</v>
       </c>
       <c r="D31" t="n">
-        <v>80.00198941195309</v>
+        <v>80.0019894119531</v>
       </c>
       <c r="E31" t="n">
-        <v>80.00198941195309</v>
+        <v>80.0019894119531</v>
       </c>
       <c r="F31" t="n">
-        <v>80.00198941195309</v>
+        <v>80.0019894119531</v>
       </c>
       <c r="G31" t="n">
-        <v>80.00198941195309</v>
+        <v>80.0019894119531</v>
       </c>
       <c r="H31" t="n">
-        <v>80.00198941195309</v>
+        <v>80.0019894119531</v>
       </c>
       <c r="I31" t="n">
-        <v>80.00198941195309</v>
+        <v>80.0019894119531</v>
       </c>
       <c r="J31" t="n">
-        <v>80.00198941195309</v>
+        <v>80.0019894119531</v>
       </c>
       <c r="K31" t="n">
-        <v>80.00198941195309</v>
+        <v>80.0019894119531</v>
       </c>
       <c r="L31" t="n">
-        <v>80.00198941195309</v>
+        <v>80.0019894119531</v>
       </c>
       <c r="M31" t="n">
-        <v>80.00198941195309</v>
+        <v>80.0019894119531</v>
       </c>
       <c r="N31" t="n">
-        <v>80.00198941195309</v>
+        <v>80.0019894119531</v>
       </c>
       <c r="O31" t="n">
-        <v>80.00198941195309</v>
+        <v>80.0019894119531</v>
       </c>
       <c r="P31" t="n">
-        <v>80.00198941195309</v>
+        <v>80.0019894119531</v>
       </c>
       <c r="Q31" t="n">
-        <v>80.00198941195309</v>
+        <v>80.0019894119531</v>
       </c>
       <c r="R31" t="n">
-        <v>80.00198941195309</v>
+        <v>80.0019894119531</v>
       </c>
       <c r="S31" t="n">
-        <v>80.00198941195309</v>
+        <v>80.0019894119531</v>
       </c>
       <c r="T31" t="n">
-        <v>80.00198941195309</v>
+        <v>80.0019894119531</v>
       </c>
       <c r="U31" t="n">
-        <v>80.00198941195309</v>
+        <v>80.0019894119531</v>
       </c>
       <c r="V31" t="n">
-        <v>80.00198941195309</v>
+        <v>80.0019894119531</v>
       </c>
       <c r="W31" t="n">
-        <v>80.00198941195309</v>
+        <v>80.0019894119531</v>
       </c>
       <c r="X31" t="n">
-        <v>80.00198941195309</v>
+        <v>80.0019894119531</v>
       </c>
       <c r="Y31" t="n">
-        <v>80.00198941195309</v>
+        <v>80.0019894119531</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>80.00198941195313</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="C32" t="n">
-        <v>80.00198941195313</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="D32" t="n">
-        <v>80.00198941195313</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="E32" t="n">
-        <v>80.00198941195313</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="F32" t="n">
-        <v>80.00198941195313</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="G32" t="n">
-        <v>80.00198941195313</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="H32" t="n">
-        <v>80.00198941195313</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="I32" t="n">
-        <v>80.00198941195313</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>80.00198941195313</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="T32" t="n">
-        <v>80.00198941195313</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="U32" t="n">
-        <v>80.00198941195313</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="V32" t="n">
-        <v>80.00198941195313</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="W32" t="n">
-        <v>80.00198941195313</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="X32" t="n">
-        <v>80.00198941195313</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="Y32" t="n">
-        <v>80.00198941195313</v>
+        <v>87.4544750764817</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80.00198941195313</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="C34" t="n">
-        <v>80.00198941195313</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="D34" t="n">
-        <v>80.00198941195313</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="E34" t="n">
-        <v>80.00198941195313</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="F34" t="n">
-        <v>80.00198941195313</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="G34" t="n">
-        <v>80.00198941195313</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="H34" t="n">
-        <v>80.00198941195313</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="I34" t="n">
-        <v>80.00198941195313</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="J34" t="n">
-        <v>80.00198941195313</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="K34" t="n">
-        <v>80.00198941195313</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="L34" t="n">
-        <v>80.00198941195313</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="M34" t="n">
-        <v>80.00198941195313</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="N34" t="n">
-        <v>80.00198941195313</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="O34" t="n">
-        <v>80.00198941195313</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="P34" t="n">
-        <v>80.00198941195313</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="Q34" t="n">
-        <v>80.00198941195313</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="R34" t="n">
-        <v>80.00198941195313</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="S34" t="n">
-        <v>80.00198941195313</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="T34" t="n">
-        <v>80.00198941195313</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="U34" t="n">
-        <v>80.00198941195313</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="V34" t="n">
-        <v>80.00198941195313</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="W34" t="n">
-        <v>80.00198941195313</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="X34" t="n">
-        <v>80.00198941195313</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="Y34" t="n">
-        <v>80.00198941195313</v>
+        <v>87.4544750764817</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="C35" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="D35" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="E35" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="F35" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="G35" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="H35" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="I35" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="T35" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="U35" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="V35" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="W35" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="X35" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="Y35" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="C37" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="D37" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="E37" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="F37" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="G37" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="H37" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="I37" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="J37" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="K37" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="L37" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="M37" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="N37" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="O37" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="P37" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="Q37" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="R37" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="S37" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="T37" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="U37" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="V37" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="W37" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="X37" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="Y37" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="C38" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="D38" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="E38" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="F38" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="G38" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="H38" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="I38" t="n">
-        <v>80.00198941195306</v>
+        <v>87.45447507648157</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="T38" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="U38" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="V38" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="W38" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="X38" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="Y38" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="C40" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="D40" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="E40" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="F40" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="G40" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="H40" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="I40" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="J40" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="K40" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="L40" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="M40" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="N40" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="O40" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="P40" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="Q40" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="R40" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="S40" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="T40" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="U40" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="V40" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="W40" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="X40" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="Y40" t="n">
-        <v>80.00198941195309</v>
+        <v>87.45447507648171</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="C41" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="D41" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="E41" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="F41" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="G41" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="H41" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="I41" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="T41" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="U41" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="V41" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="W41" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="X41" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="Y41" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="C43" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="D43" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="E43" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="F43" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="G43" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="H43" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="I43" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="J43" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="K43" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="L43" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="M43" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="N43" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="O43" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="P43" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="Q43" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="R43" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="S43" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="T43" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="U43" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="V43" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="W43" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="X43" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
       <c r="Y43" t="n">
-        <v>80.00198941195312</v>
+        <v>87.45447507648173</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>80.00198941195312</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="C44" t="n">
-        <v>80.00198941195312</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="D44" t="n">
-        <v>80.00198941195312</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="E44" t="n">
-        <v>80.00198941195312</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="F44" t="n">
-        <v>80.00198941195312</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="G44" t="n">
-        <v>80.00198941195312</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="H44" t="n">
-        <v>80.00198941195312</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="I44" t="n">
-        <v>80.00198941195312</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>80.00198941195312</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="T44" t="n">
-        <v>80.00198941195312</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="U44" t="n">
-        <v>80.00198941195312</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="V44" t="n">
-        <v>80.00198941195312</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="W44" t="n">
-        <v>80.00198941195312</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="X44" t="n">
-        <v>80.00198941195312</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="Y44" t="n">
-        <v>80.00198941195312</v>
+        <v>87.4544750764817</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>80.00198941195312</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="C46" t="n">
-        <v>80.00198941195312</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="D46" t="n">
-        <v>80.00198941195312</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="E46" t="n">
-        <v>80.00198941195312</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="F46" t="n">
-        <v>80.00198941195312</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="G46" t="n">
-        <v>80.00198941195312</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="H46" t="n">
-        <v>80.00198941195312</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="I46" t="n">
-        <v>80.00198941195312</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="J46" t="n">
-        <v>80.00198941195312</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="K46" t="n">
-        <v>80.00198941195312</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="L46" t="n">
-        <v>80.00198941195312</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="M46" t="n">
-        <v>80.00198941195312</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="N46" t="n">
-        <v>80.00198941195312</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="O46" t="n">
-        <v>80.00198941195312</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="P46" t="n">
-        <v>80.00198941195312</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="Q46" t="n">
-        <v>80.00198941195312</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="R46" t="n">
-        <v>80.00198941195312</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="S46" t="n">
-        <v>80.00198941195312</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="T46" t="n">
-        <v>80.00198941195312</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="U46" t="n">
-        <v>80.00198941195312</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="V46" t="n">
-        <v>80.00198941195312</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="W46" t="n">
-        <v>80.00198941195312</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="X46" t="n">
-        <v>80.00198941195312</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="Y46" t="n">
-        <v>80.00198941195312</v>
+        <v>87.4544750764817</v>
       </c>
     </row>
   </sheetData>
@@ -34701,19 +34701,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>42.34905430330018</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="M2" t="n">
-        <v>42.34905430330019</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>44.13217237922859</v>
@@ -34780,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>42.34905430330018</v>
@@ -34792,13 +34792,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P3" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="Q3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34944,16 +34944,16 @@
         <v>44.13217237922859</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P5" t="n">
-        <v>42.34905430330016</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35020,19 +35020,19 @@
         <v>44.13217237922859</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>42.34905430330018</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="M6" t="n">
-        <v>42.34905430330019</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>44.13217237922859</v>
@@ -35178,16 +35178,16 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>81.4017720226791</v>
+        <v>93.4164463478195</v>
       </c>
       <c r="M8" t="n">
-        <v>81.4017720226791</v>
+        <v>93.4164463478195</v>
       </c>
       <c r="N8" t="n">
-        <v>81.4017720226791</v>
+        <v>93.4164463478195</v>
       </c>
       <c r="O8" t="n">
-        <v>78.11281153691425</v>
+        <v>89.64204447518033</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35254,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>81.4017720226791</v>
+        <v>93.4164463478195</v>
       </c>
       <c r="L9" t="n">
-        <v>81.4017720226791</v>
+        <v>93.4164463478195</v>
       </c>
       <c r="M9" t="n">
-        <v>8.017297887086688</v>
+        <v>89.64204447518033</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35269,10 +35269,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>81.4017720226791</v>
+        <v>93.4164463478195</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.5453525391276</v>
+        <v>76.48833287998174</v>
       </c>
       <c r="K11" t="n">
         <v>407.5425384040863</v>
@@ -35430,7 +35430,7 @@
         <v>433.6515619588832</v>
       </c>
       <c r="Q11" t="n">
-        <v>133.5954659720677</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35497,7 +35497,7 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M12" t="n">
-        <v>229.416046934862</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N12" t="n">
         <v>200.663375406732</v>
@@ -35506,10 +35506,10 @@
         <v>554.9858674269929</v>
       </c>
       <c r="P12" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q12" t="n">
-        <v>233.0438950105733</v>
+        <v>133.9072060731457</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>69.75863319471274</v>
+        <v>69.75863319471273</v>
       </c>
       <c r="K13" t="n">
         <v>189.523090829623</v>
@@ -35582,13 +35582,13 @@
         <v>295.3568637998194</v>
       </c>
       <c r="O13" t="n">
-        <v>263.3079047619352</v>
+        <v>263.3079047619351</v>
       </c>
       <c r="P13" t="n">
-        <v>214.1691989134673</v>
+        <v>214.1691989134672</v>
       </c>
       <c r="Q13" t="n">
-        <v>90.90732297583517</v>
+        <v>90.90732297583516</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.5453525391276</v>
+        <v>76.48833287998174</v>
       </c>
       <c r="K14" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L14" t="n">
-        <v>444.340210892571</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M14" t="n">
         <v>638.0987989730422</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K15" t="n">
-        <v>231.4543136686736</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L15" t="n">
         <v>509.4561008748672</v>
@@ -35737,7 +35737,7 @@
         <v>181.3104407622271</v>
       </c>
       <c r="N15" t="n">
-        <v>680.0057497502855</v>
+        <v>248.768981579367</v>
       </c>
       <c r="O15" t="n">
         <v>554.9858674269929</v>
@@ -35746,7 +35746,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35898,10 +35898,10 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O17" t="n">
-        <v>552.6880856233105</v>
+        <v>438.6310659641647</v>
       </c>
       <c r="P17" t="n">
-        <v>319.594542299738</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q17" t="n">
         <v>247.6524856312129</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K18" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L18" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M18" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N18" t="n">
-        <v>680.0057497502855</v>
+        <v>248.768981579367</v>
       </c>
       <c r="O18" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P18" t="n">
-        <v>125.7087941787539</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>69.7586331947127</v>
+        <v>69.75863319471273</v>
       </c>
       <c r="K19" t="n">
-        <v>189.5230908296229</v>
+        <v>189.523090829623</v>
       </c>
       <c r="L19" t="n">
-        <v>274.1544699257932</v>
+        <v>274.1544699257933</v>
       </c>
       <c r="M19" t="n">
         <v>294.797506106015</v>
@@ -36062,7 +36062,7 @@
         <v>214.1691989134672</v>
       </c>
       <c r="Q19" t="n">
-        <v>90.90732297583513</v>
+        <v>90.90732297583516</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>76.48833287998221</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K20" t="n">
         <v>407.5425384040863</v>
@@ -36132,7 +36132,7 @@
         <v>638.0987989730422</v>
       </c>
       <c r="N20" t="n">
-        <v>633.6441091513602</v>
+        <v>519.5870894922143</v>
       </c>
       <c r="O20" t="n">
         <v>552.6880856233105</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K21" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L21" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M21" t="n">
-        <v>647.0155045122269</v>
+        <v>229.416046934862</v>
       </c>
       <c r="N21" t="n">
-        <v>680.0057497502855</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O21" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P21" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q21" t="n">
-        <v>114.2874495374438</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>69.75863319471271</v>
+        <v>69.75863319471273</v>
       </c>
       <c r="K22" t="n">
-        <v>189.5230908296229</v>
+        <v>189.523090829623</v>
       </c>
       <c r="L22" t="n">
-        <v>274.1544699257932</v>
+        <v>274.1544699257933</v>
       </c>
       <c r="M22" t="n">
         <v>294.797506106015</v>
@@ -36299,7 +36299,7 @@
         <v>214.1691989134672</v>
       </c>
       <c r="Q22" t="n">
-        <v>90.90732297583514</v>
+        <v>90.90732297583516</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K23" t="n">
-        <v>293.4855187449409</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L23" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M23" t="n">
-        <v>638.0987989730422</v>
+        <v>524.0417793138963</v>
       </c>
       <c r="N23" t="n">
         <v>633.6441091513602</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K24" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L24" t="n">
-        <v>206.9146238608571</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M24" t="n">
-        <v>647.0155045122269</v>
+        <v>229.416046934862</v>
       </c>
       <c r="N24" t="n">
-        <v>680.0057497502855</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O24" t="n">
         <v>554.9858674269929</v>
@@ -36457,7 +36457,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>69.75863319471271</v>
+        <v>69.75863319471274</v>
       </c>
       <c r="K25" t="n">
-        <v>189.5230908296229</v>
+        <v>189.523090829623</v>
       </c>
       <c r="L25" t="n">
-        <v>274.1544699257932</v>
+        <v>274.1544699257933</v>
       </c>
       <c r="M25" t="n">
         <v>294.797506106015</v>
@@ -36530,13 +36530,13 @@
         <v>295.3568637998194</v>
       </c>
       <c r="O25" t="n">
-        <v>263.3079047619351</v>
+        <v>263.3079047619352</v>
       </c>
       <c r="P25" t="n">
-        <v>214.1691989134672</v>
+        <v>214.1691989134673</v>
       </c>
       <c r="Q25" t="n">
-        <v>90.90732297583514</v>
+        <v>90.90732297583517</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>15.92129162592693</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K27" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L27" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M27" t="n">
-        <v>647.0155045122269</v>
+        <v>229.4160469348618</v>
       </c>
       <c r="N27" t="n">
-        <v>680.0057497502855</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O27" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P27" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>62.30614753018412</v>
+        <v>62.30614753018409</v>
       </c>
       <c r="K28" t="n">
         <v>182.0706051650943</v>
@@ -36761,7 +36761,7 @@
         <v>266.7019842612646</v>
       </c>
       <c r="M28" t="n">
-        <v>287.3450204414864</v>
+        <v>287.3450204414863</v>
       </c>
       <c r="N28" t="n">
         <v>287.9043781352908</v>
@@ -36773,7 +36773,7 @@
         <v>206.7167132489386</v>
       </c>
       <c r="Q28" t="n">
-        <v>83.45483731130655</v>
+        <v>83.45483731130652</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>68.29886828944898</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K30" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L30" t="n">
-        <v>138.615755571408</v>
+        <v>324.8393568706153</v>
       </c>
       <c r="M30" t="n">
         <v>647.0155045122269</v>
@@ -36925,13 +36925,13 @@
         <v>680.0057497502855</v>
       </c>
       <c r="O30" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P30" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>62.30614753018411</v>
+        <v>62.30614753018412</v>
       </c>
       <c r="K31" t="n">
         <v>182.0706051650943</v>
@@ -37010,7 +37010,7 @@
         <v>206.7167132489386</v>
       </c>
       <c r="Q31" t="n">
-        <v>83.45483731130653</v>
+        <v>83.45483731130655</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>433.6515619588832</v>
       </c>
       <c r="Q32" t="n">
-        <v>247.6524856312129</v>
+        <v>133.5954659720677</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K33" t="n">
-        <v>84.21201855861082</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L33" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M33" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N33" t="n">
-        <v>680.0057497502855</v>
+        <v>248.768981579367</v>
       </c>
       <c r="O33" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P33" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>62.30614753018415</v>
+        <v>69.75863319471271</v>
       </c>
       <c r="K34" t="n">
-        <v>182.0706051650944</v>
+        <v>189.5230908296229</v>
       </c>
       <c r="L34" t="n">
-        <v>266.7019842612647</v>
+        <v>274.1544699257932</v>
       </c>
       <c r="M34" t="n">
-        <v>287.3450204414864</v>
+        <v>294.797506106015</v>
       </c>
       <c r="N34" t="n">
-        <v>287.9043781352908</v>
+        <v>295.3568637998194</v>
       </c>
       <c r="O34" t="n">
-        <v>255.8554190974066</v>
+        <v>263.3079047619351</v>
       </c>
       <c r="P34" t="n">
-        <v>206.7167132489386</v>
+        <v>214.1691989134672</v>
       </c>
       <c r="Q34" t="n">
-        <v>83.45483731130658</v>
+        <v>90.90732297583514</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>558.3972305517163</v>
       </c>
       <c r="M35" t="n">
-        <v>638.0987989730423</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N35" t="n">
         <v>633.6441091513602</v>
@@ -37323,7 +37323,7 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P35" t="n">
-        <v>433.6515619588832</v>
+        <v>319.5945422997376</v>
       </c>
       <c r="Q35" t="n">
         <v>247.6524856312129</v>
@@ -37384,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K36" t="n">
-        <v>320.3746267630133</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L36" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M36" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N36" t="n">
         <v>680.0057497502855</v>
@@ -37405,7 +37405,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q36" t="n">
-        <v>233.0438950105733</v>
+        <v>195.6694461163843</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>62.30614753018411</v>
+        <v>69.75863319471273</v>
       </c>
       <c r="K37" t="n">
-        <v>182.0706051650943</v>
+        <v>189.523090829623</v>
       </c>
       <c r="L37" t="n">
-        <v>266.7019842612646</v>
+        <v>274.1544699257933</v>
       </c>
       <c r="M37" t="n">
-        <v>287.3450204414864</v>
+        <v>294.797506106015</v>
       </c>
       <c r="N37" t="n">
-        <v>287.9043781352908</v>
+        <v>295.3568637998194</v>
       </c>
       <c r="O37" t="n">
-        <v>255.8554190974065</v>
+        <v>263.3079047619351</v>
       </c>
       <c r="P37" t="n">
-        <v>206.7167132489386</v>
+        <v>214.1691989134672</v>
       </c>
       <c r="Q37" t="n">
-        <v>83.45483731130653</v>
+        <v>90.90732297583516</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>558.3972305517163</v>
       </c>
       <c r="M38" t="n">
-        <v>638.0987989730422</v>
+        <v>524.0417793138963</v>
       </c>
       <c r="N38" t="n">
         <v>633.6441091513602</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K39" t="n">
         <v>68.29072693268387</v>
       </c>
       <c r="L39" t="n">
-        <v>206.914623860857</v>
+        <v>195.4422746064647</v>
       </c>
       <c r="M39" t="n">
         <v>647.0155045122269</v>
@@ -37639,10 +37639,10 @@
         <v>554.9858674269929</v>
       </c>
       <c r="P39" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>62.30614753018411</v>
+        <v>69.75863319471273</v>
       </c>
       <c r="K40" t="n">
-        <v>182.0706051650943</v>
+        <v>189.523090829623</v>
       </c>
       <c r="L40" t="n">
-        <v>266.7019842612646</v>
+        <v>274.1544699257933</v>
       </c>
       <c r="M40" t="n">
-        <v>287.3450204414864</v>
+        <v>294.797506106015</v>
       </c>
       <c r="N40" t="n">
-        <v>287.9043781352908</v>
+        <v>295.3568637998194</v>
       </c>
       <c r="O40" t="n">
-        <v>255.8554190974065</v>
+        <v>263.3079047619351</v>
       </c>
       <c r="P40" t="n">
-        <v>206.7167132489386</v>
+        <v>214.1691989134672</v>
       </c>
       <c r="Q40" t="n">
-        <v>83.45483731130653</v>
+        <v>90.90732297583516</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>433.6515619588832</v>
       </c>
       <c r="Q41" t="n">
-        <v>247.652485631213</v>
+        <v>133.5954659720673</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37861,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L42" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M42" t="n">
-        <v>450.8491357890973</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N42" t="n">
-        <v>680.0057497502855</v>
+        <v>377.4642727362754</v>
       </c>
       <c r="O42" t="n">
         <v>554.9858674269929</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>62.30614753018413</v>
+        <v>69.75863319471274</v>
       </c>
       <c r="K43" t="n">
-        <v>182.0706051650943</v>
+        <v>189.523090829623</v>
       </c>
       <c r="L43" t="n">
-        <v>266.7019842612646</v>
+        <v>274.1544699257933</v>
       </c>
       <c r="M43" t="n">
-        <v>287.3450204414864</v>
+        <v>294.797506106015</v>
       </c>
       <c r="N43" t="n">
-        <v>287.9043781352908</v>
+        <v>295.3568637998194</v>
       </c>
       <c r="O43" t="n">
-        <v>255.8554190974065</v>
+        <v>263.3079047619352</v>
       </c>
       <c r="P43" t="n">
-        <v>206.7167132489386</v>
+        <v>214.1691989134673</v>
       </c>
       <c r="Q43" t="n">
-        <v>83.45483731130656</v>
+        <v>90.90732297583517</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.5453525391276</v>
+        <v>76.48833287998174</v>
       </c>
       <c r="K44" t="n">
         <v>407.5425384040863</v>
@@ -38037,7 +38037,7 @@
         <v>433.6515619588832</v>
       </c>
       <c r="Q44" t="n">
-        <v>247.652485631213</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M45" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N45" t="n">
-        <v>200.663375406732</v>
+        <v>680.0057497502855</v>
       </c>
       <c r="O45" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P45" t="n">
-        <v>340.5859315097288</v>
+        <v>326.9486209161752</v>
       </c>
       <c r="Q45" t="n">
         <v>22.96660727472423</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>62.30614753018413</v>
+        <v>69.75863319471271</v>
       </c>
       <c r="K46" t="n">
-        <v>182.0706051650943</v>
+        <v>189.5230908296229</v>
       </c>
       <c r="L46" t="n">
-        <v>266.7019842612646</v>
+        <v>274.1544699257932</v>
       </c>
       <c r="M46" t="n">
-        <v>287.3450204414864</v>
+        <v>294.797506106015</v>
       </c>
       <c r="N46" t="n">
-        <v>287.9043781352908</v>
+        <v>295.3568637998194</v>
       </c>
       <c r="O46" t="n">
-        <v>255.8554190974065</v>
+        <v>263.3079047619351</v>
       </c>
       <c r="P46" t="n">
-        <v>206.7167132489386</v>
+        <v>214.1691989134672</v>
       </c>
       <c r="Q46" t="n">
-        <v>83.45483731130656</v>
+        <v>90.90732297583514</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_9_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_9_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3559096.620790108</v>
+        <v>3559184.775293468</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2206753.760730269</v>
+        <v>2186487.330620789</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21320.78642770728</v>
+        <v>31981.1796415609</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8126087.291504814</v>
+        <v>8125032.479359864</v>
       </c>
     </row>
     <row r="11">
@@ -706,13 +706,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U2" t="n">
         <v>38.88501798484931</v>
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>38.12502610536668</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>44.13217237922859</v>
@@ -785,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>38.12502610536668</v>
       </c>
       <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -819,49 +819,49 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="E4" t="n">
+      <c r="I4" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="F4" t="n">
+      <c r="J4" t="n">
+        <v>0.790450447682262</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>44.13217237922859</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>28.88091821707973</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
+        <v>38.88501798484931</v>
+      </c>
+      <c r="S5" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -989,13 +989,13 @@
         <v>44.13217237922859</v>
       </c>
       <c r="G6" t="n">
+        <v>44.13217237922859</v>
+      </c>
+      <c r="H6" t="n">
         <v>38.12502610536669</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1068,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>19.9316902659215</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>19.93169026592149</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1138,13 +1138,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>91.40355940012341</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>91.40355940012341</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>43.26552903533638</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>93.4164463478195</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1180,13 +1180,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>93.4164463478195</v>
+        <v>91.40355940012341</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>93.4164463478195</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>38.16243411715564</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1217,19 +1217,19 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>81.53461461690151</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>93.4164463478195</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>93.4164463478195</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>93.4164463478195</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>91.40355940012341</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>91.40355940012341</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>91.40355940012341</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>79.76166379337087</v>
       </c>
     </row>
     <row r="10">
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>19.51391635936175</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1305,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>93.4164463478195</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>14.77958867655917</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>91.40355940012341</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>295.2793665869989</v>
       </c>
       <c r="C11" t="n">
-        <v>277.8184166945258</v>
+        <v>277.8184166945259</v>
       </c>
       <c r="D11" t="n">
         <v>267.2285665442013</v>
@@ -1384,13 +1384,13 @@
         <v>319.4215706652298</v>
       </c>
       <c r="G11" t="n">
-        <v>325.462428869455</v>
+        <v>325.4624288694551</v>
       </c>
       <c r="H11" t="n">
-        <v>227.5864089987338</v>
+        <v>227.5864089987337</v>
       </c>
       <c r="I11" t="n">
-        <v>31.04156581740858</v>
+        <v>31.04156581740861</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>67.19841205165847</v>
+        <v>67.19841205165849</v>
       </c>
       <c r="T11" t="n">
         <v>125.1973880384843</v>
@@ -1438,7 +1438,7 @@
         <v>282.2766256019873</v>
       </c>
       <c r="Y11" t="n">
-        <v>298.7834635795718</v>
+        <v>298.7834635795719</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>92.37750510545558</v>
+        <v>92.37750510545561</v>
       </c>
       <c r="C13" t="n">
-        <v>79.79234602214612</v>
+        <v>79.79234602214615</v>
       </c>
       <c r="D13" t="n">
-        <v>61.16099794173064</v>
+        <v>61.16099794173067</v>
       </c>
       <c r="E13" t="n">
-        <v>58.97948757008746</v>
+        <v>58.97948757008749</v>
       </c>
       <c r="F13" t="n">
-        <v>57.96657294644953</v>
+        <v>57.96657294644956</v>
       </c>
       <c r="G13" t="n">
-        <v>79.46630147808874</v>
+        <v>79.46630147808877</v>
       </c>
       <c r="H13" t="n">
-        <v>65.25762159275085</v>
+        <v>65.25762159275064</v>
       </c>
       <c r="I13" t="n">
-        <v>35.81208280293593</v>
+        <v>35.81208280293529</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.7187065913096</v>
+        <v>41.71870659130963</v>
       </c>
       <c r="S13" t="n">
-        <v>117.9114068236369</v>
+        <v>117.911406823637</v>
       </c>
       <c r="T13" t="n">
         <v>135.918429644277</v>
@@ -1593,7 +1593,7 @@
         <v>199.0685232601093</v>
       </c>
       <c r="X13" t="n">
-        <v>138.2551803125554</v>
+        <v>138.2551803125555</v>
       </c>
       <c r="Y13" t="n">
         <v>131.1301782756131</v>
@@ -1609,7 +1609,7 @@
         <v>295.2793665869989</v>
       </c>
       <c r="C14" t="n">
-        <v>277.8184166945258</v>
+        <v>277.8184166945259</v>
       </c>
       <c r="D14" t="n">
         <v>267.2285665442013</v>
@@ -1624,10 +1624,10 @@
         <v>325.4624288694551</v>
       </c>
       <c r="H14" t="n">
-        <v>227.5864089987338</v>
+        <v>227.5864089987339</v>
       </c>
       <c r="I14" t="n">
-        <v>31.04156581740858</v>
+        <v>31.04156581740861</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>67.19841205165847</v>
+        <v>67.19841205165849</v>
       </c>
       <c r="T14" t="n">
         <v>125.1973880384843</v>
@@ -1669,13 +1669,13 @@
         <v>240.2977833936532</v>
       </c>
       <c r="W14" t="n">
-        <v>261.7864936409314</v>
+        <v>261.7864936409313</v>
       </c>
       <c r="X14" t="n">
         <v>282.2766256019873</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.7834635795718</v>
+        <v>298.7834635795719</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>92.37750510545558</v>
+        <v>92.37750510545561</v>
       </c>
       <c r="C16" t="n">
-        <v>79.79234602214612</v>
+        <v>79.79234602214615</v>
       </c>
       <c r="D16" t="n">
-        <v>61.16099794173064</v>
+        <v>61.16099794173067</v>
       </c>
       <c r="E16" t="n">
-        <v>58.97948757008746</v>
+        <v>58.97948757008749</v>
       </c>
       <c r="F16" t="n">
-        <v>57.96657294644953</v>
+        <v>57.96657294644956</v>
       </c>
       <c r="G16" t="n">
-        <v>79.46630147808874</v>
+        <v>79.46630147808877</v>
       </c>
       <c r="H16" t="n">
-        <v>65.25762159275152</v>
+        <v>65.25762159275088</v>
       </c>
       <c r="I16" t="n">
-        <v>35.81208280293527</v>
+        <v>35.81208280293529</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.7187065913096</v>
+        <v>41.71870659130935</v>
       </c>
       <c r="S16" t="n">
-        <v>117.9114068236369</v>
+        <v>117.911406823637</v>
       </c>
       <c r="T16" t="n">
         <v>135.918429644277</v>
@@ -1830,7 +1830,7 @@
         <v>199.0685232601093</v>
       </c>
       <c r="X16" t="n">
-        <v>138.2551803125554</v>
+        <v>138.2551803125555</v>
       </c>
       <c r="Y16" t="n">
         <v>131.1301782756131</v>
@@ -1846,7 +1846,7 @@
         <v>295.2793665869989</v>
       </c>
       <c r="C17" t="n">
-        <v>277.8184166945258</v>
+        <v>277.8184166945259</v>
       </c>
       <c r="D17" t="n">
         <v>267.2285665442013</v>
@@ -1858,13 +1858,13 @@
         <v>319.4215706652298</v>
       </c>
       <c r="G17" t="n">
-        <v>325.462428869455</v>
+        <v>325.4624288694551</v>
       </c>
       <c r="H17" t="n">
-        <v>227.5864089987338</v>
+        <v>227.5864089987339</v>
       </c>
       <c r="I17" t="n">
-        <v>31.04156581740858</v>
+        <v>31.04156581740861</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>67.19841205165847</v>
+        <v>67.19841205165849</v>
       </c>
       <c r="T17" t="n">
         <v>125.1973880384843</v>
@@ -1912,7 +1912,7 @@
         <v>282.2766256019873</v>
       </c>
       <c r="Y17" t="n">
-        <v>298.7834635795718</v>
+        <v>298.7834635795719</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>92.37750510545558</v>
+        <v>92.37750510545561</v>
       </c>
       <c r="C19" t="n">
-        <v>79.79234602214612</v>
+        <v>79.79234602214615</v>
       </c>
       <c r="D19" t="n">
-        <v>61.16099794173064</v>
+        <v>61.16099794173067</v>
       </c>
       <c r="E19" t="n">
-        <v>58.97948757008746</v>
+        <v>58.97948757008749</v>
       </c>
       <c r="F19" t="n">
-        <v>57.96657294644953</v>
+        <v>57.96657294644956</v>
       </c>
       <c r="G19" t="n">
-        <v>79.46630147808874</v>
+        <v>79.46630147808877</v>
       </c>
       <c r="H19" t="n">
-        <v>65.25762159275152</v>
+        <v>65.25762159275064</v>
       </c>
       <c r="I19" t="n">
-        <v>35.81208280293527</v>
+        <v>35.81208280293529</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.7187065913096</v>
+        <v>41.71870659130963</v>
       </c>
       <c r="S19" t="n">
-        <v>117.9114068236369</v>
+        <v>117.911406823637</v>
       </c>
       <c r="T19" t="n">
         <v>135.918429644277</v>
@@ -2067,7 +2067,7 @@
         <v>199.0685232601093</v>
       </c>
       <c r="X19" t="n">
-        <v>138.2551803125554</v>
+        <v>138.2551803125555</v>
       </c>
       <c r="Y19" t="n">
         <v>131.1301782756131</v>
@@ -2083,7 +2083,7 @@
         <v>295.2793665869989</v>
       </c>
       <c r="C20" t="n">
-        <v>277.8184166945258</v>
+        <v>277.8184166945257</v>
       </c>
       <c r="D20" t="n">
         <v>267.2285665442013</v>
@@ -2098,10 +2098,10 @@
         <v>325.4624288694551</v>
       </c>
       <c r="H20" t="n">
-        <v>227.5864089987338</v>
+        <v>227.5864089987339</v>
       </c>
       <c r="I20" t="n">
-        <v>31.04156581740872</v>
+        <v>31.04156581740861</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>67.19841205165847</v>
+        <v>67.19841205165849</v>
       </c>
       <c r="T20" t="n">
         <v>125.1973880384843</v>
@@ -2149,7 +2149,7 @@
         <v>282.2766256019873</v>
       </c>
       <c r="Y20" t="n">
-        <v>298.7834635795718</v>
+        <v>298.7834635795719</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>92.37750510545558</v>
+        <v>92.37750510545561</v>
       </c>
       <c r="C22" t="n">
-        <v>79.79234602214612</v>
+        <v>79.79234602214615</v>
       </c>
       <c r="D22" t="n">
-        <v>61.16099794173064</v>
+        <v>61.16099794173067</v>
       </c>
       <c r="E22" t="n">
-        <v>58.97948757008746</v>
+        <v>58.97948757008749</v>
       </c>
       <c r="F22" t="n">
-        <v>57.96657294644953</v>
+        <v>57.96657294644956</v>
       </c>
       <c r="G22" t="n">
-        <v>79.46630147808874</v>
+        <v>79.46630147808875</v>
       </c>
       <c r="H22" t="n">
-        <v>65.25762159275085</v>
+        <v>65.25762159275087</v>
       </c>
       <c r="I22" t="n">
-        <v>35.81208280293527</v>
+        <v>35.81208280293529</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.71870659131002</v>
+        <v>41.71870659130963</v>
       </c>
       <c r="S22" t="n">
-        <v>117.9114068236369</v>
+        <v>117.911406823637</v>
       </c>
       <c r="T22" t="n">
         <v>135.918429644277</v>
@@ -2304,7 +2304,7 @@
         <v>199.0685232601093</v>
       </c>
       <c r="X22" t="n">
-        <v>138.2551803125554</v>
+        <v>138.2551803125555</v>
       </c>
       <c r="Y22" t="n">
         <v>131.1301782756131</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>295.2793665869988</v>
+        <v>295.2793665869989</v>
       </c>
       <c r="C23" t="n">
-        <v>277.8184166945261</v>
+        <v>277.8184166945259</v>
       </c>
       <c r="D23" t="n">
-        <v>267.2285665442012</v>
+        <v>267.2285665442013</v>
       </c>
       <c r="E23" t="n">
-        <v>294.47589499578</v>
+        <v>294.4758949957801</v>
       </c>
       <c r="F23" t="n">
-        <v>319.4215706652297</v>
+        <v>319.4215706652298</v>
       </c>
       <c r="G23" t="n">
-        <v>325.462428869455</v>
+        <v>325.4624288694551</v>
       </c>
       <c r="H23" t="n">
-        <v>227.5864089987338</v>
+        <v>227.5864089987339</v>
       </c>
       <c r="I23" t="n">
-        <v>31.04156581740857</v>
+        <v>31.04156581740846</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>67.19841205165844</v>
+        <v>67.19841205165849</v>
       </c>
       <c r="T23" t="n">
         <v>125.1973880384843</v>
@@ -2386,7 +2386,7 @@
         <v>282.2766256019873</v>
       </c>
       <c r="Y23" t="n">
-        <v>298.7834635795718</v>
+        <v>298.7834635795719</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>92.37750510545557</v>
+        <v>92.37750510545561</v>
       </c>
       <c r="C25" t="n">
-        <v>79.79234602214611</v>
+        <v>79.79234602214615</v>
       </c>
       <c r="D25" t="n">
-        <v>61.16099794173063</v>
+        <v>61.16099794173067</v>
       </c>
       <c r="E25" t="n">
-        <v>58.97948757008744</v>
+        <v>58.97948757008749</v>
       </c>
       <c r="F25" t="n">
-        <v>57.96657294644952</v>
+        <v>57.96657294644956</v>
       </c>
       <c r="G25" t="n">
-        <v>79.46630147808871</v>
+        <v>79.46630147808877</v>
       </c>
       <c r="H25" t="n">
-        <v>65.25762159275082</v>
+        <v>65.25762159275088</v>
       </c>
       <c r="I25" t="n">
-        <v>35.81208280293525</v>
+        <v>35.81208280293506</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.71870659130958</v>
+        <v>41.71870659130963</v>
       </c>
       <c r="S25" t="n">
-        <v>117.9114068236369</v>
+        <v>117.911406823637</v>
       </c>
       <c r="T25" t="n">
         <v>135.918429644277</v>
@@ -2541,10 +2541,10 @@
         <v>199.0685232601093</v>
       </c>
       <c r="X25" t="n">
-        <v>138.2551803125554</v>
+        <v>138.2551803125555</v>
       </c>
       <c r="Y25" t="n">
-        <v>131.130178275613</v>
+        <v>131.1301782756131</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>302.7318522515275</v>
       </c>
       <c r="C26" t="n">
-        <v>285.2709023590545</v>
+        <v>285.2709023590544</v>
       </c>
       <c r="D26" t="n">
         <v>274.6810522087299</v>
@@ -2575,7 +2575,7 @@
         <v>235.0388946632625</v>
       </c>
       <c r="I26" t="n">
-        <v>38.49405148193722</v>
+        <v>38.49405148193719</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>74.6508977161871</v>
+        <v>74.65089771618734</v>
       </c>
       <c r="T26" t="n">
         <v>132.6498737030129</v>
       </c>
       <c r="U26" t="n">
-        <v>171.1527968103476</v>
+        <v>171.1527968103475</v>
       </c>
       <c r="V26" t="n">
         <v>247.7502690581818</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>99.82999076998422</v>
+        <v>99.82999076998421</v>
       </c>
       <c r="C28" t="n">
-        <v>87.24483168667476</v>
+        <v>87.24483168667474</v>
       </c>
       <c r="D28" t="n">
-        <v>68.61348360625928</v>
+        <v>68.61348360625927</v>
       </c>
       <c r="E28" t="n">
-        <v>66.43197323461609</v>
+        <v>66.43197323461608</v>
       </c>
       <c r="F28" t="n">
-        <v>65.41905861097817</v>
+        <v>65.41905861097815</v>
       </c>
       <c r="G28" t="n">
-        <v>86.91878714261738</v>
+        <v>86.91878714261736</v>
       </c>
       <c r="H28" t="n">
-        <v>72.71010725727949</v>
+        <v>72.71010725727947</v>
       </c>
       <c r="I28" t="n">
-        <v>43.2645684674639</v>
+        <v>43.26456846746389</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>49.17119225583822</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>125.3638924881655</v>
       </c>
       <c r="T28" t="n">
         <v>143.3709153088056</v>
@@ -2778,10 +2778,10 @@
         <v>206.5210089246379</v>
       </c>
       <c r="X28" t="n">
-        <v>145.7076659770841</v>
+        <v>106.6171096863318</v>
       </c>
       <c r="Y28" t="n">
-        <v>135.4445284532513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>235.0388946632625</v>
       </c>
       <c r="I29" t="n">
-        <v>38.49405148193719</v>
+        <v>38.49405148193721</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>74.65089771618707</v>
+        <v>74.65089771618709</v>
       </c>
       <c r="T29" t="n">
         <v>132.6498737030129</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.82999076998419</v>
+        <v>99.82999076998421</v>
       </c>
       <c r="C31" t="n">
-        <v>25.1747769462352</v>
+        <v>87.24483168667474</v>
       </c>
       <c r="D31" t="n">
-        <v>68.61348360625925</v>
+        <v>68.61348360625927</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>66.43197323461608</v>
       </c>
       <c r="F31" t="n">
-        <v>65.41905861097814</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>86.91878714261735</v>
+        <v>86.91878714261736</v>
       </c>
       <c r="H31" t="n">
-        <v>72.71010725727946</v>
+        <v>52.89170636066591</v>
       </c>
       <c r="I31" t="n">
-        <v>43.26456846746387</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>295.2793665869989</v>
+        <v>302.7318522515275</v>
       </c>
       <c r="C32" t="n">
-        <v>277.8184166945259</v>
+        <v>285.2709023590544</v>
       </c>
       <c r="D32" t="n">
-        <v>267.2285665442013</v>
+        <v>274.6810522087299</v>
       </c>
       <c r="E32" t="n">
-        <v>294.4758949957801</v>
+        <v>301.9283806603087</v>
       </c>
       <c r="F32" t="n">
-        <v>319.4215706652298</v>
+        <v>326.8740563297583</v>
       </c>
       <c r="G32" t="n">
-        <v>325.4624288694551</v>
+        <v>332.9149145339837</v>
       </c>
       <c r="H32" t="n">
-        <v>227.5864089987339</v>
+        <v>235.0388946632625</v>
       </c>
       <c r="I32" t="n">
-        <v>31.0415658174086</v>
+        <v>38.49405148193721</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.19841205165848</v>
+        <v>74.65089771618709</v>
       </c>
       <c r="T32" t="n">
-        <v>125.1973880384843</v>
+        <v>132.6498737030129</v>
       </c>
       <c r="U32" t="n">
-        <v>163.7003111458189</v>
+        <v>171.1527968103475</v>
       </c>
       <c r="V32" t="n">
-        <v>240.2977833936532</v>
+        <v>247.7502690581818</v>
       </c>
       <c r="W32" t="n">
-        <v>261.7864936409313</v>
+        <v>269.2389793054599</v>
       </c>
       <c r="X32" t="n">
-        <v>282.2766256019873</v>
+        <v>289.7291112665159</v>
       </c>
       <c r="Y32" t="n">
-        <v>298.7834635795719</v>
+        <v>306.2359492441005</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>92.3775051054556</v>
+        <v>99.82999076998421</v>
       </c>
       <c r="C34" t="n">
-        <v>79.79234602214613</v>
+        <v>87.24483168667474</v>
       </c>
       <c r="D34" t="n">
-        <v>61.16099794173066</v>
+        <v>68.61348360625927</v>
       </c>
       <c r="E34" t="n">
-        <v>58.97948757008747</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>57.96657294644955</v>
+        <v>65.41905861097815</v>
       </c>
       <c r="G34" t="n">
-        <v>79.46630147808874</v>
+        <v>86.91878714261736</v>
       </c>
       <c r="H34" t="n">
-        <v>65.25762159275085</v>
+        <v>53.9046209843038</v>
       </c>
       <c r="I34" t="n">
-        <v>35.81208280293528</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.71870659130961</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>117.9114068236369</v>
+        <v>125.3638924881655</v>
       </c>
       <c r="T34" t="n">
-        <v>135.918429644277</v>
+        <v>143.3709153088056</v>
       </c>
       <c r="U34" t="n">
-        <v>198.8061795816153</v>
+        <v>206.2586652461439</v>
       </c>
       <c r="V34" t="n">
-        <v>164.6831682473463</v>
+        <v>172.1356539118749</v>
       </c>
       <c r="W34" t="n">
-        <v>199.0685232601093</v>
+        <v>206.5210089246379</v>
       </c>
       <c r="X34" t="n">
-        <v>138.2551803125555</v>
+        <v>145.707665977084</v>
       </c>
       <c r="Y34" t="n">
-        <v>131.1301782756131</v>
+        <v>138.5826639401417</v>
       </c>
     </row>
     <row r="35">
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>295.2793665869989</v>
+        <v>295.2793665869988</v>
       </c>
       <c r="C35" t="n">
         <v>277.8184166945258</v>
       </c>
       <c r="D35" t="n">
-        <v>267.2285665442013</v>
+        <v>267.2285665442012</v>
       </c>
       <c r="E35" t="n">
-        <v>294.4758949957801</v>
+        <v>294.47589499578</v>
       </c>
       <c r="F35" t="n">
-        <v>319.4215706652298</v>
+        <v>319.4215706652296</v>
       </c>
       <c r="G35" t="n">
         <v>325.462428869455</v>
@@ -3286,7 +3286,7 @@
         <v>227.5864089987338</v>
       </c>
       <c r="I35" t="n">
-        <v>31.04156581740858</v>
+        <v>31.04156581740853</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>67.19841205165847</v>
+        <v>67.19841205165841</v>
       </c>
       <c r="T35" t="n">
-        <v>125.1973880384843</v>
+        <v>125.1973880384842</v>
       </c>
       <c r="U35" t="n">
         <v>163.7003111458189</v>
       </c>
       <c r="V35" t="n">
-        <v>240.2977833936532</v>
+        <v>240.2977833936531</v>
       </c>
       <c r="W35" t="n">
-        <v>261.7864936409313</v>
+        <v>261.7864936409312</v>
       </c>
       <c r="X35" t="n">
-        <v>282.2766256019873</v>
+        <v>282.2766256019872</v>
       </c>
       <c r="Y35" t="n">
         <v>298.7834635795718</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>92.37750510545558</v>
+        <v>92.37750510545553</v>
       </c>
       <c r="C37" t="n">
-        <v>79.79234602214612</v>
+        <v>79.79234602214606</v>
       </c>
       <c r="D37" t="n">
-        <v>61.16099794173064</v>
+        <v>61.16099794173059</v>
       </c>
       <c r="E37" t="n">
-        <v>58.97948757008746</v>
+        <v>58.9794875700874</v>
       </c>
       <c r="F37" t="n">
-        <v>57.96657294644953</v>
+        <v>57.96657294644947</v>
       </c>
       <c r="G37" t="n">
-        <v>79.46630147808872</v>
+        <v>79.46630147808868</v>
       </c>
       <c r="H37" t="n">
-        <v>65.25762159275084</v>
+        <v>65.25762159275079</v>
       </c>
       <c r="I37" t="n">
-        <v>35.81208280293527</v>
+        <v>35.81208280293666</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.7187065913096</v>
+        <v>41.71870659130954</v>
       </c>
       <c r="S37" t="n">
         <v>117.9114068236369</v>
       </c>
       <c r="T37" t="n">
-        <v>135.918429644277</v>
+        <v>135.9184296442769</v>
       </c>
       <c r="U37" t="n">
-        <v>198.8061795816153</v>
+        <v>198.8061795816152</v>
       </c>
       <c r="V37" t="n">
-        <v>164.6831682473463</v>
+        <v>164.6831682473462</v>
       </c>
       <c r="W37" t="n">
-        <v>199.0685232601093</v>
+        <v>199.0685232601092</v>
       </c>
       <c r="X37" t="n">
         <v>138.2551803125554</v>
       </c>
       <c r="Y37" t="n">
-        <v>131.1301782756131</v>
+        <v>131.130178275613</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>295.2793665869989</v>
       </c>
       <c r="C38" t="n">
-        <v>277.8184166945258</v>
+        <v>277.8184166945259</v>
       </c>
       <c r="D38" t="n">
         <v>267.2285665442013</v>
@@ -3520,10 +3520,10 @@
         <v>325.4624288694551</v>
       </c>
       <c r="H38" t="n">
-        <v>227.5864089987338</v>
+        <v>227.5864089987339</v>
       </c>
       <c r="I38" t="n">
-        <v>31.04156581740872</v>
+        <v>31.0415658174086</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>67.19841205165847</v>
+        <v>67.19841205165848</v>
       </c>
       <c r="T38" t="n">
         <v>125.1973880384843</v>
@@ -3571,7 +3571,7 @@
         <v>282.2766256019873</v>
       </c>
       <c r="Y38" t="n">
-        <v>298.7834635795718</v>
+        <v>298.7834635795719</v>
       </c>
     </row>
     <row r="39">
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>92.37750510545631</v>
+        <v>92.3775051054556</v>
       </c>
       <c r="C40" t="n">
-        <v>79.79234602214612</v>
+        <v>79.79234602214613</v>
       </c>
       <c r="D40" t="n">
-        <v>61.16099794173064</v>
+        <v>61.16099794173066</v>
       </c>
       <c r="E40" t="n">
-        <v>58.97948757008746</v>
+        <v>58.97948757008747</v>
       </c>
       <c r="F40" t="n">
-        <v>57.96657294644953</v>
+        <v>57.96657294644955</v>
       </c>
       <c r="G40" t="n">
         <v>79.46630147808874</v>
@@ -3681,7 +3681,7 @@
         <v>65.25762159275085</v>
       </c>
       <c r="I40" t="n">
-        <v>35.81208280293527</v>
+        <v>35.81208280293528</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.7187065913096</v>
+        <v>41.71870659130961</v>
       </c>
       <c r="S40" t="n">
         <v>117.9114068236369</v>
@@ -3726,7 +3726,7 @@
         <v>199.0685232601093</v>
       </c>
       <c r="X40" t="n">
-        <v>138.2551803125554</v>
+        <v>138.2551803125555</v>
       </c>
       <c r="Y40" t="n">
         <v>131.1301782756131</v>
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>295.2793665869988</v>
+        <v>295.2793665869989</v>
       </c>
       <c r="C41" t="n">
         <v>277.8184166945258</v>
       </c>
       <c r="D41" t="n">
-        <v>267.2285665442012</v>
+        <v>267.2285665442013</v>
       </c>
       <c r="E41" t="n">
-        <v>294.47589499578</v>
+        <v>294.4758949957801</v>
       </c>
       <c r="F41" t="n">
-        <v>319.4215706652297</v>
+        <v>319.4215706652298</v>
       </c>
       <c r="G41" t="n">
         <v>325.462428869455</v>
@@ -3760,7 +3760,7 @@
         <v>227.5864089987338</v>
       </c>
       <c r="I41" t="n">
-        <v>31.04156581740857</v>
+        <v>31.04156581740858</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>67.19841205165845</v>
+        <v>67.19841205165847</v>
       </c>
       <c r="T41" t="n">
         <v>125.1973880384843</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>92.37750510545557</v>
+        <v>92.37750510545558</v>
       </c>
       <c r="C43" t="n">
-        <v>79.79234602214611</v>
+        <v>79.79234602214612</v>
       </c>
       <c r="D43" t="n">
-        <v>61.16099794173063</v>
+        <v>61.16099794173126</v>
       </c>
       <c r="E43" t="n">
-        <v>58.97948757008744</v>
+        <v>58.97948757008746</v>
       </c>
       <c r="F43" t="n">
-        <v>57.96657294644952</v>
+        <v>57.96657294644953</v>
       </c>
       <c r="G43" t="n">
-        <v>79.46630147808872</v>
+        <v>79.46630147808874</v>
       </c>
       <c r="H43" t="n">
-        <v>65.25762159275179</v>
+        <v>65.25762159275085</v>
       </c>
       <c r="I43" t="n">
-        <v>35.81208280293525</v>
+        <v>35.81208280293527</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.71870659130958</v>
+        <v>41.7187065913096</v>
       </c>
       <c r="S43" t="n">
         <v>117.9114068236369</v>
@@ -3954,7 +3954,7 @@
         <v>135.918429644277</v>
       </c>
       <c r="U43" t="n">
-        <v>198.8061795816152</v>
+        <v>198.8061795816153</v>
       </c>
       <c r="V43" t="n">
         <v>164.6831682473463</v>
@@ -3966,7 +3966,7 @@
         <v>138.2551803125554</v>
       </c>
       <c r="Y43" t="n">
-        <v>131.130178275613</v>
+        <v>131.1301782756131</v>
       </c>
     </row>
     <row r="44">
@@ -3979,7 +3979,7 @@
         <v>295.2793665869989</v>
       </c>
       <c r="C44" t="n">
-        <v>277.8184166945259</v>
+        <v>277.8184166945258</v>
       </c>
       <c r="D44" t="n">
         <v>267.2285665442013</v>
@@ -3994,10 +3994,10 @@
         <v>325.4624288694551</v>
       </c>
       <c r="H44" t="n">
-        <v>227.5864089987339</v>
+        <v>227.5864089987338</v>
       </c>
       <c r="I44" t="n">
-        <v>31.0415658174086</v>
+        <v>31.04156581740858</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>67.19841205165847</v>
       </c>
       <c r="T44" t="n">
-        <v>125.197388038484</v>
+        <v>125.1973880384843</v>
       </c>
       <c r="U44" t="n">
         <v>163.7003111458189</v>
@@ -4045,7 +4045,7 @@
         <v>282.2766256019873</v>
       </c>
       <c r="Y44" t="n">
-        <v>298.7834635795719</v>
+        <v>298.7834635795718</v>
       </c>
     </row>
     <row r="45">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>92.3775051054556</v>
+        <v>92.37750510545558</v>
       </c>
       <c r="C46" t="n">
-        <v>79.79234602214613</v>
+        <v>79.79234602214612</v>
       </c>
       <c r="D46" t="n">
-        <v>61.16099794173066</v>
+        <v>61.16099794173064</v>
       </c>
       <c r="E46" t="n">
-        <v>58.97948757008747</v>
+        <v>58.97948757008746</v>
       </c>
       <c r="F46" t="n">
-        <v>57.96657294644944</v>
+        <v>57.9665729464502</v>
       </c>
       <c r="G46" t="n">
-        <v>79.46630147808875</v>
+        <v>79.46630147808874</v>
       </c>
       <c r="H46" t="n">
-        <v>65.25762159275087</v>
+        <v>65.25762159275085</v>
       </c>
       <c r="I46" t="n">
-        <v>35.81208280293528</v>
+        <v>35.81208280293527</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.71870659130961</v>
+        <v>41.7187065913096</v>
       </c>
       <c r="S46" t="n">
-        <v>117.911406823637</v>
+        <v>117.9114068236369</v>
       </c>
       <c r="T46" t="n">
         <v>135.918429644277</v>
@@ -4200,7 +4200,7 @@
         <v>199.0685232601093</v>
       </c>
       <c r="X46" t="n">
-        <v>138.2551803125555</v>
+        <v>138.2551803125554</v>
       </c>
       <c r="Y46" t="n">
         <v>131.1301782756131</v>
@@ -4333,10 +4333,10 @@
         <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>45.45613755060546</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L2" t="n">
-        <v>45.45613755060546</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M2" t="n">
         <v>45.45613755060546</v>
@@ -4354,10 +4354,10 @@
         <v>166.4370741486873</v>
       </c>
       <c r="R2" t="n">
+        <v>166.4370741486873</v>
+      </c>
+      <c r="S2" t="n">
         <v>121.8591222504766</v>
-      </c>
-      <c r="S2" t="n">
-        <v>77.28117035226589</v>
       </c>
       <c r="T2" t="n">
         <v>77.28117035226589</v>
@@ -4391,16 +4391,16 @@
         <v>93.44061023954541</v>
       </c>
       <c r="D3" t="n">
-        <v>93.44061023954541</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="E3" t="n">
-        <v>93.44061023954541</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="F3" t="n">
-        <v>93.44061023954541</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="G3" t="n">
-        <v>93.44061023954541</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="H3" t="n">
         <v>48.8626583413347</v>
@@ -4418,13 +4418,13 @@
         <v>47.22142444577459</v>
       </c>
       <c r="M3" t="n">
-        <v>89.14698820604177</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N3" t="n">
-        <v>89.14698820604177</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O3" t="n">
-        <v>132.8378388614781</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P3" t="n">
         <v>176.5286895169144</v>
@@ -4433,28 +4433,28 @@
         <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>176.5286895169144</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="S3" t="n">
-        <v>131.9507376187037</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="T3" t="n">
-        <v>131.9507376187037</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="U3" t="n">
-        <v>131.9507376187037</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="V3" t="n">
-        <v>131.9507376187037</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="W3" t="n">
-        <v>131.9507376187037</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="X3" t="n">
-        <v>131.9507376187037</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="Y3" t="n">
-        <v>131.9507376187037</v>
+        <v>93.44061023954541</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138.062864280609</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="C4" t="n">
-        <v>137.2644294849704</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="D4" t="n">
-        <v>92.68647758675968</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="E4" t="n">
-        <v>48.10852568854899</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="F4" t="n">
-        <v>3.530573790338288</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="G4" t="n">
-        <v>3.530573790338288</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="H4" t="n">
-        <v>3.530573790338288</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="I4" t="n">
-        <v>3.530573790338288</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="J4" t="n">
         <v>3.530573790338288</v>
@@ -4509,31 +4509,31 @@
         <v>138.062864280609</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.062864280609</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="R4" t="n">
-        <v>138.062864280609</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S4" t="n">
-        <v>138.062864280609</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T4" t="n">
-        <v>138.062864280609</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U4" t="n">
-        <v>138.062864280609</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="V4" t="n">
-        <v>138.062864280609</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="W4" t="n">
-        <v>138.062864280609</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="X4" t="n">
-        <v>138.062864280609</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="Y4" t="n">
-        <v>138.062864280609</v>
+        <v>93.48491238239833</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77.28117035226589</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="C5" t="n">
-        <v>77.28117035226589</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="D5" t="n">
-        <v>77.28117035226589</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="E5" t="n">
-        <v>77.28117035226589</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="F5" t="n">
-        <v>32.70321845405519</v>
+        <v>31.05787365877018</v>
       </c>
       <c r="G5" t="n">
-        <v>3.530573790338288</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="H5" t="n">
-        <v>3.530573790338288</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="I5" t="n">
-        <v>3.530573790338288</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J5" t="n">
         <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>47.22142444577459</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L5" t="n">
-        <v>90.91227510121089</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M5" t="n">
-        <v>90.91227510121089</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N5" t="n">
-        <v>134.6031257566472</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O5" t="n">
         <v>176.5286895169144</v>
@@ -4591,28 +4591,28 @@
         <v>166.4370741486873</v>
       </c>
       <c r="R5" t="n">
-        <v>121.8591222504766</v>
+        <v>127.1592782043951</v>
       </c>
       <c r="S5" t="n">
-        <v>121.8591222504766</v>
+        <v>82.58132630618435</v>
       </c>
       <c r="T5" t="n">
-        <v>121.8591222504766</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="U5" t="n">
-        <v>121.8591222504766</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="V5" t="n">
-        <v>121.8591222504766</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="W5" t="n">
-        <v>121.8591222504766</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="X5" t="n">
-        <v>121.8591222504766</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="Y5" t="n">
-        <v>77.28117035226589</v>
+        <v>38.00337440797365</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="C6" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="D6" t="n">
         <v>131.9507376187037</v>
@@ -4637,10 +4637,10 @@
         <v>87.37278572049297</v>
       </c>
       <c r="G6" t="n">
-        <v>48.8626583413347</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="H6" t="n">
-        <v>48.8626583413347</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="I6" t="n">
         <v>4.284706443124001</v>
@@ -4649,19 +4649,19 @@
         <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>47.22142444577459</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L6" t="n">
         <v>47.22142444577459</v>
       </c>
       <c r="M6" t="n">
-        <v>47.22142444577459</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N6" t="n">
-        <v>89.14698820604177</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O6" t="n">
-        <v>89.14698820604177</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P6" t="n">
         <v>132.8378388614781</v>
@@ -4673,25 +4673,25 @@
         <v>176.5286895169144</v>
       </c>
       <c r="S6" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T6" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U6" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V6" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W6" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X6" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y6" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>135.3139342451479</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="C7" t="n">
-        <v>135.3139342451479</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="D7" t="n">
-        <v>135.3139342451479</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="E7" t="n">
-        <v>135.3139342451479</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="F7" t="n">
-        <v>135.3139342451479</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="G7" t="n">
-        <v>90.73598234693722</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="H7" t="n">
-        <v>46.15803044872652</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="I7" t="n">
         <v>26.02500997809875</v>
@@ -4746,31 +4746,31 @@
         <v>135.3139342451479</v>
       </c>
       <c r="Q7" t="n">
-        <v>135.3139342451479</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="R7" t="n">
-        <v>135.3139342451479</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="S7" t="n">
-        <v>135.3139342451479</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="T7" t="n">
-        <v>135.3139342451479</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="U7" t="n">
-        <v>135.3139342451479</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="V7" t="n">
-        <v>135.3139342451479</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="W7" t="n">
-        <v>135.3139342451479</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="X7" t="n">
-        <v>135.3139342451479</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="Y7" t="n">
-        <v>135.3139342451479</v>
+        <v>26.02500997809875</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>136.3061631414402</v>
+        <v>263.1957945553743</v>
       </c>
       <c r="C8" t="n">
-        <v>136.3061631414402</v>
+        <v>263.1957945553743</v>
       </c>
       <c r="D8" t="n">
-        <v>136.3061631414402</v>
+        <v>170.868966878482</v>
       </c>
       <c r="E8" t="n">
-        <v>136.3061631414402</v>
+        <v>78.54213920158962</v>
       </c>
       <c r="F8" t="n">
-        <v>129.3606623922367</v>
+        <v>34.83958462044176</v>
       </c>
       <c r="G8" t="n">
-        <v>113.9033517708882</v>
+        <v>19.38227399909323</v>
       </c>
       <c r="H8" t="n">
-        <v>113.9033517708882</v>
+        <v>19.38227399909323</v>
       </c>
       <c r="I8" t="n">
-        <v>19.54330495490891</v>
+        <v>19.38227399909323</v>
       </c>
       <c r="J8" t="n">
-        <v>7.47331570782556</v>
+        <v>7.312284752009873</v>
       </c>
       <c r="K8" t="n">
-        <v>7.47331570782556</v>
+        <v>94.14566618212712</v>
       </c>
       <c r="L8" t="n">
-        <v>99.95559759216687</v>
+        <v>184.6351899882493</v>
       </c>
       <c r="M8" t="n">
-        <v>192.4378794765082</v>
+        <v>275.1247137943715</v>
       </c>
       <c r="N8" t="n">
-        <v>284.9201613608495</v>
+        <v>365.6142376004937</v>
       </c>
       <c r="O8" t="n">
-        <v>373.665785391278</v>
+        <v>365.6142376004937</v>
       </c>
       <c r="P8" t="n">
-        <v>373.665785391278</v>
+        <v>365.6142376004937</v>
       </c>
       <c r="Q8" t="n">
-        <v>363.574170023051</v>
+        <v>355.5226222322666</v>
       </c>
       <c r="R8" t="n">
-        <v>269.2141232070717</v>
+        <v>263.1957945553743</v>
       </c>
       <c r="S8" t="n">
-        <v>269.2141232070717</v>
+        <v>263.1957945553743</v>
       </c>
       <c r="T8" t="n">
-        <v>174.8540763910924</v>
+        <v>263.1957945553743</v>
       </c>
       <c r="U8" t="n">
-        <v>174.8540763910924</v>
+        <v>263.1957945553743</v>
       </c>
       <c r="V8" t="n">
-        <v>174.8540763910924</v>
+        <v>263.1957945553743</v>
       </c>
       <c r="W8" t="n">
-        <v>174.8540763910924</v>
+        <v>263.1957945553743</v>
       </c>
       <c r="X8" t="n">
-        <v>136.3061631414402</v>
+        <v>263.1957945553743</v>
       </c>
       <c r="Y8" t="n">
-        <v>136.3061631414402</v>
+        <v>263.1957945553743</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>373.665785391278</v>
+        <v>8.066417404795587</v>
       </c>
       <c r="C9" t="n">
-        <v>373.665785391278</v>
+        <v>8.066417404795587</v>
       </c>
       <c r="D9" t="n">
-        <v>291.3075888085492</v>
+        <v>8.066417404795587</v>
       </c>
       <c r="E9" t="n">
-        <v>196.9475419925699</v>
+        <v>8.066417404795587</v>
       </c>
       <c r="F9" t="n">
-        <v>102.5874951765906</v>
+        <v>8.066417404795587</v>
       </c>
       <c r="G9" t="n">
-        <v>102.5874951765906</v>
+        <v>8.066417404795587</v>
       </c>
       <c r="H9" t="n">
-        <v>8.227448360611275</v>
+        <v>8.066417404795587</v>
       </c>
       <c r="I9" t="n">
-        <v>8.227448360611275</v>
+        <v>8.066417404795587</v>
       </c>
       <c r="J9" t="n">
-        <v>7.47331570782556</v>
+        <v>7.312284752009873</v>
       </c>
       <c r="K9" t="n">
-        <v>99.95559759216687</v>
+        <v>97.80180855813205</v>
       </c>
       <c r="L9" t="n">
-        <v>192.4378794765082</v>
+        <v>184.6351899882493</v>
       </c>
       <c r="M9" t="n">
-        <v>281.1835035069367</v>
+        <v>184.6351899882493</v>
       </c>
       <c r="N9" t="n">
-        <v>281.1835035069367</v>
+        <v>184.6351899882493</v>
       </c>
       <c r="O9" t="n">
-        <v>281.1835035069367</v>
+        <v>275.1247137943715</v>
       </c>
       <c r="P9" t="n">
-        <v>373.665785391278</v>
+        <v>365.6142376004937</v>
       </c>
       <c r="Q9" t="n">
-        <v>373.665785391278</v>
+        <v>365.6142376004937</v>
       </c>
       <c r="R9" t="n">
-        <v>373.665785391278</v>
+        <v>273.2874099236013</v>
       </c>
       <c r="S9" t="n">
-        <v>373.665785391278</v>
+        <v>180.960582246709</v>
       </c>
       <c r="T9" t="n">
-        <v>373.665785391278</v>
+        <v>88.63375456981667</v>
       </c>
       <c r="U9" t="n">
-        <v>373.665785391278</v>
+        <v>88.63375456981667</v>
       </c>
       <c r="V9" t="n">
-        <v>373.665785391278</v>
+        <v>88.63375456981667</v>
       </c>
       <c r="W9" t="n">
-        <v>373.665785391278</v>
+        <v>88.63375456981667</v>
       </c>
       <c r="X9" t="n">
-        <v>373.665785391278</v>
+        <v>88.63375456981667</v>
       </c>
       <c r="Y9" t="n">
-        <v>373.665785391278</v>
+        <v>8.066417404795587</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>139.2566761626352</v>
+        <v>141.8445752422806</v>
       </c>
       <c r="C10" t="n">
-        <v>139.2566761626352</v>
+        <v>122.1335486166627</v>
       </c>
       <c r="D10" t="n">
-        <v>139.2566761626352</v>
+        <v>122.1335486166627</v>
       </c>
       <c r="E10" t="n">
-        <v>139.2566761626352</v>
+        <v>122.1335486166627</v>
       </c>
       <c r="F10" t="n">
-        <v>139.2566761626352</v>
+        <v>122.1335486166627</v>
       </c>
       <c r="G10" t="n">
-        <v>44.89662934665589</v>
+        <v>122.1335486166627</v>
       </c>
       <c r="H10" t="n">
-        <v>29.96775189558602</v>
+        <v>122.1335486166627</v>
       </c>
       <c r="I10" t="n">
-        <v>29.96775189558602</v>
+        <v>122.1335486166627</v>
       </c>
       <c r="J10" t="n">
-        <v>29.96775189558602</v>
+        <v>29.80672093977033</v>
       </c>
       <c r="K10" t="n">
-        <v>7.47331570782556</v>
+        <v>7.312284752009873</v>
       </c>
       <c r="L10" t="n">
-        <v>34.78744071553854</v>
+        <v>34.62640975972285</v>
       </c>
       <c r="M10" t="n">
-        <v>73.97547890776072</v>
+        <v>73.81444795194503</v>
       </c>
       <c r="N10" t="n">
-        <v>117.666329563197</v>
+        <v>117.5052986073813</v>
       </c>
       <c r="O10" t="n">
-        <v>142.0056061980963</v>
+        <v>141.8445752422806</v>
       </c>
       <c r="P10" t="n">
-        <v>139.2566761626352</v>
+        <v>141.8445752422806</v>
       </c>
       <c r="Q10" t="n">
-        <v>139.2566761626352</v>
+        <v>141.8445752422806</v>
       </c>
       <c r="R10" t="n">
-        <v>139.2566761626352</v>
+        <v>141.8445752422806</v>
       </c>
       <c r="S10" t="n">
-        <v>139.2566761626352</v>
+        <v>141.8445752422806</v>
       </c>
       <c r="T10" t="n">
-        <v>139.2566761626352</v>
+        <v>141.8445752422806</v>
       </c>
       <c r="U10" t="n">
-        <v>139.2566761626352</v>
+        <v>141.8445752422806</v>
       </c>
       <c r="V10" t="n">
-        <v>139.2566761626352</v>
+        <v>141.8445752422806</v>
       </c>
       <c r="W10" t="n">
-        <v>139.2566761626352</v>
+        <v>141.8445752422806</v>
       </c>
       <c r="X10" t="n">
-        <v>139.2566761626352</v>
+        <v>141.8445752422806</v>
       </c>
       <c r="Y10" t="n">
-        <v>139.2566761626352</v>
+        <v>141.8445752422806</v>
       </c>
     </row>
     <row r="11">
@@ -5026,10 +5026,10 @@
         <v>1281.776134706415</v>
       </c>
       <c r="E11" t="n">
-        <v>984.325735720779</v>
+        <v>984.3257357207788</v>
       </c>
       <c r="F11" t="n">
-        <v>661.6776845437792</v>
+        <v>661.6776845437789</v>
       </c>
       <c r="G11" t="n">
         <v>332.9277563928142</v>
@@ -5041,22 +5041,22 @@
         <v>71.68737779065016</v>
       </c>
       <c r="J11" t="n">
-        <v>147.4108273418321</v>
+        <v>147.4108273418325</v>
       </c>
       <c r="K11" t="n">
-        <v>550.8779403618776</v>
+        <v>550.877940361878</v>
       </c>
       <c r="L11" t="n">
         <v>1103.691198608077</v>
       </c>
       <c r="M11" t="n">
-        <v>1735.409009591388</v>
+        <v>1735.409009591389</v>
       </c>
       <c r="N11" t="n">
         <v>2362.716677651235</v>
       </c>
       <c r="O11" t="n">
-        <v>2909.877882418312</v>
+        <v>2909.877882418313</v>
       </c>
       <c r="P11" t="n">
         <v>3339.192928757607</v>
@@ -5071,7 +5071,7 @@
         <v>3516.491705641944</v>
       </c>
       <c r="T11" t="n">
-        <v>3390.029697522262</v>
+        <v>3390.029697522263</v>
       </c>
       <c r="U11" t="n">
         <v>3224.675847880021</v>
@@ -5126,19 +5126,19 @@
         <v>519.7750339533557</v>
       </c>
       <c r="L12" t="n">
-        <v>1024.136573819474</v>
+        <v>657.0046319690496</v>
       </c>
       <c r="M12" t="n">
-        <v>1664.681923286579</v>
+        <v>836.5019683236544</v>
       </c>
       <c r="N12" t="n">
-        <v>1863.338664939244</v>
+        <v>1509.707660576437</v>
       </c>
       <c r="O12" t="n">
-        <v>2412.774673691967</v>
+        <v>2059.14366932916</v>
       </c>
       <c r="P12" t="n">
-        <v>2521.464301219266</v>
+        <v>2483.111437809996</v>
       </c>
       <c r="Q12" t="n">
         <v>2654.03243523168</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>514.5514286534676</v>
+        <v>514.5514286534669</v>
       </c>
       <c r="C13" t="n">
-        <v>433.9530993381685</v>
+        <v>433.9530993381678</v>
       </c>
       <c r="D13" t="n">
-        <v>372.1743135384406</v>
+        <v>372.1743135384398</v>
       </c>
       <c r="E13" t="n">
-        <v>312.5990735686553</v>
+        <v>312.5990735686545</v>
       </c>
       <c r="F13" t="n">
-        <v>254.0469796833527</v>
+        <v>254.0469796833519</v>
       </c>
       <c r="G13" t="n">
-        <v>173.7779882913439</v>
+        <v>173.777988291343</v>
       </c>
       <c r="H13" t="n">
-        <v>107.8611988037168</v>
+        <v>107.8611988037161</v>
       </c>
       <c r="I13" t="n">
         <v>71.68737779065016</v>
       </c>
       <c r="J13" t="n">
-        <v>140.7484246534158</v>
+        <v>140.7484246534157</v>
       </c>
       <c r="K13" t="n">
-        <v>328.3762845747425</v>
+        <v>328.3762845747424</v>
       </c>
       <c r="L13" t="n">
-        <v>599.7892098012778</v>
+        <v>599.7892098012776</v>
       </c>
       <c r="M13" t="n">
-        <v>891.6387408462326</v>
+        <v>891.6387408462324</v>
       </c>
       <c r="N13" t="n">
         <v>1184.042036008054</v>
       </c>
       <c r="O13" t="n">
-        <v>1444.71686172237</v>
+        <v>1444.716861722369</v>
       </c>
       <c r="P13" t="n">
         <v>1656.744368646702</v>
@@ -5223,13 +5223,13 @@
         <v>1746.742618392779</v>
       </c>
       <c r="R13" t="n">
-        <v>1704.60251072479</v>
+        <v>1704.602510724789</v>
       </c>
       <c r="S13" t="n">
-        <v>1585.500079589803</v>
+        <v>1585.500079589802</v>
       </c>
       <c r="T13" t="n">
-        <v>1448.208736514776</v>
+        <v>1448.208736514775</v>
       </c>
       <c r="U13" t="n">
         <v>1247.394413705063</v>
@@ -5238,13 +5238,13 @@
         <v>1081.047779111784</v>
       </c>
       <c r="W13" t="n">
-        <v>879.9684626874314</v>
+        <v>879.9684626874308</v>
       </c>
       <c r="X13" t="n">
-        <v>740.3167654020218</v>
+        <v>740.3167654020212</v>
       </c>
       <c r="Y13" t="n">
-        <v>607.8620398710996</v>
+        <v>607.8620398710989</v>
       </c>
     </row>
     <row r="14">
@@ -5263,13 +5263,13 @@
         <v>1281.776134706415</v>
       </c>
       <c r="E14" t="n">
-        <v>984.3257357207788</v>
+        <v>984.325735720779</v>
       </c>
       <c r="F14" t="n">
-        <v>661.6776845437789</v>
+        <v>661.6776845437794</v>
       </c>
       <c r="G14" t="n">
-        <v>332.9277563928142</v>
+        <v>332.9277563928144</v>
       </c>
       <c r="H14" t="n">
         <v>103.0424947779316</v>
@@ -5278,22 +5278,22 @@
         <v>71.68737779065016</v>
       </c>
       <c r="J14" t="n">
-        <v>147.4108273418321</v>
+        <v>260.3272768043865</v>
       </c>
       <c r="K14" t="n">
-        <v>550.8779403618776</v>
+        <v>663.794389824432</v>
       </c>
       <c r="L14" t="n">
-        <v>1103.691198608077</v>
+        <v>1216.607648070631</v>
       </c>
       <c r="M14" t="n">
-        <v>1735.409009591388</v>
+        <v>1735.409009591389</v>
       </c>
       <c r="N14" t="n">
         <v>2362.716677651235</v>
       </c>
       <c r="O14" t="n">
-        <v>2909.877882418312</v>
+        <v>2909.877882418313</v>
       </c>
       <c r="P14" t="n">
         <v>3339.192928757607</v>
@@ -5308,13 +5308,13 @@
         <v>3516.491705641944</v>
       </c>
       <c r="T14" t="n">
-        <v>3390.029697522262</v>
+        <v>3390.029697522264</v>
       </c>
       <c r="U14" t="n">
-        <v>3224.675847880021</v>
+        <v>3224.675847880022</v>
       </c>
       <c r="V14" t="n">
-        <v>2981.950814149058</v>
+        <v>2981.950814149059</v>
       </c>
       <c r="W14" t="n">
         <v>2717.520012491552</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>514.5514286534676</v>
+        <v>514.5514286534672</v>
       </c>
       <c r="C16" t="n">
-        <v>433.9530993381685</v>
+        <v>433.953099338168</v>
       </c>
       <c r="D16" t="n">
-        <v>372.1743135384406</v>
+        <v>372.1743135384401</v>
       </c>
       <c r="E16" t="n">
-        <v>312.5990735686553</v>
+        <v>312.5990735686547</v>
       </c>
       <c r="F16" t="n">
-        <v>254.0469796833527</v>
+        <v>254.0469796833521</v>
       </c>
       <c r="G16" t="n">
-        <v>173.7779882913439</v>
+        <v>173.7779882913433</v>
       </c>
       <c r="H16" t="n">
         <v>107.8611988037161</v>
@@ -5436,22 +5436,22 @@
         <v>71.68737779065016</v>
       </c>
       <c r="J16" t="n">
-        <v>140.7484246534158</v>
+        <v>140.7484246534157</v>
       </c>
       <c r="K16" t="n">
-        <v>328.3762845747425</v>
+        <v>328.3762845747424</v>
       </c>
       <c r="L16" t="n">
-        <v>599.7892098012778</v>
+        <v>599.7892098012776</v>
       </c>
       <c r="M16" t="n">
-        <v>891.6387408462326</v>
+        <v>891.6387408462324</v>
       </c>
       <c r="N16" t="n">
         <v>1184.042036008054</v>
       </c>
       <c r="O16" t="n">
-        <v>1444.71686172237</v>
+        <v>1444.716861722369</v>
       </c>
       <c r="P16" t="n">
         <v>1656.744368646702</v>
@@ -5460,13 +5460,13 @@
         <v>1746.742618392779</v>
       </c>
       <c r="R16" t="n">
-        <v>1704.60251072479</v>
+        <v>1704.602510724789</v>
       </c>
       <c r="S16" t="n">
         <v>1585.500079589803</v>
       </c>
       <c r="T16" t="n">
-        <v>1448.208736514776</v>
+        <v>1448.208736514775</v>
       </c>
       <c r="U16" t="n">
         <v>1247.394413705063</v>
@@ -5475,13 +5475,13 @@
         <v>1081.047779111784</v>
       </c>
       <c r="W16" t="n">
-        <v>879.9684626874314</v>
+        <v>879.968462687431</v>
       </c>
       <c r="X16" t="n">
-        <v>740.3167654020218</v>
+        <v>740.3167654020215</v>
       </c>
       <c r="Y16" t="n">
-        <v>607.8620398710996</v>
+        <v>607.8620398710991</v>
       </c>
     </row>
     <row r="17">
@@ -5497,16 +5497,16 @@
         <v>1551.703979700558</v>
       </c>
       <c r="D17" t="n">
-        <v>1281.776134706415</v>
+        <v>1281.776134706416</v>
       </c>
       <c r="E17" t="n">
-        <v>984.325735720779</v>
+        <v>984.3257357207797</v>
       </c>
       <c r="F17" t="n">
-        <v>661.6776845437792</v>
+        <v>661.6776845437798</v>
       </c>
       <c r="G17" t="n">
-        <v>332.9277563928144</v>
+        <v>332.9277563928151</v>
       </c>
       <c r="H17" t="n">
         <v>103.0424947779316</v>
@@ -5515,22 +5515,22 @@
         <v>71.68737779065016</v>
       </c>
       <c r="J17" t="n">
-        <v>260.3272768043865</v>
+        <v>147.4108273418325</v>
       </c>
       <c r="K17" t="n">
-        <v>663.794389824432</v>
+        <v>550.877940361878</v>
       </c>
       <c r="L17" t="n">
-        <v>1216.607648070631</v>
+        <v>1103.691198608077</v>
       </c>
       <c r="M17" t="n">
-        <v>1848.325459053943</v>
+        <v>1735.409009591389</v>
       </c>
       <c r="N17" t="n">
-        <v>2475.633127113789</v>
+        <v>2362.716677651235</v>
       </c>
       <c r="O17" t="n">
-        <v>2909.877882418312</v>
+        <v>2909.877882418313</v>
       </c>
       <c r="P17" t="n">
         <v>3339.192928757607</v>
@@ -5545,16 +5545,16 @@
         <v>3516.491705641944</v>
       </c>
       <c r="T17" t="n">
-        <v>3390.029697522262</v>
+        <v>3390.029697522263</v>
       </c>
       <c r="U17" t="n">
-        <v>3224.675847880021</v>
+        <v>3224.675847880022</v>
       </c>
       <c r="V17" t="n">
-        <v>2981.950814149058</v>
+        <v>2981.950814149059</v>
       </c>
       <c r="W17" t="n">
-        <v>2717.520012491552</v>
+        <v>2717.520012491553</v>
       </c>
       <c r="X17" t="n">
         <v>2432.39210784308</v>
@@ -5594,25 +5594,25 @@
         <v>71.68737779065016</v>
       </c>
       <c r="J18" t="n">
-        <v>190.3466296475458</v>
+        <v>87.44945650031796</v>
       </c>
       <c r="K18" t="n">
-        <v>519.7750339533557</v>
+        <v>155.057276163675</v>
       </c>
       <c r="L18" t="n">
-        <v>1024.136573819474</v>
+        <v>659.4188160297936</v>
       </c>
       <c r="M18" t="n">
-        <v>1203.633910174079</v>
+        <v>1299.964165496898</v>
       </c>
       <c r="N18" t="n">
-        <v>1449.915201937652</v>
+        <v>1973.169857749681</v>
       </c>
       <c r="O18" t="n">
-        <v>1999.351210690375</v>
+        <v>2522.605866502404</v>
       </c>
       <c r="P18" t="n">
-        <v>2423.318979171212</v>
+        <v>2631.295494029703</v>
       </c>
       <c r="Q18" t="n">
         <v>2654.03243523168</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>514.5514286534676</v>
+        <v>514.5514286534669</v>
       </c>
       <c r="C19" t="n">
-        <v>433.9530993381685</v>
+        <v>433.9530993381678</v>
       </c>
       <c r="D19" t="n">
-        <v>372.1743135384406</v>
+        <v>372.1743135384398</v>
       </c>
       <c r="E19" t="n">
-        <v>312.5990735686553</v>
+        <v>312.5990735686545</v>
       </c>
       <c r="F19" t="n">
-        <v>254.0469796833527</v>
+        <v>254.0469796833519</v>
       </c>
       <c r="G19" t="n">
-        <v>173.7779882913439</v>
+        <v>173.777988291343</v>
       </c>
       <c r="H19" t="n">
         <v>107.8611988037161</v>
@@ -5673,22 +5673,22 @@
         <v>71.68737779065016</v>
       </c>
       <c r="J19" t="n">
-        <v>140.7484246534158</v>
+        <v>140.7484246534157</v>
       </c>
       <c r="K19" t="n">
-        <v>328.3762845747425</v>
+        <v>328.3762845747424</v>
       </c>
       <c r="L19" t="n">
-        <v>599.7892098012778</v>
+        <v>599.7892098012776</v>
       </c>
       <c r="M19" t="n">
-        <v>891.6387408462326</v>
+        <v>891.6387408462324</v>
       </c>
       <c r="N19" t="n">
         <v>1184.042036008054</v>
       </c>
       <c r="O19" t="n">
-        <v>1444.71686172237</v>
+        <v>1444.716861722369</v>
       </c>
       <c r="P19" t="n">
         <v>1656.744368646702</v>
@@ -5697,13 +5697,13 @@
         <v>1746.742618392779</v>
       </c>
       <c r="R19" t="n">
-        <v>1704.60251072479</v>
+        <v>1704.602510724789</v>
       </c>
       <c r="S19" t="n">
-        <v>1585.500079589803</v>
+        <v>1585.500079589802</v>
       </c>
       <c r="T19" t="n">
-        <v>1448.208736514776</v>
+        <v>1448.208736514775</v>
       </c>
       <c r="U19" t="n">
         <v>1247.394413705063</v>
@@ -5712,13 +5712,13 @@
         <v>1081.047779111784</v>
       </c>
       <c r="W19" t="n">
-        <v>879.9684626874314</v>
+        <v>879.9684626874308</v>
       </c>
       <c r="X19" t="n">
-        <v>740.3167654020218</v>
+        <v>740.3167654020212</v>
       </c>
       <c r="Y19" t="n">
-        <v>607.8620398710996</v>
+        <v>607.8620398710989</v>
       </c>
     </row>
     <row r="20">
@@ -5743,10 +5743,10 @@
         <v>661.6776845437792</v>
       </c>
       <c r="G20" t="n">
-        <v>332.9277563928144</v>
+        <v>332.9277563928143</v>
       </c>
       <c r="H20" t="n">
-        <v>103.0424947779317</v>
+        <v>103.0424947779316</v>
       </c>
       <c r="I20" t="n">
         <v>71.68737779065016</v>
@@ -5764,13 +5764,13 @@
         <v>1848.325459053943</v>
       </c>
       <c r="N20" t="n">
-        <v>2362.716677651235</v>
+        <v>2475.633127113789</v>
       </c>
       <c r="O20" t="n">
-        <v>2909.877882418312</v>
+        <v>3022.794331880867</v>
       </c>
       <c r="P20" t="n">
-        <v>3339.192928757607</v>
+        <v>3452.109378220161</v>
       </c>
       <c r="Q20" t="n">
         <v>3584.368889532508</v>
@@ -5782,7 +5782,7 @@
         <v>3516.491705641944</v>
       </c>
       <c r="T20" t="n">
-        <v>3390.029697522262</v>
+        <v>3390.029697522263</v>
       </c>
       <c r="U20" t="n">
         <v>3224.675847880021</v>
@@ -5831,25 +5831,25 @@
         <v>71.68737779065016</v>
       </c>
       <c r="J21" t="n">
-        <v>190.3466296475458</v>
+        <v>71.68737779065016</v>
       </c>
       <c r="K21" t="n">
-        <v>519.7750339533557</v>
+        <v>401.11578209646</v>
       </c>
       <c r="L21" t="n">
-        <v>1024.136573819474</v>
+        <v>905.4773219625786</v>
       </c>
       <c r="M21" t="n">
-        <v>1251.258460284988</v>
+        <v>1084.974658317183</v>
       </c>
       <c r="N21" t="n">
-        <v>1449.915201937652</v>
+        <v>1758.180350569966</v>
       </c>
       <c r="O21" t="n">
-        <v>1999.351210690375</v>
+        <v>2307.616359322689</v>
       </c>
       <c r="P21" t="n">
-        <v>2423.318979171212</v>
+        <v>2631.295494029703</v>
       </c>
       <c r="Q21" t="n">
         <v>2654.03243523168</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>514.5514286534669</v>
+        <v>514.5514286534672</v>
       </c>
       <c r="C22" t="n">
-        <v>433.9530993381679</v>
+        <v>433.953099338168</v>
       </c>
       <c r="D22" t="n">
-        <v>372.1743135384399</v>
+        <v>372.1743135384401</v>
       </c>
       <c r="E22" t="n">
-        <v>312.5990735686546</v>
+        <v>312.5990735686547</v>
       </c>
       <c r="F22" t="n">
-        <v>254.046979683352</v>
+        <v>254.0469796833521</v>
       </c>
       <c r="G22" t="n">
-        <v>173.7779882913432</v>
+        <v>173.7779882913433</v>
       </c>
       <c r="H22" t="n">
         <v>107.8611988037161</v>
@@ -5910,10 +5910,10 @@
         <v>71.68737779065016</v>
       </c>
       <c r="J22" t="n">
-        <v>140.7484246534158</v>
+        <v>140.7484246534157</v>
       </c>
       <c r="K22" t="n">
-        <v>328.3762845747425</v>
+        <v>328.3762845747424</v>
       </c>
       <c r="L22" t="n">
         <v>599.7892098012778</v>
@@ -5925,7 +5925,7 @@
         <v>1184.042036008054</v>
       </c>
       <c r="O22" t="n">
-        <v>1444.71686172237</v>
+        <v>1444.716861722369</v>
       </c>
       <c r="P22" t="n">
         <v>1656.744368646702</v>
@@ -5937,7 +5937,7 @@
         <v>1704.602510724789</v>
       </c>
       <c r="S22" t="n">
-        <v>1585.500079589802</v>
+        <v>1585.500079589803</v>
       </c>
       <c r="T22" t="n">
         <v>1448.208736514775</v>
@@ -5949,13 +5949,13 @@
         <v>1081.047779111784</v>
       </c>
       <c r="W22" t="n">
-        <v>879.9684626874308</v>
+        <v>879.9684626874312</v>
       </c>
       <c r="X22" t="n">
-        <v>740.3167654020212</v>
+        <v>740.3167654020216</v>
       </c>
       <c r="Y22" t="n">
-        <v>607.8620398710989</v>
+        <v>607.8620398710991</v>
       </c>
     </row>
     <row r="23">
@@ -5974,7 +5974,7 @@
         <v>1281.776134706415</v>
       </c>
       <c r="E23" t="n">
-        <v>984.3257357207787</v>
+        <v>984.3257357207788</v>
       </c>
       <c r="F23" t="n">
         <v>661.6776845437789</v>
@@ -5983,28 +5983,28 @@
         <v>332.9277563928142</v>
       </c>
       <c r="H23" t="n">
-        <v>103.0424947779316</v>
+        <v>103.0424947779314</v>
       </c>
       <c r="I23" t="n">
         <v>71.68737779065016</v>
       </c>
       <c r="J23" t="n">
-        <v>260.3272768043865</v>
+        <v>147.4108273418325</v>
       </c>
       <c r="K23" t="n">
-        <v>663.794389824432</v>
+        <v>550.877940361878</v>
       </c>
       <c r="L23" t="n">
-        <v>1216.607648070631</v>
+        <v>1103.691198608077</v>
       </c>
       <c r="M23" t="n">
-        <v>1735.409009591388</v>
+        <v>1735.409009591389</v>
       </c>
       <c r="N23" t="n">
         <v>2362.716677651235</v>
       </c>
       <c r="O23" t="n">
-        <v>2909.877882418312</v>
+        <v>2909.877882418313</v>
       </c>
       <c r="P23" t="n">
         <v>3339.192928757607</v>
@@ -6019,7 +6019,7 @@
         <v>3516.491705641944</v>
       </c>
       <c r="T23" t="n">
-        <v>3390.029697522262</v>
+        <v>3390.029697522263</v>
       </c>
       <c r="U23" t="n">
         <v>3224.675847880021</v>
@@ -6129,40 +6129,40 @@
         <v>433.9530993381678</v>
       </c>
       <c r="D25" t="n">
-        <v>372.1743135384399</v>
+        <v>372.1743135384398</v>
       </c>
       <c r="E25" t="n">
-        <v>312.5990735686546</v>
+        <v>312.5990735686545</v>
       </c>
       <c r="F25" t="n">
-        <v>254.046979683352</v>
+        <v>254.0469796833519</v>
       </c>
       <c r="G25" t="n">
-        <v>173.7779882913433</v>
+        <v>173.777988291343</v>
       </c>
       <c r="H25" t="n">
-        <v>107.8611988037161</v>
+        <v>107.8611988037159</v>
       </c>
       <c r="I25" t="n">
         <v>71.68737779065016</v>
       </c>
       <c r="J25" t="n">
-        <v>140.7484246534159</v>
+        <v>140.7484246534157</v>
       </c>
       <c r="K25" t="n">
-        <v>328.3762845747426</v>
+        <v>328.3762845747424</v>
       </c>
       <c r="L25" t="n">
-        <v>599.7892098012778</v>
+        <v>599.7892098012776</v>
       </c>
       <c r="M25" t="n">
-        <v>891.6387408462326</v>
+        <v>891.6387408462324</v>
       </c>
       <c r="N25" t="n">
         <v>1184.042036008054</v>
       </c>
       <c r="O25" t="n">
-        <v>1444.71686172237</v>
+        <v>1444.716861722369</v>
       </c>
       <c r="P25" t="n">
         <v>1656.744368646702</v>
@@ -6171,10 +6171,10 @@
         <v>1746.742618392779</v>
       </c>
       <c r="R25" t="n">
-        <v>1704.60251072479</v>
+        <v>1704.602510724789</v>
       </c>
       <c r="S25" t="n">
-        <v>1585.500079589803</v>
+        <v>1585.500079589802</v>
       </c>
       <c r="T25" t="n">
         <v>1448.208736514775</v>
@@ -6192,7 +6192,7 @@
         <v>740.3167654020212</v>
       </c>
       <c r="Y25" t="n">
-        <v>607.8620398710988</v>
+        <v>607.8620398710989</v>
       </c>
     </row>
     <row r="26">
@@ -6223,7 +6223,7 @@
         <v>112.8746754114057</v>
       </c>
       <c r="I26" t="n">
-        <v>73.99179512662067</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J26" t="n">
         <v>262.631694140357</v>
@@ -6253,25 +6253,25 @@
         <v>3699.589756331033</v>
       </c>
       <c r="S26" t="n">
-        <v>3624.184809142966</v>
+        <v>3624.184809142965</v>
       </c>
       <c r="T26" t="n">
-        <v>3490.195037725781</v>
+        <v>3490.19503772578</v>
       </c>
       <c r="U26" t="n">
-        <v>3317.313424786036</v>
+        <v>3317.313424786035</v>
       </c>
       <c r="V26" t="n">
-        <v>3067.060627757569</v>
+        <v>3067.060627757568</v>
       </c>
       <c r="W26" t="n">
         <v>2795.102062802559</v>
       </c>
       <c r="X26" t="n">
-        <v>2502.446394856584</v>
+        <v>2502.446394856583</v>
       </c>
       <c r="Y26" t="n">
-        <v>2193.117153195876</v>
+        <v>2193.117153195875</v>
       </c>
     </row>
     <row r="27">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>569.5501890719632</v>
+        <v>569.5501890719631</v>
       </c>
       <c r="C28" t="n">
-        <v>481.4240964591604</v>
+        <v>481.4240964591603</v>
       </c>
       <c r="D28" t="n">
-        <v>412.1175473619288</v>
+        <v>412.1175473619287</v>
       </c>
       <c r="E28" t="n">
-        <v>345.0145440946398</v>
+        <v>345.0145440946397</v>
       </c>
       <c r="F28" t="n">
-        <v>278.9346869118336</v>
+        <v>278.9346869118335</v>
       </c>
       <c r="G28" t="n">
-        <v>191.1379322223211</v>
+        <v>191.137932222321</v>
       </c>
       <c r="H28" t="n">
-        <v>117.6933794371903</v>
+        <v>117.6933794371902</v>
       </c>
       <c r="I28" t="n">
         <v>73.99179512662066</v>
@@ -6390,13 +6390,13 @@
         <v>315.9247802949463</v>
       </c>
       <c r="L28" t="n">
-        <v>579.9597447135982</v>
+        <v>579.9597447135983</v>
       </c>
       <c r="M28" t="n">
-        <v>864.4313149506696</v>
+        <v>864.4313149506697</v>
       </c>
       <c r="N28" t="n">
-        <v>1149.456649304607</v>
+        <v>1149.456649304608</v>
       </c>
       <c r="O28" t="n">
         <v>1402.75351421104</v>
@@ -6408,28 +6408,28 @@
         <v>1690.023349265683</v>
       </c>
       <c r="R28" t="n">
-        <v>1690.023349265683</v>
+        <v>1640.35547830019</v>
       </c>
       <c r="S28" t="n">
-        <v>1690.023349265683</v>
+        <v>1513.725283867699</v>
       </c>
       <c r="T28" t="n">
-        <v>1545.204242893152</v>
+        <v>1368.906177495168</v>
       </c>
       <c r="U28" t="n">
-        <v>1336.862156785935</v>
+        <v>1160.564091387952</v>
       </c>
       <c r="V28" t="n">
-        <v>1162.987758895153</v>
+        <v>986.6896934971692</v>
       </c>
       <c r="W28" t="n">
-        <v>954.3806791732961</v>
+        <v>778.0826137753127</v>
       </c>
       <c r="X28" t="n">
-        <v>807.201218590383</v>
+        <v>670.3885635870987</v>
       </c>
       <c r="Y28" t="n">
-        <v>670.3885635870988</v>
+        <v>670.3885635870987</v>
       </c>
     </row>
     <row r="29">
@@ -6445,19 +6445,19 @@
         <v>1599.17497682155</v>
       </c>
       <c r="D29" t="n">
-        <v>1321.719368529904</v>
+        <v>1321.719368529903</v>
       </c>
       <c r="E29" t="n">
-        <v>1016.741206246764</v>
+        <v>1016.741206246763</v>
       </c>
       <c r="F29" t="n">
-        <v>686.5653917722605</v>
+        <v>686.5653917722598</v>
       </c>
       <c r="G29" t="n">
-        <v>350.287700323792</v>
+        <v>350.2877003237918</v>
       </c>
       <c r="H29" t="n">
-        <v>112.8746754114057</v>
+        <v>112.8746754114059</v>
       </c>
       <c r="I29" t="n">
         <v>73.99179512662066</v>
@@ -6490,7 +6490,7 @@
         <v>3699.589756331033</v>
       </c>
       <c r="S29" t="n">
-        <v>3624.184809142965</v>
+        <v>3624.184809142966</v>
       </c>
       <c r="T29" t="n">
         <v>3490.19503772578</v>
@@ -6502,7 +6502,7 @@
         <v>3067.060627757568</v>
       </c>
       <c r="W29" t="n">
-        <v>2795.102062802559</v>
+        <v>2795.102062802558</v>
       </c>
       <c r="X29" t="n">
         <v>2502.446394856583</v>
@@ -6548,16 +6548,16 @@
         <v>522.0794512893262</v>
       </c>
       <c r="L30" t="n">
-        <v>843.6704145912354</v>
+        <v>1026.440991155445</v>
       </c>
       <c r="M30" t="n">
-        <v>1484.21576405834</v>
+        <v>1205.93832751005</v>
       </c>
       <c r="N30" t="n">
-        <v>2157.421456311123</v>
+        <v>1842.143315357585</v>
       </c>
       <c r="O30" t="n">
-        <v>2316.933768979884</v>
+        <v>2001.655628026346</v>
       </c>
       <c r="P30" t="n">
         <v>2425.623396507182</v>
@@ -6600,22 +6600,22 @@
         <v>439.7501608143311</v>
       </c>
       <c r="C31" t="n">
-        <v>414.3210931918713</v>
+        <v>351.6240682015284</v>
       </c>
       <c r="D31" t="n">
-        <v>345.0145440946397</v>
+        <v>282.3175191042968</v>
       </c>
       <c r="E31" t="n">
-        <v>345.0145440946397</v>
+        <v>215.2145158370078</v>
       </c>
       <c r="F31" t="n">
-        <v>278.9346869118335</v>
+        <v>215.2145158370078</v>
       </c>
       <c r="G31" t="n">
-        <v>191.137932222321</v>
+        <v>127.4177611474953</v>
       </c>
       <c r="H31" t="n">
-        <v>117.6933794371902</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="I31" t="n">
         <v>73.99179512662066</v>
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1832.328643028362</v>
+        <v>1887.327403446858</v>
       </c>
       <c r="C32" t="n">
-        <v>1551.703979700558</v>
+        <v>1599.17497682155</v>
       </c>
       <c r="D32" t="n">
-        <v>1281.776134706415</v>
+        <v>1321.719368529904</v>
       </c>
       <c r="E32" t="n">
-        <v>984.3257357207785</v>
+        <v>1016.741206246764</v>
       </c>
       <c r="F32" t="n">
-        <v>661.6776845437787</v>
+        <v>686.5653917722605</v>
       </c>
       <c r="G32" t="n">
-        <v>332.927756392814</v>
+        <v>350.287700323792</v>
       </c>
       <c r="H32" t="n">
-        <v>103.0424947779316</v>
+        <v>112.8746754114057</v>
       </c>
       <c r="I32" t="n">
-        <v>71.68737779065016</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J32" t="n">
-        <v>260.3272768043865</v>
+        <v>262.631694140357</v>
       </c>
       <c r="K32" t="n">
-        <v>663.794389824432</v>
+        <v>666.0988071604024</v>
       </c>
       <c r="L32" t="n">
-        <v>1216.607648070631</v>
+        <v>1218.912065406602</v>
       </c>
       <c r="M32" t="n">
-        <v>1848.325459053943</v>
+        <v>1850.629876389914</v>
       </c>
       <c r="N32" t="n">
-        <v>2475.633127113789</v>
+        <v>2477.93754444976</v>
       </c>
       <c r="O32" t="n">
-        <v>3022.794331880867</v>
+        <v>3025.098749216838</v>
       </c>
       <c r="P32" t="n">
-        <v>3452.109378220161</v>
+        <v>3454.413795556132</v>
       </c>
       <c r="Q32" t="n">
-        <v>3584.368889532508</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="R32" t="n">
-        <v>3584.368889532508</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="S32" t="n">
-        <v>3516.491705641944</v>
+        <v>3624.184809142965</v>
       </c>
       <c r="T32" t="n">
-        <v>3390.029697522263</v>
+        <v>3490.19503772578</v>
       </c>
       <c r="U32" t="n">
-        <v>3224.675847880022</v>
+        <v>3317.313424786035</v>
       </c>
       <c r="V32" t="n">
-        <v>2981.950814149059</v>
+        <v>3067.060627757568</v>
       </c>
       <c r="W32" t="n">
-        <v>2717.520012491552</v>
+        <v>2795.102062802559</v>
       </c>
       <c r="X32" t="n">
-        <v>2432.39210784308</v>
+        <v>2502.446394856583</v>
       </c>
       <c r="Y32" t="n">
-        <v>2130.590629479876</v>
+        <v>2193.117153195875</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>985.1090622172559</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C33" t="n">
-        <v>810.6560329361289</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D33" t="n">
-        <v>661.7216232748776</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E33" t="n">
-        <v>502.4841682694222</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F33" t="n">
-        <v>355.9496102963071</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G33" t="n">
-        <v>218.5082126555291</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H33" t="n">
-        <v>117.5922348003337</v>
+        <v>119.8966521363042</v>
       </c>
       <c r="I33" t="n">
-        <v>71.68737779065016</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J33" t="n">
-        <v>190.3466296475458</v>
+        <v>192.6510469835163</v>
       </c>
       <c r="K33" t="n">
-        <v>519.7750339533557</v>
+        <v>522.0794512893262</v>
       </c>
       <c r="L33" t="n">
-        <v>1024.136573819474</v>
+        <v>1026.440991155445</v>
       </c>
       <c r="M33" t="n">
-        <v>1203.633910174079</v>
+        <v>1666.98634062255</v>
       </c>
       <c r="N33" t="n">
-        <v>1449.915201937652</v>
+        <v>1865.643082275214</v>
       </c>
       <c r="O33" t="n">
-        <v>1999.351210690375</v>
+        <v>2025.155394943975</v>
       </c>
       <c r="P33" t="n">
-        <v>2423.318979171212</v>
+        <v>2449.123163424812</v>
       </c>
       <c r="Q33" t="n">
-        <v>2654.03243523168</v>
+        <v>2656.33685256765</v>
       </c>
       <c r="R33" t="n">
-        <v>2632.920535633867</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S33" t="n">
-        <v>2483.453746496501</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T33" t="n">
-        <v>2286.464450656589</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U33" t="n">
-        <v>2058.325663167755</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V33" t="n">
-        <v>1823.173554936012</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W33" t="n">
-        <v>1568.936198207811</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X33" t="n">
-        <v>1361.084698002278</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y33" t="n">
-        <v>1153.324399237324</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>514.551428653467</v>
+        <v>439.7501608143311</v>
       </c>
       <c r="C34" t="n">
-        <v>433.9530993381679</v>
+        <v>351.6240682015284</v>
       </c>
       <c r="D34" t="n">
-        <v>372.1743135384399</v>
+        <v>282.3175191042968</v>
       </c>
       <c r="E34" t="n">
-        <v>312.5990735686544</v>
+        <v>282.3175191042968</v>
       </c>
       <c r="F34" t="n">
-        <v>254.046979683352</v>
+        <v>216.2376619214905</v>
       </c>
       <c r="G34" t="n">
-        <v>173.7779882913431</v>
+        <v>128.440907231978</v>
       </c>
       <c r="H34" t="n">
-        <v>107.8611988037161</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="I34" t="n">
-        <v>71.68737779065016</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J34" t="n">
-        <v>140.7484246534157</v>
+        <v>135.6748811815029</v>
       </c>
       <c r="K34" t="n">
-        <v>328.3762845747422</v>
+        <v>315.9247802949463</v>
       </c>
       <c r="L34" t="n">
-        <v>599.7892098012774</v>
+        <v>579.9597447135983</v>
       </c>
       <c r="M34" t="n">
-        <v>891.6387408462324</v>
+        <v>864.4313149506697</v>
       </c>
       <c r="N34" t="n">
-        <v>1184.042036008054</v>
+        <v>1149.456649304608</v>
       </c>
       <c r="O34" t="n">
-        <v>1444.716861722369</v>
+        <v>1402.75351421104</v>
       </c>
       <c r="P34" t="n">
-        <v>1656.744368646702</v>
+        <v>1607.403060327489</v>
       </c>
       <c r="Q34" t="n">
-        <v>1746.742618392779</v>
+        <v>1690.023349265683</v>
       </c>
       <c r="R34" t="n">
-        <v>1704.602510724789</v>
+        <v>1690.023349265683</v>
       </c>
       <c r="S34" t="n">
-        <v>1585.500079589802</v>
+        <v>1563.393154833192</v>
       </c>
       <c r="T34" t="n">
-        <v>1448.208736514775</v>
+        <v>1418.574048460661</v>
       </c>
       <c r="U34" t="n">
-        <v>1247.394413705063</v>
+        <v>1210.231962353445</v>
       </c>
       <c r="V34" t="n">
-        <v>1081.047779111784</v>
+        <v>1036.357564462662</v>
       </c>
       <c r="W34" t="n">
-        <v>879.9684626874309</v>
+        <v>827.7504847408059</v>
       </c>
       <c r="X34" t="n">
-        <v>740.3167654020214</v>
+        <v>680.5710241578927</v>
       </c>
       <c r="Y34" t="n">
-        <v>607.862039871099</v>
+        <v>540.5885353294667</v>
       </c>
     </row>
     <row r="35">
@@ -6916,22 +6916,22 @@
         <v>1832.328643028362</v>
       </c>
       <c r="C35" t="n">
-        <v>1551.703979700559</v>
+        <v>1551.703979700558</v>
       </c>
       <c r="D35" t="n">
-        <v>1281.776134706416</v>
+        <v>1281.776134706415</v>
       </c>
       <c r="E35" t="n">
-        <v>984.3257357207794</v>
+        <v>984.3257357207788</v>
       </c>
       <c r="F35" t="n">
-        <v>661.6776845437796</v>
+        <v>661.6776845437792</v>
       </c>
       <c r="G35" t="n">
-        <v>332.9277563928149</v>
+        <v>332.9277563928144</v>
       </c>
       <c r="H35" t="n">
-        <v>103.0424947779316</v>
+        <v>103.0424947779315</v>
       </c>
       <c r="I35" t="n">
         <v>71.68737779065016</v>
@@ -7022,19 +7022,19 @@
         <v>519.7750339533557</v>
       </c>
       <c r="L36" t="n">
-        <v>1024.136573819474</v>
+        <v>657.0046319690496</v>
       </c>
       <c r="M36" t="n">
-        <v>1203.633910174079</v>
+        <v>1297.549981436154</v>
       </c>
       <c r="N36" t="n">
-        <v>1876.839602426862</v>
+        <v>1970.755673688937</v>
       </c>
       <c r="O36" t="n">
-        <v>2036.351915095622</v>
+        <v>2130.267986357698</v>
       </c>
       <c r="P36" t="n">
-        <v>2460.319683576459</v>
+        <v>2423.318979171212</v>
       </c>
       <c r="Q36" t="n">
         <v>2654.03243523168</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>514.5514286534667</v>
+        <v>514.5514286534681</v>
       </c>
       <c r="C37" t="n">
-        <v>433.9530993381676</v>
+        <v>433.953099338169</v>
       </c>
       <c r="D37" t="n">
-        <v>372.1743135384397</v>
+        <v>372.1743135384411</v>
       </c>
       <c r="E37" t="n">
-        <v>312.5990735686544</v>
+        <v>312.5990735686559</v>
       </c>
       <c r="F37" t="n">
-        <v>254.0469796833518</v>
+        <v>254.0469796833534</v>
       </c>
       <c r="G37" t="n">
-        <v>173.7779882913434</v>
+        <v>173.7779882913446</v>
       </c>
       <c r="H37" t="n">
-        <v>107.8611988037161</v>
+        <v>107.8611988037175</v>
       </c>
       <c r="I37" t="n">
         <v>71.68737779065016</v>
       </c>
       <c r="J37" t="n">
-        <v>140.7484246534157</v>
+        <v>140.7484246534158</v>
       </c>
       <c r="K37" t="n">
-        <v>328.3762845747424</v>
+        <v>328.3762845747426</v>
       </c>
       <c r="L37" t="n">
-        <v>599.7892098012777</v>
+        <v>599.7892098012779</v>
       </c>
       <c r="M37" t="n">
-        <v>891.6387408462325</v>
+        <v>891.6387408462328</v>
       </c>
       <c r="N37" t="n">
-        <v>1184.042036008053</v>
+        <v>1184.042036008054</v>
       </c>
       <c r="O37" t="n">
-        <v>1444.716861722369</v>
+        <v>1444.71686172237</v>
       </c>
       <c r="P37" t="n">
         <v>1656.744368646702</v>
       </c>
       <c r="Q37" t="n">
-        <v>1746.742618392778</v>
+        <v>1746.742618392779</v>
       </c>
       <c r="R37" t="n">
-        <v>1704.602510724789</v>
+        <v>1704.60251072479</v>
       </c>
       <c r="S37" t="n">
-        <v>1585.500079589802</v>
+        <v>1585.500079589803</v>
       </c>
       <c r="T37" t="n">
-        <v>1448.208736514775</v>
+        <v>1448.208736514776</v>
       </c>
       <c r="U37" t="n">
         <v>1247.394413705063</v>
       </c>
       <c r="V37" t="n">
-        <v>1081.047779111783</v>
+        <v>1081.047779111784</v>
       </c>
       <c r="W37" t="n">
-        <v>879.9684626874306</v>
+        <v>879.9684626874316</v>
       </c>
       <c r="X37" t="n">
-        <v>740.316765402021</v>
+        <v>740.3167654020222</v>
       </c>
       <c r="Y37" t="n">
-        <v>607.8620398710987</v>
+        <v>607.8620398710999</v>
       </c>
     </row>
     <row r="38">
@@ -7168,19 +7168,19 @@
         <v>332.9277563928144</v>
       </c>
       <c r="H38" t="n">
-        <v>103.0424947779317</v>
+        <v>103.0424947779316</v>
       </c>
       <c r="I38" t="n">
         <v>71.68737779065016</v>
       </c>
       <c r="J38" t="n">
-        <v>260.3272768043865</v>
+        <v>147.4108273418321</v>
       </c>
       <c r="K38" t="n">
-        <v>663.794389824432</v>
+        <v>550.8779403618776</v>
       </c>
       <c r="L38" t="n">
-        <v>1216.607648070631</v>
+        <v>1103.691198608077</v>
       </c>
       <c r="M38" t="n">
         <v>1735.409009591388</v>
@@ -7204,7 +7204,7 @@
         <v>3516.491705641944</v>
       </c>
       <c r="T38" t="n">
-        <v>3390.029697522262</v>
+        <v>3390.029697522263</v>
       </c>
       <c r="U38" t="n">
         <v>3224.675847880021</v>
@@ -7213,10 +7213,10 @@
         <v>2981.950814149058</v>
       </c>
       <c r="W38" t="n">
-        <v>2717.520012491552</v>
+        <v>2717.520012491551</v>
       </c>
       <c r="X38" t="n">
-        <v>2432.39210784308</v>
+        <v>2432.392107843079</v>
       </c>
       <c r="Y38" t="n">
         <v>2130.590629479876</v>
@@ -7256,19 +7256,19 @@
         <v>190.3466296475458</v>
       </c>
       <c r="K39" t="n">
-        <v>257.9544493109029</v>
+        <v>519.7750339533557</v>
       </c>
       <c r="L39" t="n">
-        <v>451.4423011713029</v>
+        <v>1024.136573819474</v>
       </c>
       <c r="M39" t="n">
-        <v>1091.987650638408</v>
+        <v>1251.258460284988</v>
       </c>
       <c r="N39" t="n">
-        <v>1765.19334289119</v>
+        <v>1449.915201937652</v>
       </c>
       <c r="O39" t="n">
-        <v>2314.629351643913</v>
+        <v>1999.351210690375</v>
       </c>
       <c r="P39" t="n">
         <v>2423.318979171212</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>514.5514286534669</v>
+        <v>514.5514286534672</v>
       </c>
       <c r="C40" t="n">
-        <v>433.9530993381679</v>
+        <v>433.9530993381681</v>
       </c>
       <c r="D40" t="n">
-        <v>372.1743135384399</v>
+        <v>372.1743135384402</v>
       </c>
       <c r="E40" t="n">
-        <v>312.5990735686546</v>
+        <v>312.5990735686548</v>
       </c>
       <c r="F40" t="n">
-        <v>254.046979683352</v>
+        <v>254.0469796833522</v>
       </c>
       <c r="G40" t="n">
-        <v>173.7779882913432</v>
+        <v>173.7779882913433</v>
       </c>
       <c r="H40" t="n">
         <v>107.8611988037161</v>
@@ -7332,22 +7332,22 @@
         <v>71.68737779065016</v>
       </c>
       <c r="J40" t="n">
-        <v>140.7484246534158</v>
+        <v>140.7484246534157</v>
       </c>
       <c r="K40" t="n">
-        <v>328.3762845747425</v>
+        <v>328.3762845747424</v>
       </c>
       <c r="L40" t="n">
-        <v>599.7892098012778</v>
+        <v>599.7892098012777</v>
       </c>
       <c r="M40" t="n">
-        <v>891.6387408462326</v>
+        <v>891.6387408462325</v>
       </c>
       <c r="N40" t="n">
         <v>1184.042036008054</v>
       </c>
       <c r="O40" t="n">
-        <v>1444.71686172237</v>
+        <v>1444.716861722369</v>
       </c>
       <c r="P40" t="n">
         <v>1656.744368646702</v>
@@ -7356,13 +7356,13 @@
         <v>1746.742618392779</v>
       </c>
       <c r="R40" t="n">
-        <v>1704.60251072479</v>
+        <v>1704.602510724789</v>
       </c>
       <c r="S40" t="n">
         <v>1585.500079589803</v>
       </c>
       <c r="T40" t="n">
-        <v>1448.208736514776</v>
+        <v>1448.208736514775</v>
       </c>
       <c r="U40" t="n">
         <v>1247.394413705063</v>
@@ -7371,13 +7371,13 @@
         <v>1081.047779111784</v>
       </c>
       <c r="W40" t="n">
-        <v>879.9684626874314</v>
+        <v>879.968462687431</v>
       </c>
       <c r="X40" t="n">
-        <v>740.3167654020218</v>
+        <v>740.3167654020215</v>
       </c>
       <c r="Y40" t="n">
-        <v>607.8620398710996</v>
+        <v>607.8620398710991</v>
       </c>
     </row>
     <row r="41">
@@ -7396,7 +7396,7 @@
         <v>1281.776134706415</v>
       </c>
       <c r="E41" t="n">
-        <v>984.3257357207784</v>
+        <v>984.3257357207785</v>
       </c>
       <c r="F41" t="n">
         <v>661.6776845437787</v>
@@ -7411,25 +7411,25 @@
         <v>71.68737779065016</v>
       </c>
       <c r="J41" t="n">
-        <v>260.3272768043865</v>
+        <v>147.4108273418321</v>
       </c>
       <c r="K41" t="n">
-        <v>663.794389824432</v>
+        <v>550.8779403618776</v>
       </c>
       <c r="L41" t="n">
-        <v>1216.607648070631</v>
+        <v>1103.691198608077</v>
       </c>
       <c r="M41" t="n">
-        <v>1848.325459053943</v>
+        <v>1735.409009591388</v>
       </c>
       <c r="N41" t="n">
-        <v>2475.633127113789</v>
+        <v>2362.716677651235</v>
       </c>
       <c r="O41" t="n">
-        <v>3022.794331880867</v>
+        <v>2909.877882418312</v>
       </c>
       <c r="P41" t="n">
-        <v>3452.109378220161</v>
+        <v>3339.192928757607</v>
       </c>
       <c r="Q41" t="n">
         <v>3584.368889532508</v>
@@ -7441,7 +7441,7 @@
         <v>3516.491705641944</v>
       </c>
       <c r="T41" t="n">
-        <v>3390.029697522262</v>
+        <v>3390.029697522263</v>
       </c>
       <c r="U41" t="n">
         <v>3224.675847880021</v>
@@ -7450,10 +7450,10 @@
         <v>2981.950814149058</v>
       </c>
       <c r="W41" t="n">
-        <v>2717.520012491551</v>
+        <v>2717.520012491552</v>
       </c>
       <c r="X41" t="n">
-        <v>2432.392107843079</v>
+        <v>2432.39210784308</v>
       </c>
       <c r="Y41" t="n">
         <v>2130.590629479876</v>
@@ -7490,25 +7490,25 @@
         <v>71.68737779065016</v>
       </c>
       <c r="J42" t="n">
-        <v>71.68737779065016</v>
+        <v>190.3466296475458</v>
       </c>
       <c r="K42" t="n">
-        <v>139.2951974540072</v>
+        <v>519.7750339533557</v>
       </c>
       <c r="L42" t="n">
-        <v>643.6567373201258</v>
+        <v>1024.136573819474</v>
       </c>
       <c r="M42" t="n">
-        <v>1284.20208678723</v>
+        <v>1251.258460284988</v>
       </c>
       <c r="N42" t="n">
-        <v>1657.891716796143</v>
+        <v>1449.915201937652</v>
       </c>
       <c r="O42" t="n">
-        <v>2207.327725548866</v>
+        <v>1999.351210690375</v>
       </c>
       <c r="P42" t="n">
-        <v>2631.295494029703</v>
+        <v>2423.318979171212</v>
       </c>
       <c r="Q42" t="n">
         <v>2654.03243523168</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>514.5514286534678</v>
+        <v>514.5514286534676</v>
       </c>
       <c r="C43" t="n">
-        <v>433.9530993381687</v>
+        <v>433.9530993381685</v>
       </c>
       <c r="D43" t="n">
-        <v>372.1743135384408</v>
+        <v>372.1743135384399</v>
       </c>
       <c r="E43" t="n">
-        <v>312.5990735686555</v>
+        <v>312.5990735686546</v>
       </c>
       <c r="F43" t="n">
-        <v>254.046979683353</v>
+        <v>254.046979683352</v>
       </c>
       <c r="G43" t="n">
-        <v>173.7779882913441</v>
+        <v>173.7779882913432</v>
       </c>
       <c r="H43" t="n">
         <v>107.8611988037161</v>
@@ -7611,10 +7611,10 @@
         <v>879.9684626874314</v>
       </c>
       <c r="X43" t="n">
-        <v>740.3167654020219</v>
+        <v>740.3167654020218</v>
       </c>
       <c r="Y43" t="n">
-        <v>607.8620398710997</v>
+        <v>607.8620398710996</v>
       </c>
     </row>
     <row r="44">
@@ -7633,13 +7633,13 @@
         <v>1281.776134706415</v>
       </c>
       <c r="E44" t="n">
-        <v>984.325735720779</v>
+        <v>984.3257357207788</v>
       </c>
       <c r="F44" t="n">
-        <v>661.6776845437792</v>
+        <v>661.6776845437789</v>
       </c>
       <c r="G44" t="n">
-        <v>332.9277563928143</v>
+        <v>332.9277563928142</v>
       </c>
       <c r="H44" t="n">
         <v>103.0424947779316</v>
@@ -7648,25 +7648,25 @@
         <v>71.68737779065016</v>
       </c>
       <c r="J44" t="n">
-        <v>147.4108273418321</v>
+        <v>260.3272768043865</v>
       </c>
       <c r="K44" t="n">
-        <v>550.8779403618776</v>
+        <v>663.794389824432</v>
       </c>
       <c r="L44" t="n">
-        <v>1103.691198608077</v>
+        <v>1216.607648070631</v>
       </c>
       <c r="M44" t="n">
-        <v>1735.409009591388</v>
+        <v>1848.325459053943</v>
       </c>
       <c r="N44" t="n">
-        <v>2362.716677651235</v>
+        <v>2475.633127113789</v>
       </c>
       <c r="O44" t="n">
-        <v>2909.877882418312</v>
+        <v>3022.794331880867</v>
       </c>
       <c r="P44" t="n">
-        <v>3339.192928757607</v>
+        <v>3452.109378220161</v>
       </c>
       <c r="Q44" t="n">
         <v>3584.368889532508</v>
@@ -7678,7 +7678,7 @@
         <v>3516.491705641944</v>
       </c>
       <c r="T44" t="n">
-        <v>3390.029697522263</v>
+        <v>3390.029697522262</v>
       </c>
       <c r="U44" t="n">
         <v>3224.675847880021</v>
@@ -7727,25 +7727,25 @@
         <v>71.68737779065016</v>
       </c>
       <c r="J45" t="n">
-        <v>71.68737779065016</v>
+        <v>190.3466296475458</v>
       </c>
       <c r="K45" t="n">
-        <v>401.11578209646</v>
+        <v>519.7750339533557</v>
       </c>
       <c r="L45" t="n">
-        <v>905.4773219625786</v>
+        <v>1024.136573819474</v>
       </c>
       <c r="M45" t="n">
-        <v>1084.974658317183</v>
+        <v>1664.681923286579</v>
       </c>
       <c r="N45" t="n">
-        <v>1758.180350569966</v>
+        <v>1863.338664939244</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.616359322689</v>
+        <v>2022.850977608004</v>
       </c>
       <c r="P45" t="n">
-        <v>2631.295494029703</v>
+        <v>2446.818746088841</v>
       </c>
       <c r="Q45" t="n">
         <v>2654.03243523168</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>514.5514286534669</v>
+        <v>514.5514286534676</v>
       </c>
       <c r="C46" t="n">
-        <v>433.9530993381678</v>
+        <v>433.9530993381685</v>
       </c>
       <c r="D46" t="n">
-        <v>372.1743135384399</v>
+        <v>372.1743135384406</v>
       </c>
       <c r="E46" t="n">
-        <v>312.5990735686545</v>
+        <v>312.5990735686553</v>
       </c>
       <c r="F46" t="n">
-        <v>254.0469796833521</v>
+        <v>254.046979683352</v>
       </c>
       <c r="G46" t="n">
         <v>173.7779882913432</v>
@@ -7809,19 +7809,19 @@
         <v>140.7484246534158</v>
       </c>
       <c r="K46" t="n">
-        <v>328.3762845747424</v>
+        <v>328.3762845747425</v>
       </c>
       <c r="L46" t="n">
-        <v>599.7892098012777</v>
+        <v>599.7892098012778</v>
       </c>
       <c r="M46" t="n">
-        <v>891.6387408462325</v>
+        <v>891.6387408462326</v>
       </c>
       <c r="N46" t="n">
         <v>1184.042036008054</v>
       </c>
       <c r="O46" t="n">
-        <v>1444.716861722369</v>
+        <v>1444.71686172237</v>
       </c>
       <c r="P46" t="n">
         <v>1656.744368646702</v>
@@ -7830,13 +7830,13 @@
         <v>1746.742618392779</v>
       </c>
       <c r="R46" t="n">
-        <v>1704.602510724789</v>
+        <v>1704.60251072479</v>
       </c>
       <c r="S46" t="n">
-        <v>1585.500079589802</v>
+        <v>1585.500079589803</v>
       </c>
       <c r="T46" t="n">
-        <v>1448.208736514775</v>
+        <v>1448.208736514776</v>
       </c>
       <c r="U46" t="n">
         <v>1247.394413705063</v>
@@ -7845,13 +7845,13 @@
         <v>1081.047779111784</v>
       </c>
       <c r="W46" t="n">
-        <v>879.9684626874308</v>
+        <v>879.9684626874314</v>
       </c>
       <c r="X46" t="n">
-        <v>740.3167654020212</v>
+        <v>740.3167654020218</v>
       </c>
       <c r="Y46" t="n">
-        <v>607.8620398710989</v>
+        <v>607.8620398710996</v>
       </c>
     </row>
   </sheetData>
@@ -7981,13 +7981,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>262.4389053482807</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N2" t="n">
         <v>273.5452359758195</v>
@@ -8066,16 +8066,16 @@
         <v>182.6865521591028</v>
       </c>
       <c r="M3" t="n">
-        <v>184.4830882253185</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O3" t="n">
-        <v>186.728416823673</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P3" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8218,19 +8218,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>264.2220234242092</v>
+        <v>262.4389053482807</v>
       </c>
       <c r="L5" t="n">
         <v>279.8985873492159</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N5" t="n">
         <v>273.5452359758195</v>
       </c>
       <c r="O5" t="n">
-        <v>272.4472657249869</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
         <v>231.2329957552695</v>
@@ -8297,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N6" t="n">
         <v>173.6907663866335</v>
@@ -8312,7 +8312,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>184.1139464652501</v>
@@ -8455,19 +8455,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>307.8003373380283</v>
       </c>
       <c r="L8" t="n">
-        <v>329.1828613178067</v>
+        <v>327.1699743701107</v>
       </c>
       <c r="M8" t="n">
-        <v>323.7626795750922</v>
+        <v>321.7497926273961</v>
       </c>
       <c r="N8" t="n">
-        <v>322.8295099444104</v>
+        <v>320.8166229967143</v>
       </c>
       <c r="O8" t="n">
-        <v>319.740255896867</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
         <v>231.2329957552695</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>231.2578853221785</v>
+        <v>229.2449983744824</v>
       </c>
       <c r="L9" t="n">
-        <v>231.9708261276937</v>
+        <v>226.2648660729219</v>
       </c>
       <c r="M9" t="n">
-        <v>231.7760783971987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>233.9998038445679</v>
       </c>
       <c r="P9" t="n">
-        <v>227.3908537621497</v>
+        <v>225.3779668144537</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>55.0395955129279</v>
+        <v>55.03959551292837</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8774,22 +8774,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.9405987984215</v>
+        <v>149.6808648683902</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>55.0395955129279</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8935,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>335.456513833687</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>55.03959551292837</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9178,7 +9178,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>266.7431616035996</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>22.15449680785544</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>48.10560617263502</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9412,7 +9412,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>323.2899047528382</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9421,7 +9421,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>98.25797100075954</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9488,19 +9488,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>48.10560617263494</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>217.1611183633481</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>55.03959551292837</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>335.4565138336866</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -10196,19 +10196,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>186.2236012992072</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>441.9679254493644</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>98.25797100075954</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10436,19 +10436,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>48.10560617263502</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>186.3401494352137</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10670,10 +10670,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>186.2236012992075</v>
       </c>
       <c r="Q36" t="n">
-        <v>172.7028388416601</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>55.0395955129279</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>335.4565138336866</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10904,22 +10904,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>56.82651903505663</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263494</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>55.0395955129279</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>98.25797100075908</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,19 +11138,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263494</v>
       </c>
       <c r="N42" t="n">
-        <v>176.8008973295434</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>55.0395955129279</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>98.25797100075908</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11384,19 +11384,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>217.1611183633481</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>186.3401494352137</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>49.17119225583824</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>125.3638924881656</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>39.09055629075223</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.138135486890434</v>
+        <v>138.5826639401417</v>
       </c>
     </row>
     <row r="29">
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>62.07005474043953</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>66.43197323461607</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>65.41905861097815</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>19.81840089661357</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>43.26456846746389</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>49.17119225583821</v>
+        <v>49.17119225583822</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>66.43197323461608</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>18.80548627297568</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>43.26456846746389</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>49.17119225583822</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>695573.0351051406</v>
+        <v>695354.2525928983</v>
       </c>
     </row>
     <row r="5">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>706568.3888876535</v>
+        <v>706568.3888876536</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>706568.3888876535</v>
+        <v>706568.3888876536</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>705306.4282134542</v>
+        <v>705306.4282134541</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>706568.3888876536</v>
+        <v>705306.4282134542</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>706568.3888876536</v>
+        <v>706568.3888876535</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>706568.3888876536</v>
+        <v>706568.3888876535</v>
       </c>
     </row>
     <row r="16">
@@ -26316,43 +26316,43 @@
         <v>800515.7256176765</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176765</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.725617676</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="E2" t="n">
-        <v>800515.7256176749</v>
+        <v>800515.7256176751</v>
       </c>
       <c r="F2" t="n">
         <v>800515.725617675</v>
       </c>
       <c r="G2" t="n">
+        <v>800515.7256176751</v>
+      </c>
+      <c r="H2" t="n">
+        <v>800515.7256176765</v>
+      </c>
+      <c r="I2" t="n">
         <v>800515.7256176752</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>796358.1722642734</v>
+      </c>
+      <c r="K2" t="n">
+        <v>796358.1722642739</v>
+      </c>
+      <c r="L2" t="n">
+        <v>796358.1722642733</v>
+      </c>
+      <c r="M2" t="n">
+        <v>800515.7256176746</v>
+      </c>
+      <c r="N2" t="n">
+        <v>800515.725617676</v>
+      </c>
+      <c r="O2" t="n">
         <v>800515.725617675</v>
-      </c>
-      <c r="I2" t="n">
-        <v>800515.7256176764</v>
-      </c>
-      <c r="J2" t="n">
-        <v>796358.172264274</v>
-      </c>
-      <c r="K2" t="n">
-        <v>796358.1722642736</v>
-      </c>
-      <c r="L2" t="n">
-        <v>800515.7256176758</v>
-      </c>
-      <c r="M2" t="n">
-        <v>800515.7256176759</v>
-      </c>
-      <c r="N2" t="n">
-        <v>800515.7256176751</v>
-      </c>
-      <c r="O2" t="n">
-        <v>800515.7256176746</v>
       </c>
       <c r="P2" t="n">
         <v>800515.7256176751</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>15309.17402286339</v>
+        <v>14683.91095030056</v>
       </c>
       <c r="E3" t="n">
-        <v>786425.3873581579</v>
+        <v>787026.3911172271</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>83085.2217577117</v>
+        <v>83085.22175771164</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>11145.05361488117</v>
+        <v>11963.96261250529</v>
       </c>
       <c r="M3" t="n">
-        <v>200030.0140911027</v>
+        <v>199315.2468792245</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>386095.5528670329</v>
       </c>
       <c r="D4" t="n">
-        <v>378169.7301196537</v>
+        <v>378493.4395683943</v>
       </c>
       <c r="E4" t="n">
         <v>159263.0340515217</v>
@@ -26435,7 +26435,7 @@
         <v>159263.0340515217</v>
       </c>
       <c r="H4" t="n">
-        <v>159263.0340515217</v>
+        <v>159263.0340515218</v>
       </c>
       <c r="I4" t="n">
         <v>159263.0340515217</v>
@@ -26447,16 +26447,16 @@
         <v>153788.3361621244</v>
       </c>
       <c r="L4" t="n">
-        <v>159263.0340515217</v>
+        <v>153788.3361621244</v>
       </c>
       <c r="M4" t="n">
-        <v>159263.0340515217</v>
+        <v>159263.0340515218</v>
       </c>
       <c r="N4" t="n">
         <v>159263.0340515217</v>
       </c>
       <c r="O4" t="n">
-        <v>159263.0340515218</v>
+        <v>159263.0340515217</v>
       </c>
       <c r="P4" t="n">
         <v>159263.0340515217</v>
@@ -26475,31 +26475,31 @@
         <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>39307.31993794742</v>
+        <v>39184.9364115275</v>
       </c>
       <c r="E5" t="n">
-        <v>74772.39637346868</v>
+        <v>74772.39637346867</v>
       </c>
       <c r="F5" t="n">
-        <v>74772.39637346868</v>
+        <v>74772.39637346867</v>
       </c>
       <c r="G5" t="n">
-        <v>74772.39637346868</v>
+        <v>74772.39637346867</v>
       </c>
       <c r="H5" t="n">
-        <v>74772.39637346868</v>
+        <v>74772.39637346867</v>
       </c>
       <c r="I5" t="n">
-        <v>74772.39637346868</v>
+        <v>74772.39637346867</v>
       </c>
       <c r="J5" t="n">
-        <v>75897.23053147501</v>
+        <v>75897.230531475</v>
       </c>
       <c r="K5" t="n">
         <v>75897.230531475</v>
       </c>
       <c r="L5" t="n">
-        <v>74772.39637346868</v>
+        <v>75897.230531475</v>
       </c>
       <c r="M5" t="n">
         <v>74772.39637346868</v>
@@ -26521,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>363319.6306657423</v>
+        <v>363319.6306657422</v>
       </c>
       <c r="C6" t="n">
-        <v>378109.3366699865</v>
+        <v>378109.3366699863</v>
       </c>
       <c r="D6" t="n">
-        <v>367729.5015372115</v>
+        <v>368153.4386874538</v>
       </c>
       <c r="E6" t="n">
-        <v>-219945.0921654734</v>
+        <v>-220546.0959245425</v>
       </c>
       <c r="F6" t="n">
         <v>566480.2951926845</v>
@@ -26539,28 +26539,28 @@
         <v>566480.2951926847</v>
       </c>
       <c r="H6" t="n">
-        <v>566480.2951926845</v>
+        <v>566480.295192686</v>
       </c>
       <c r="I6" t="n">
-        <v>566480.2951926859</v>
+        <v>566480.2951926847</v>
       </c>
       <c r="J6" t="n">
-        <v>483480.7798808243</v>
+        <v>483576.7234197485</v>
       </c>
       <c r="K6" t="n">
-        <v>566566.0016385356</v>
+        <v>566661.9451774606</v>
       </c>
       <c r="L6" t="n">
-        <v>555335.2415778043</v>
+        <v>554697.9825649547</v>
       </c>
       <c r="M6" t="n">
-        <v>366450.2811015827</v>
+        <v>367165.0483134597</v>
       </c>
       <c r="N6" t="n">
-        <v>566480.2951926847</v>
+        <v>566480.2951926857</v>
       </c>
       <c r="O6" t="n">
-        <v>502478.7036631217</v>
+        <v>502478.7036631221</v>
       </c>
       <c r="P6" t="n">
         <v>566480.2951926847</v>
@@ -26694,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>87.45447507648169</v>
+      </c>
+      <c r="F2" t="n">
+        <v>87.45447507648169</v>
+      </c>
+      <c r="G2" t="n">
+        <v>87.45447507648169</v>
+      </c>
+      <c r="H2" t="n">
+        <v>87.45447507648169</v>
+      </c>
+      <c r="I2" t="n">
+        <v>87.45447507648169</v>
+      </c>
+      <c r="J2" t="n">
+        <v>80.00198941195309</v>
+      </c>
+      <c r="K2" t="n">
+        <v>80.00198941195309</v>
+      </c>
+      <c r="L2" t="n">
+        <v>80.00198941195309</v>
+      </c>
+      <c r="M2" t="n">
+        <v>87.45447507648177</v>
+      </c>
+      <c r="N2" t="n">
+        <v>87.4544750764817</v>
+      </c>
+      <c r="O2" t="n">
         <v>87.45447507648171</v>
       </c>
-      <c r="F2" t="n">
+      <c r="P2" t="n">
         <v>87.45447507648171</v>
-      </c>
-      <c r="G2" t="n">
-        <v>87.45447507648171</v>
-      </c>
-      <c r="H2" t="n">
-        <v>87.45447507648171</v>
-      </c>
-      <c r="I2" t="n">
-        <v>87.45447507648173</v>
-      </c>
-      <c r="J2" t="n">
-        <v>80.00198941195308</v>
-      </c>
-      <c r="K2" t="n">
-        <v>80.0019894119531</v>
-      </c>
-      <c r="L2" t="n">
-        <v>87.4544750764817</v>
-      </c>
-      <c r="M2" t="n">
-        <v>87.45447507648171</v>
-      </c>
-      <c r="N2" t="n">
-        <v>87.45447507648171</v>
-      </c>
-      <c r="O2" t="n">
-        <v>87.45447507648173</v>
-      </c>
-      <c r="P2" t="n">
-        <v>87.4544750764817</v>
       </c>
     </row>
     <row r="3">
@@ -26795,31 +26795,31 @@
         <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>93.4164463478195</v>
+        <v>91.40355940012341</v>
       </c>
       <c r="E4" t="n">
-        <v>896.0922223831269</v>
+        <v>896.092222383127</v>
       </c>
       <c r="F4" t="n">
-        <v>896.0922223831269</v>
+        <v>896.092222383127</v>
       </c>
       <c r="G4" t="n">
-        <v>896.0922223831269</v>
+        <v>896.092222383127</v>
       </c>
       <c r="H4" t="n">
-        <v>896.0922223831269</v>
+        <v>896.092222383127</v>
       </c>
       <c r="I4" t="n">
-        <v>896.0922223831269</v>
+        <v>896.092222383127</v>
       </c>
       <c r="J4" t="n">
-        <v>924.8974390827583</v>
+        <v>924.8974390827582</v>
       </c>
       <c r="K4" t="n">
         <v>924.8974390827582</v>
       </c>
       <c r="L4" t="n">
-        <v>896.092222383127</v>
+        <v>924.8974390827582</v>
       </c>
       <c r="M4" t="n">
         <v>896.0922223831269</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26934,19 +26934,19 @@
         <v>80.00198941195309</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.452485664528595</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>7.45248566452868</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195312</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>49.28427396859091</v>
+        <v>47.27138702089483</v>
       </c>
       <c r="E4" t="n">
-        <v>802.6757760353074</v>
+        <v>804.6886629830036</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>72.93738907885995</v>
+        <v>72.93738907885972</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>20.47905726895975</v>
+        <v>47.27138702089483</v>
       </c>
       <c r="M4" t="n">
-        <v>802.6757760353073</v>
+        <v>775.8834462833723</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>80.00198941195309</v>
       </c>
       <c r="P2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>49.28427396859091</v>
+        <v>47.27138702089483</v>
       </c>
       <c r="M4" t="n">
-        <v>802.6757760353074</v>
+        <v>804.6886629830036</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>164.8878972070167</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U2" t="n">
         <v>212.4606349229872</v>
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>128.4081575445007</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>103.3128931854102</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27475,7 +27475,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>45.26446047218649</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>62.03280804727645</v>
       </c>
       <c r="S3" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27517,7 +27517,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27539,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>166.4563706509456</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>104.4833006389838</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>102.3017902673406</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>101.2888756437027</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>118.095000128211</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>92.56872966899051</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -27581,7 +27581,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27627,10 +27627,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>362.7438733624829</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>386.4218192980553</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27639,7 +27639,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>105.7369455619211</v>
+        <v>110.9840999563004</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>342.105766276825</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27700,7 +27700,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>103.3128931854102</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27709,13 +27709,13 @@
         <v>100.9370400141553</v>
       </c>
       <c r="G6" t="n">
-        <v>99.21849105784395</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>74.11041813112978</v>
       </c>
       <c r="I6" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -27788,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>123.8588069792302</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>118.095000128211</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>135.5187846613368</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>66.2303529857729</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -27858,13 +27858,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>263.2794822205595</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>290.5268106721384</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>363.6105167063751</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>117.0594432225864</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>56.45267159333018</v>
+        <v>58.46555854102627</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>129.6794032163119</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>331.5686665613134</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27937,19 +27937,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>65.91045094773725</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>64.22863410758144</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>51.65276604556438</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>18.81899788867696</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -27979,13 +27979,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>8.75427475251972</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>80.27961170371441</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>108.7611692946982</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -28000,7 +28000,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>125.9210319839335</v>
       </c>
     </row>
     <row r="10">
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>147.7329047392661</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28025,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>74.57453301063926</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>147.4475838308804</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>1.955620716549362</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="C11" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="D11" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="E11" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="F11" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="G11" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="H11" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="I11" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="T11" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="U11" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="V11" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="W11" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="X11" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="Y11" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="C13" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="D13" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="E13" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="F13" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="G13" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="H13" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="I13" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="K13" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="L13" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="M13" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="N13" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="O13" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="P13" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="Q13" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="R13" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="S13" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="T13" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="U13" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="V13" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="W13" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="X13" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="Y13" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="C14" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="D14" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="E14" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="F14" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="G14" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="H14" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="I14" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="T14" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="U14" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="V14" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="W14" t="n">
-        <v>87.45447507648163</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="X14" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="Y14" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="C16" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="D16" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="E16" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="F16" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="G16" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="H16" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="I16" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="K16" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="L16" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="M16" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="N16" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="O16" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="P16" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="Q16" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="R16" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="S16" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="T16" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="U16" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="V16" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="W16" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="X16" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="Y16" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="C17" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="D17" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="E17" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="F17" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="G17" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="H17" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="I17" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="T17" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="U17" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="V17" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="W17" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="X17" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="Y17" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="C19" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="D19" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="E19" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="F19" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="G19" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="H19" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="I19" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="K19" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="L19" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="M19" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="N19" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="O19" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="P19" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="Q19" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="R19" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="S19" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="T19" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="U19" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="V19" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="W19" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="X19" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="Y19" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="C20" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648186</v>
       </c>
       <c r="D20" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="E20" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="F20" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="G20" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="H20" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="I20" t="n">
-        <v>87.45447507648157</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="T20" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="U20" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="V20" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="W20" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="X20" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="Y20" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="C22" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="D22" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="E22" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="F22" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="G22" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="H22" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="I22" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="K22" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="L22" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="M22" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="N22" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="O22" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="P22" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="Q22" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="R22" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="S22" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="T22" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="U22" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="V22" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="W22" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="X22" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="Y22" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648169</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="C23" t="n">
-        <v>87.4544750764814</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="D23" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="E23" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="F23" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="G23" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="H23" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="I23" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648183</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="T23" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="U23" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="V23" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="W23" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="X23" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="Y23" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648169</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="C25" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="D25" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="E25" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="F25" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="G25" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="H25" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="I25" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="K25" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="L25" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="M25" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="N25" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="O25" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="P25" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="Q25" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="R25" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="S25" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="T25" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="U25" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="V25" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="W25" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="X25" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648169</v>
       </c>
       <c r="Y25" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648169</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>80.00198941195308</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="C26" t="n">
-        <v>80.00198941195308</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="D26" t="n">
-        <v>80.00198941195308</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="E26" t="n">
-        <v>80.00198941195308</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="F26" t="n">
-        <v>80.00198941195308</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="G26" t="n">
-        <v>80.00198941195308</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="H26" t="n">
-        <v>80.00198941195308</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="I26" t="n">
-        <v>80.00198941195308</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>80.00198941195308</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="T26" t="n">
-        <v>80.00198941195308</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="U26" t="n">
-        <v>80.00198941195308</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="V26" t="n">
-        <v>80.00198941195308</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="W26" t="n">
-        <v>80.00198941195308</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="X26" t="n">
-        <v>80.00198941195308</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="Y26" t="n">
-        <v>80.00198941195308</v>
+        <v>80.00198941195309</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.00198941195308</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="C28" t="n">
-        <v>80.00198941195308</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="D28" t="n">
-        <v>80.00198941195308</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="E28" t="n">
-        <v>80.00198941195308</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="F28" t="n">
-        <v>80.00198941195308</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="G28" t="n">
-        <v>80.00198941195308</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="H28" t="n">
-        <v>80.00198941195308</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="I28" t="n">
-        <v>80.00198941195308</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="J28" t="n">
-        <v>80.00198941195308</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="K28" t="n">
-        <v>80.00198941195308</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="L28" t="n">
-        <v>80.00198941195308</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="M28" t="n">
-        <v>80.00198941195308</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="N28" t="n">
-        <v>80.00198941195308</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="O28" t="n">
-        <v>80.00198941195308</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="P28" t="n">
-        <v>80.00198941195308</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="Q28" t="n">
-        <v>80.00198941195308</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="R28" t="n">
-        <v>80.00198941195308</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="S28" t="n">
-        <v>80.00198941195308</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="T28" t="n">
-        <v>80.00198941195308</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="U28" t="n">
-        <v>80.00198941195308</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="V28" t="n">
-        <v>80.00198941195308</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="W28" t="n">
-        <v>80.00198941195308</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="X28" t="n">
-        <v>80.00198941195308</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="Y28" t="n">
-        <v>80.00198941195308</v>
+        <v>80.00198941195309</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="C29" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="D29" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="E29" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="F29" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="G29" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="H29" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="I29" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="T29" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="U29" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="V29" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="W29" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="X29" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="Y29" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195309</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="C31" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="D31" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="E31" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="F31" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="G31" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="H31" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="I31" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="J31" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="K31" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="L31" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="M31" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="N31" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="O31" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="P31" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="Q31" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="R31" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="S31" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="T31" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="U31" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="V31" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="W31" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="X31" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="Y31" t="n">
-        <v>80.0019894119531</v>
+        <v>80.00198941195309</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>87.4544750764817</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="C32" t="n">
-        <v>87.4544750764817</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="D32" t="n">
-        <v>87.4544750764817</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="E32" t="n">
-        <v>87.4544750764817</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="F32" t="n">
-        <v>87.4544750764817</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="G32" t="n">
-        <v>87.4544750764817</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="H32" t="n">
-        <v>87.4544750764817</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="I32" t="n">
-        <v>87.4544750764817</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>87.4544750764817</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="T32" t="n">
-        <v>87.4544750764817</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="U32" t="n">
-        <v>87.4544750764817</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="V32" t="n">
-        <v>87.4544750764817</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="W32" t="n">
-        <v>87.4544750764817</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="X32" t="n">
-        <v>87.4544750764817</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="Y32" t="n">
-        <v>87.4544750764817</v>
+        <v>80.00198941195309</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>87.4544750764817</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="C34" t="n">
-        <v>87.4544750764817</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="D34" t="n">
-        <v>87.4544750764817</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="E34" t="n">
-        <v>87.4544750764817</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="F34" t="n">
-        <v>87.4544750764817</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="G34" t="n">
-        <v>87.4544750764817</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="H34" t="n">
-        <v>87.4544750764817</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="I34" t="n">
-        <v>87.4544750764817</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="J34" t="n">
-        <v>87.4544750764817</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="K34" t="n">
-        <v>87.4544750764817</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="L34" t="n">
-        <v>87.4544750764817</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="M34" t="n">
-        <v>87.4544750764817</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="N34" t="n">
-        <v>87.4544750764817</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="O34" t="n">
-        <v>87.4544750764817</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="P34" t="n">
-        <v>87.4544750764817</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="Q34" t="n">
-        <v>87.4544750764817</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="R34" t="n">
-        <v>87.4544750764817</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="S34" t="n">
-        <v>87.4544750764817</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="T34" t="n">
-        <v>87.4544750764817</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="U34" t="n">
-        <v>87.4544750764817</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="V34" t="n">
-        <v>87.4544750764817</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="W34" t="n">
-        <v>87.4544750764817</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="X34" t="n">
-        <v>87.4544750764817</v>
+        <v>80.00198941195309</v>
       </c>
       <c r="Y34" t="n">
-        <v>87.4544750764817</v>
+        <v>80.00198941195309</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="C35" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="D35" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="E35" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="F35" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="G35" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="H35" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="I35" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="T35" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="U35" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="V35" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="W35" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="X35" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="Y35" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648177</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="C37" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="D37" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="E37" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="F37" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="G37" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="H37" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="I37" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="K37" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="L37" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="M37" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="N37" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="O37" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="P37" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="Q37" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="R37" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="S37" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="T37" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="U37" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="V37" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="W37" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="X37" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648177</v>
       </c>
       <c r="Y37" t="n">
-        <v>87.45447507648171</v>
+        <v>87.45447507648177</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="C38" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="D38" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="E38" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="F38" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="G38" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="H38" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="I38" t="n">
-        <v>87.45447507648157</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="T38" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="U38" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="V38" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="W38" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="X38" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="Y38" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="C40" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="D40" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="E40" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="F40" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="G40" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="H40" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="I40" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="K40" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="L40" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="M40" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="N40" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="O40" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="P40" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="Q40" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="R40" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="S40" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="T40" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="U40" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="V40" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="W40" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="X40" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
       <c r="Y40" t="n">
-        <v>87.45447507648171</v>
+        <v>87.4544750764817</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="C41" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="D41" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="E41" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="F41" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="G41" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="H41" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="I41" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="T41" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="U41" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="V41" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="W41" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="X41" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="Y41" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="C43" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="D43" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="E43" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="F43" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="G43" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="H43" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="I43" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="K43" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="L43" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="M43" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="N43" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="O43" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="P43" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="Q43" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="R43" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="S43" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="T43" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="U43" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="V43" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="W43" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="X43" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="Y43" t="n">
-        <v>87.45447507648173</v>
+        <v>87.45447507648171</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="C44" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="D44" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="E44" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="F44" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="G44" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="H44" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="I44" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="T44" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="U44" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="V44" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="W44" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="X44" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="Y44" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="C46" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="D46" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="E46" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="F46" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="G46" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="H46" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="I46" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="J46" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="K46" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="L46" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="M46" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="N46" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="O46" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="P46" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="Q46" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="R46" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="S46" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="T46" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="U46" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="V46" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="W46" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="X46" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
       <c r="Y46" t="n">
-        <v>87.4544750764817</v>
+        <v>87.45447507648171</v>
       </c>
     </row>
   </sheetData>
@@ -34701,13 +34701,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>42.34905430330018</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>44.13217237922859</v>
@@ -34786,16 +34786,16 @@
         <v>44.13217237922859</v>
       </c>
       <c r="M3" t="n">
-        <v>42.34905430330018</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O3" t="n">
-        <v>44.13217237922859</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>44.13217237922859</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L5" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N5" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="O5" t="n">
-        <v>42.34905430330016</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N6" t="n">
-        <v>42.34905430330018</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>44.13217237922859</v>
@@ -35175,19 +35175,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>87.71048629304772</v>
       </c>
       <c r="L8" t="n">
-        <v>93.4164463478195</v>
+        <v>91.40355940012341</v>
       </c>
       <c r="M8" t="n">
-        <v>93.4164463478195</v>
+        <v>91.40355940012341</v>
       </c>
       <c r="N8" t="n">
-        <v>93.4164463478195</v>
+        <v>91.40355940012341</v>
       </c>
       <c r="O8" t="n">
-        <v>89.64204447518033</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>93.4164463478195</v>
+        <v>91.40355940012341</v>
       </c>
       <c r="L9" t="n">
-        <v>93.4164463478195</v>
+        <v>87.71048629304772</v>
       </c>
       <c r="M9" t="n">
-        <v>89.64204447518033</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>91.40355940012341</v>
       </c>
       <c r="P9" t="n">
-        <v>93.4164463478195</v>
+        <v>91.40355940012341</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>76.48833287998174</v>
+        <v>76.48833287998221</v>
       </c>
       <c r="K11" t="n">
         <v>407.5425384040863</v>
@@ -35494,22 +35494,22 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L12" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M12" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N12" t="n">
-        <v>200.663375406732</v>
+        <v>680.0057497502855</v>
       </c>
       <c r="O12" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P12" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q12" t="n">
-        <v>133.9072060731457</v>
+        <v>172.6474721431144</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>69.75863319471273</v>
+        <v>69.7586331947127</v>
       </c>
       <c r="K13" t="n">
-        <v>189.523090829623</v>
+        <v>189.5230908296229</v>
       </c>
       <c r="L13" t="n">
-        <v>274.1544699257933</v>
+        <v>274.1544699257932</v>
       </c>
       <c r="M13" t="n">
         <v>294.797506106015</v>
@@ -35588,7 +35588,7 @@
         <v>214.1691989134672</v>
       </c>
       <c r="Q13" t="n">
-        <v>90.90732297583516</v>
+        <v>90.90732297583513</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>76.48833287998174</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K14" t="n">
         <v>407.5425384040863</v>
@@ -35655,7 +35655,7 @@
         <v>558.3972305517163</v>
       </c>
       <c r="M14" t="n">
-        <v>638.0987989730422</v>
+        <v>524.0417793138968</v>
       </c>
       <c r="N14" t="n">
         <v>633.6441091513602</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>69.75863319471273</v>
+        <v>69.7586331947127</v>
       </c>
       <c r="K16" t="n">
-        <v>189.523090829623</v>
+        <v>189.5230908296229</v>
       </c>
       <c r="L16" t="n">
-        <v>274.1544699257933</v>
+        <v>274.1544699257932</v>
       </c>
       <c r="M16" t="n">
         <v>294.797506106015</v>
@@ -35825,7 +35825,7 @@
         <v>214.1691989134672</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.90732297583516</v>
+        <v>90.90732297583513</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.5453525391276</v>
+        <v>76.48833287998221</v>
       </c>
       <c r="K17" t="n">
         <v>407.5425384040863</v>
@@ -35898,7 +35898,7 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O17" t="n">
-        <v>438.6310659641647</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P17" t="n">
         <v>433.6515619588832</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>119.8578301584805</v>
+        <v>15.92129162592708</v>
       </c>
       <c r="K18" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L18" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M18" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N18" t="n">
-        <v>248.768981579367</v>
+        <v>680.0057497502855</v>
       </c>
       <c r="O18" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P18" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q18" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>69.75863319471273</v>
+        <v>69.7586331947127</v>
       </c>
       <c r="K19" t="n">
-        <v>189.523090829623</v>
+        <v>189.5230908296229</v>
       </c>
       <c r="L19" t="n">
-        <v>274.1544699257933</v>
+        <v>274.1544699257932</v>
       </c>
       <c r="M19" t="n">
         <v>294.797506106015</v>
@@ -36062,7 +36062,7 @@
         <v>214.1691989134672</v>
       </c>
       <c r="Q19" t="n">
-        <v>90.90732297583516</v>
+        <v>90.90732297583513</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36132,7 +36132,7 @@
         <v>638.0987989730422</v>
       </c>
       <c r="N20" t="n">
-        <v>519.5870894922143</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O20" t="n">
         <v>552.6880856233105</v>
@@ -36141,7 +36141,7 @@
         <v>433.6515619588832</v>
       </c>
       <c r="Q20" t="n">
-        <v>247.6524856312129</v>
+        <v>133.5954659720677</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>332.7559639452625</v>
@@ -36208,19 +36208,19 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M21" t="n">
-        <v>229.416046934862</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N21" t="n">
-        <v>200.663375406732</v>
+        <v>680.0057497502855</v>
       </c>
       <c r="O21" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P21" t="n">
-        <v>428.2502711927643</v>
+        <v>326.9486209161752</v>
       </c>
       <c r="Q21" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>69.75863319471273</v>
+        <v>69.7586331947127</v>
       </c>
       <c r="K22" t="n">
-        <v>189.523090829623</v>
+        <v>189.5230908296229</v>
       </c>
       <c r="L22" t="n">
-        <v>274.1544699257933</v>
+        <v>274.1544699257932</v>
       </c>
       <c r="M22" t="n">
         <v>294.797506106015</v>
@@ -36299,7 +36299,7 @@
         <v>214.1691989134672</v>
       </c>
       <c r="Q22" t="n">
-        <v>90.90732297583516</v>
+        <v>90.90732297583513</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.5453525391276</v>
+        <v>76.48833287998221</v>
       </c>
       <c r="K23" t="n">
         <v>407.5425384040863</v>
@@ -36366,7 +36366,7 @@
         <v>558.3972305517163</v>
       </c>
       <c r="M23" t="n">
-        <v>524.0417793138963</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N23" t="n">
         <v>633.6441091513602</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>69.75863319471274</v>
+        <v>69.7586331947127</v>
       </c>
       <c r="K25" t="n">
-        <v>189.523090829623</v>
+        <v>189.5230908296229</v>
       </c>
       <c r="L25" t="n">
-        <v>274.1544699257933</v>
+        <v>274.1544699257932</v>
       </c>
       <c r="M25" t="n">
         <v>294.797506106015</v>
@@ -36530,13 +36530,13 @@
         <v>295.3568637998194</v>
       </c>
       <c r="O25" t="n">
-        <v>263.3079047619352</v>
+        <v>263.3079047619351</v>
       </c>
       <c r="P25" t="n">
-        <v>214.1691989134673</v>
+        <v>214.1691989134672</v>
       </c>
       <c r="Q25" t="n">
-        <v>90.90732297583517</v>
+        <v>90.90732297583513</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>62.30614753018409</v>
+        <v>62.30614753018411</v>
       </c>
       <c r="K28" t="n">
         <v>182.0706051650943</v>
@@ -36761,7 +36761,7 @@
         <v>266.7019842612646</v>
       </c>
       <c r="M28" t="n">
-        <v>287.3450204414863</v>
+        <v>287.3450204414864</v>
       </c>
       <c r="N28" t="n">
         <v>287.9043781352908</v>
@@ -36773,7 +36773,7 @@
         <v>206.7167132489386</v>
       </c>
       <c r="Q28" t="n">
-        <v>83.45483731130652</v>
+        <v>83.45483731130653</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36916,19 +36916,19 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L30" t="n">
-        <v>324.8393568706153</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M30" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N30" t="n">
-        <v>680.0057497502855</v>
+        <v>642.6313008560965</v>
       </c>
       <c r="O30" t="n">
         <v>161.1235481502633</v>
       </c>
       <c r="P30" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q30" t="n">
         <v>233.0438950105733</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>62.30614753018412</v>
+        <v>62.30614753018411</v>
       </c>
       <c r="K31" t="n">
         <v>182.0706051650943</v>
@@ -37010,7 +37010,7 @@
         <v>206.7167132489386</v>
       </c>
       <c r="Q31" t="n">
-        <v>83.45483731130655</v>
+        <v>83.45483731130653</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>433.6515619588832</v>
       </c>
       <c r="Q32" t="n">
-        <v>133.5954659720677</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37156,19 +37156,19 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M33" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N33" t="n">
-        <v>248.768981579367</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O33" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P33" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q33" t="n">
-        <v>233.0438950105733</v>
+        <v>209.306756709938</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>69.75863319471271</v>
+        <v>62.30614753018411</v>
       </c>
       <c r="K34" t="n">
-        <v>189.5230908296229</v>
+        <v>182.0706051650943</v>
       </c>
       <c r="L34" t="n">
-        <v>274.1544699257932</v>
+        <v>266.7019842612646</v>
       </c>
       <c r="M34" t="n">
-        <v>294.797506106015</v>
+        <v>287.3450204414864</v>
       </c>
       <c r="N34" t="n">
-        <v>295.3568637998194</v>
+        <v>287.9043781352908</v>
       </c>
       <c r="O34" t="n">
-        <v>263.3079047619351</v>
+        <v>255.8554190974065</v>
       </c>
       <c r="P34" t="n">
-        <v>214.1691989134672</v>
+        <v>206.7167132489386</v>
       </c>
       <c r="Q34" t="n">
-        <v>90.90732297583514</v>
+        <v>83.45483731130653</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37390,10 +37390,10 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L36" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M36" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N36" t="n">
         <v>680.0057497502855</v>
@@ -37402,10 +37402,10 @@
         <v>161.1235481502633</v>
       </c>
       <c r="P36" t="n">
-        <v>428.2502711927643</v>
+        <v>296.0111038520346</v>
       </c>
       <c r="Q36" t="n">
-        <v>195.6694461163843</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>69.75863319471273</v>
+        <v>69.75863319471279</v>
       </c>
       <c r="K37" t="n">
         <v>189.523090829623</v>
@@ -37475,16 +37475,16 @@
         <v>294.797506106015</v>
       </c>
       <c r="N37" t="n">
-        <v>295.3568637998194</v>
+        <v>295.3568637998195</v>
       </c>
       <c r="O37" t="n">
-        <v>263.3079047619351</v>
+        <v>263.3079047619352</v>
       </c>
       <c r="P37" t="n">
-        <v>214.1691989134672</v>
+        <v>214.1691989134673</v>
       </c>
       <c r="Q37" t="n">
-        <v>90.90732297583516</v>
+        <v>90.90732297583521</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.5453525391276</v>
+        <v>76.48833287998174</v>
       </c>
       <c r="K38" t="n">
         <v>407.5425384040863</v>
@@ -37551,7 +37551,7 @@
         <v>558.3972305517163</v>
       </c>
       <c r="M38" t="n">
-        <v>524.0417793138963</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N38" t="n">
         <v>633.6441091513602</v>
@@ -37624,22 +37624,22 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K39" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L39" t="n">
-        <v>195.4422746064647</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M39" t="n">
-        <v>647.0155045122269</v>
+        <v>229.416046934862</v>
       </c>
       <c r="N39" t="n">
-        <v>680.0057497502855</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O39" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P39" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q39" t="n">
         <v>233.0438950105733</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>69.75863319471273</v>
+        <v>69.75863319471271</v>
       </c>
       <c r="K40" t="n">
-        <v>189.523090829623</v>
+        <v>189.5230908296229</v>
       </c>
       <c r="L40" t="n">
-        <v>274.1544699257933</v>
+        <v>274.1544699257932</v>
       </c>
       <c r="M40" t="n">
         <v>294.797506106015</v>
@@ -37721,7 +37721,7 @@
         <v>214.1691989134672</v>
       </c>
       <c r="Q40" t="n">
-        <v>90.90732297583516</v>
+        <v>90.90732297583514</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.5453525391276</v>
+        <v>76.48833287998174</v>
       </c>
       <c r="K41" t="n">
         <v>407.5425384040863</v>
@@ -37800,7 +37800,7 @@
         <v>433.6515619588832</v>
       </c>
       <c r="Q41" t="n">
-        <v>133.5954659720673</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K42" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L42" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M42" t="n">
-        <v>647.0155045122269</v>
+        <v>229.416046934862</v>
       </c>
       <c r="N42" t="n">
-        <v>377.4642727362754</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O42" t="n">
         <v>554.9858674269929</v>
@@ -37879,7 +37879,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>69.75863319471274</v>
+        <v>69.75863319471273</v>
       </c>
       <c r="K43" t="n">
         <v>189.523090829623</v>
@@ -37952,13 +37952,13 @@
         <v>295.3568637998194</v>
       </c>
       <c r="O43" t="n">
-        <v>263.3079047619352</v>
+        <v>263.3079047619351</v>
       </c>
       <c r="P43" t="n">
-        <v>214.1691989134673</v>
+        <v>214.1691989134672</v>
       </c>
       <c r="Q43" t="n">
-        <v>90.90732297583517</v>
+        <v>90.90732297583516</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>76.48833287998174</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K44" t="n">
         <v>407.5425384040863</v>
@@ -38037,7 +38037,7 @@
         <v>433.6515619588832</v>
       </c>
       <c r="Q44" t="n">
-        <v>247.6524856312129</v>
+        <v>133.5954659720673</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K45" t="n">
         <v>332.7559639452625</v>
@@ -38104,19 +38104,19 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M45" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N45" t="n">
-        <v>680.0057497502855</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O45" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P45" t="n">
-        <v>326.9486209161752</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.96660727472423</v>
+        <v>209.306756709938</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>69.75863319471271</v>
+        <v>69.75863319471273</v>
       </c>
       <c r="K46" t="n">
-        <v>189.5230908296229</v>
+        <v>189.523090829623</v>
       </c>
       <c r="L46" t="n">
-        <v>274.1544699257932</v>
+        <v>274.1544699257933</v>
       </c>
       <c r="M46" t="n">
         <v>294.797506106015</v>
@@ -38195,7 +38195,7 @@
         <v>214.1691989134672</v>
       </c>
       <c r="Q46" t="n">
-        <v>90.90732297583514</v>
+        <v>90.90732297583516</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
